--- a/Documents/Castor_training.xlsx
+++ b/Documents/Castor_training.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1363" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="433">
   <si>
     <t>SubjectID</t>
   </si>
@@ -142,6 +142,9 @@
     <t>201-027</t>
   </si>
   <si>
+    <t>201-028</t>
+  </si>
+  <si>
     <t>202-001</t>
   </si>
   <si>
@@ -511,6 +514,15 @@
     <t>292-015</t>
   </si>
   <si>
+    <t>292-016</t>
+  </si>
+  <si>
+    <t>292-017</t>
+  </si>
+  <si>
+    <t>292-018</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -820,6 +832,15 @@
     <t>20-07-2023</t>
   </si>
   <si>
+    <t>03-08-2023</t>
+  </si>
+  <si>
+    <t>31-08-2023</t>
+  </si>
+  <si>
+    <t>06-09-2023</t>
+  </si>
+  <si>
     <t>26-09-2022</t>
   </si>
   <si>
@@ -979,6 +1000,12 @@
     <t>22-06-2023</t>
   </si>
   <si>
+    <t>27-07-2023</t>
+  </si>
+  <si>
+    <t>09-08-2023</t>
+  </si>
+  <si>
     <t>14-10-2022</t>
   </si>
   <si>
@@ -1063,6 +1090,12 @@
     <t>04-07-2023</t>
   </si>
   <si>
+    <t>02-08-2023</t>
+  </si>
+  <si>
+    <t>10-08-2023</t>
+  </si>
+  <si>
     <t>07-10-2022</t>
   </si>
   <si>
@@ -1129,6 +1162,9 @@
     <t>18-07-2023</t>
   </si>
   <si>
+    <t>18-08-2023</t>
+  </si>
+  <si>
     <t>18-11-2022</t>
   </si>
   <si>
@@ -1174,6 +1210,12 @@
     <t>21-07-2023</t>
   </si>
   <si>
+    <t>28-08-2023</t>
+  </si>
+  <si>
+    <t>04-09-2023</t>
+  </si>
+  <si>
     <t>02-02-2023</t>
   </si>
   <si>
@@ -1225,9 +1267,6 @@
     <t>09-02-2023</t>
   </si>
   <si>
-    <t>27-07-2023</t>
-  </si>
-  <si>
     <t>04-08-2023</t>
   </si>
   <si>
@@ -1243,7 +1282,7 @@
     <t>24-05-2023</t>
   </si>
   <si>
-    <t>03-08-2023</t>
+    <t>30-08-2023</t>
   </si>
   <si>
     <t>15-02-2023</t>
@@ -1252,16 +1291,16 @@
     <t>10-05-2023</t>
   </si>
   <si>
-    <t>10-08-2023</t>
-  </si>
-  <si>
-    <t>18-08-2023</t>
+    <t>05-09-2023</t>
   </si>
   <si>
     <t>07-06-2023</t>
   </si>
   <si>
     <t>05-07-2023</t>
+  </si>
+  <si>
+    <t>29-08-2023</t>
   </si>
   <si>
     <t>16-02-2023</t>
@@ -1631,7 +1670,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P151"/>
+  <dimension ref="A1:P155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1692,31 +1731,31 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G2" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
       <c r="I2" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="J2" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="K2" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1727,34 +1766,34 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E3" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="I3" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J3" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L3" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1765,28 +1804,28 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E4" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="H4" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="J4" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1797,16 +1836,16 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1817,28 +1856,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="H6" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="I6" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="J6" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1849,37 +1888,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="H7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="K7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L7" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="M7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1890,31 +1929,31 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F8" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="G8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="I8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="J8" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="K8" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1925,25 +1964,25 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D9" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E9" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F9" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="G9" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="I9" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1954,25 +1993,25 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E10" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="F10" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="G10" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H10" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="I10" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1983,31 +2022,31 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F11" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G11" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="H11" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="I11" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J11" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="K11" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2018,34 +2057,34 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="H12" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="I12" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="J12" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="K12" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L12" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2056,37 +2095,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="H13" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="I13" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="J13" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K13" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="L13" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="M13" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2097,28 +2136,28 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F14" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G14" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H14" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="I14" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="J14" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2129,34 +2168,34 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D15" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F15" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="G15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H15" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="I15" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="J15" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K15" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="L15" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2167,43 +2206,43 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D16" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F16" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="G16" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I16" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="J16" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="K16" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L16" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="M16" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="N16" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="O16" t="s">
-        <v>416</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2214,28 +2253,28 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D17" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E17" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G17" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="H17" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I17" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="J17" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2246,28 +2285,28 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D18" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E18" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F18" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="G18" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="I18" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="J18" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2278,16 +2317,16 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F19" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2298,28 +2337,28 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D20" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E20" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F20" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="G20" t="s">
+        <v>332</v>
+      </c>
+      <c r="H20" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" t="s">
+        <v>268</v>
+      </c>
+      <c r="J20" t="s">
         <v>323</v>
-      </c>
-      <c r="H20" t="s">
-        <v>263</v>
-      </c>
-      <c r="I20" t="s">
-        <v>264</v>
-      </c>
-      <c r="J20" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2330,16 +2369,16 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E21" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="F21" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2350,31 +2389,31 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D22" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F22" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="G22" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="H22" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="I22" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="J22" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K22" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2385,31 +2424,31 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E23" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F23" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="G23" t="s">
+        <v>334</v>
+      </c>
+      <c r="H23" t="s">
         <v>325</v>
       </c>
-      <c r="H23" t="s">
-        <v>318</v>
-      </c>
       <c r="I23" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="J23" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="K23" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2420,40 +2459,40 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E24" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="F24" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="G24" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="H24" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="I24" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="J24" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="K24" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="M24" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="N24" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2464,43 +2503,43 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E25" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F25" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G25" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" t="s">
         <v>327</v>
       </c>
-      <c r="H25" t="s">
-        <v>320</v>
-      </c>
       <c r="I25" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="J25" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="K25" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="L25" t="s">
-        <v>403</v>
+        <v>328</v>
       </c>
       <c r="M25" t="s">
-        <v>409</v>
+        <v>272</v>
       </c>
       <c r="N25" t="s">
-        <v>412</v>
+        <v>359</v>
       </c>
       <c r="O25" t="s">
-        <v>417</v>
+        <v>430</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2511,40 +2550,40 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E26" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F26" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G26" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="H26" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="I26" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="J26" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="K26" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="L26" t="s">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="M26" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="N26" t="s">
-        <v>413</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2555,16 +2594,16 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D27" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F27" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2575,22 +2614,22 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G28" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H28" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2601,13 +2640,10 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>172</v>
-      </c>
-      <c r="E29" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2618,28 +2654,13 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D30" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E30" t="s">
-        <v>197</v>
-      </c>
-      <c r="F30" t="s">
-        <v>199</v>
-      </c>
-      <c r="G30" t="s">
-        <v>226</v>
-      </c>
-      <c r="H30" t="s">
-        <v>287</v>
-      </c>
-      <c r="I30" t="s">
-        <v>230</v>
-      </c>
-      <c r="J30" t="s">
-        <v>353</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2650,31 +2671,28 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D31" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E31" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F31" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>230</v>
+      </c>
+      <c r="H31" t="s">
+        <v>294</v>
       </c>
       <c r="I31" t="s">
-        <v>230</v>
-      </c>
-      <c r="K31" t="s">
-        <v>204</v>
-      </c>
-      <c r="M31" t="s">
-        <v>231</v>
-      </c>
-      <c r="O31" t="s">
-        <v>329</v>
+        <v>234</v>
+      </c>
+      <c r="J31" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2685,43 +2703,34 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E32" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="F32" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="G32" t="s">
-        <v>228</v>
-      </c>
-      <c r="H32" t="s">
         <v>230</v>
       </c>
       <c r="I32" t="s">
-        <v>206</v>
-      </c>
-      <c r="J32" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K32" t="s">
-        <v>299</v>
-      </c>
-      <c r="L32" t="s">
-        <v>329</v>
+        <v>208</v>
       </c>
       <c r="M32" t="s">
+        <v>235</v>
+      </c>
+      <c r="O32" t="s">
         <v>338</v>
       </c>
-      <c r="N32" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2729,16 +2738,43 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D33" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E33" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
+        <v>203</v>
+      </c>
+      <c r="F33" t="s">
+        <v>293</v>
+      </c>
+      <c r="G33" t="s">
+        <v>232</v>
+      </c>
+      <c r="H33" t="s">
+        <v>234</v>
+      </c>
+      <c r="I33" t="s">
+        <v>210</v>
+      </c>
+      <c r="J33" t="s">
+        <v>235</v>
+      </c>
+      <c r="K33" t="s">
+        <v>306</v>
+      </c>
+      <c r="L33" t="s">
+        <v>338</v>
+      </c>
+      <c r="M33" t="s">
+        <v>347</v>
+      </c>
+      <c r="N33" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2746,25 +2782,16 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D34" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
-      </c>
-      <c r="F34" t="s">
-        <v>201</v>
-      </c>
-      <c r="G34" t="s">
-        <v>287</v>
-      </c>
-      <c r="H34" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2775,25 +2802,22 @@
         <v>169</v>
       </c>
       <c r="D35" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G35" t="s">
-        <v>228</v>
-      </c>
-      <c r="I35" t="s">
-        <v>356</v>
-      </c>
-      <c r="L35" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
+        <v>294</v>
+      </c>
+      <c r="H35" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2801,43 +2825,28 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D36" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G36" t="s">
-        <v>287</v>
-      </c>
-      <c r="H36" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I36" t="s">
-        <v>295</v>
-      </c>
-      <c r="J36" t="s">
-        <v>204</v>
-      </c>
-      <c r="K36" t="s">
-        <v>206</v>
+        <v>367</v>
       </c>
       <c r="L36" t="s">
-        <v>231</v>
-      </c>
-      <c r="M36" t="s">
-        <v>299</v>
-      </c>
-      <c r="N36" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2845,28 +2854,43 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D37" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E37" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F37" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="G37" t="s">
-        <v>230</v>
+        <v>294</v>
       </c>
       <c r="H37" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="I37" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
+        <v>302</v>
+      </c>
+      <c r="J37" t="s">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s">
+        <v>210</v>
+      </c>
+      <c r="L37" t="s">
+        <v>235</v>
+      </c>
+      <c r="M37" t="s">
+        <v>306</v>
+      </c>
+      <c r="N37" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2874,25 +2898,28 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D38" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E38" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F38" t="s">
-        <v>287</v>
+        <v>232</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="H38" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
+        <v>304</v>
+      </c>
+      <c r="I38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2900,34 +2927,25 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D39" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E39" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F39" t="s">
-        <v>228</v>
+        <v>294</v>
       </c>
       <c r="G39" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="H39" t="s">
-        <v>353</v>
-      </c>
-      <c r="I39" t="s">
-        <v>203</v>
-      </c>
-      <c r="J39" t="s">
-        <v>288</v>
-      </c>
-      <c r="K39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2935,22 +2953,34 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D40" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F40" t="s">
-        <v>288</v>
+        <v>232</v>
       </c>
       <c r="G40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
+        <v>234</v>
+      </c>
+      <c r="H40" t="s">
+        <v>364</v>
+      </c>
+      <c r="I40" t="s">
+        <v>207</v>
+      </c>
+      <c r="J40" t="s">
+        <v>295</v>
+      </c>
+      <c r="K40" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2958,40 +2988,22 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D41" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E41" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="G41" t="s">
-        <v>231</v>
-      </c>
-      <c r="H41" t="s">
-        <v>299</v>
-      </c>
-      <c r="I41" t="s">
-        <v>329</v>
-      </c>
-      <c r="J41" t="s">
-        <v>338</v>
-      </c>
-      <c r="K41" t="s">
-        <v>178</v>
-      </c>
-      <c r="M41" t="s">
-        <v>179</v>
-      </c>
-      <c r="N41" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2999,19 +3011,40 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D42" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E42" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F42" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
+        <v>210</v>
+      </c>
+      <c r="G42" t="s">
+        <v>235</v>
+      </c>
+      <c r="H42" t="s">
+        <v>306</v>
+      </c>
+      <c r="I42" t="s">
+        <v>338</v>
+      </c>
+      <c r="J42" t="s">
+        <v>347</v>
+      </c>
+      <c r="K42" t="s">
+        <v>182</v>
+      </c>
+      <c r="M42" t="s">
+        <v>183</v>
+      </c>
+      <c r="N42" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -3019,19 +3052,19 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D43" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
-      </c>
-      <c r="G43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
+        <v>208</v>
+      </c>
+      <c r="F43" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -3039,22 +3072,19 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D44" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E44" t="s">
-        <v>206</v>
-      </c>
-      <c r="F44" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="G44" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -3062,43 +3092,22 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E45" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G45" t="s">
-        <v>329</v>
-      </c>
-      <c r="H45" t="s">
-        <v>338</v>
-      </c>
-      <c r="I45" t="s">
-        <v>178</v>
-      </c>
-      <c r="J45" t="s">
-        <v>271</v>
-      </c>
-      <c r="K45" t="s">
-        <v>272</v>
-      </c>
-      <c r="L45" t="s">
-        <v>181</v>
-      </c>
-      <c r="M45" t="s">
-        <v>210</v>
-      </c>
-      <c r="O45" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -3106,37 +3115,43 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E46" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F46" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="G46" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="H46" t="s">
-        <v>179</v>
+        <v>347</v>
       </c>
       <c r="I46" t="s">
-        <v>236</v>
+        <v>182</v>
       </c>
       <c r="J46" t="s">
-        <v>300</v>
+        <v>278</v>
       </c>
       <c r="K46" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="L46" t="s">
+        <v>185</v>
+      </c>
+      <c r="M46" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="O46" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -3144,22 +3159,37 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E47" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>232</v>
+        <v>213</v>
+      </c>
+      <c r="G47" t="s">
+        <v>339</v>
       </c>
       <c r="H47" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16">
+        <v>183</v>
+      </c>
+      <c r="I47" t="s">
+        <v>240</v>
+      </c>
+      <c r="J47" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" t="s">
+        <v>296</v>
+      </c>
+      <c r="L47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -3167,46 +3197,19 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D48" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E48" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="F48" t="s">
-        <v>235</v>
-      </c>
-      <c r="G48" t="s">
-        <v>331</v>
+        <v>236</v>
       </c>
       <c r="H48" t="s">
-        <v>178</v>
-      </c>
-      <c r="I48" t="s">
-        <v>339</v>
-      </c>
-      <c r="J48" t="s">
-        <v>180</v>
-      </c>
-      <c r="K48" t="s">
-        <v>210</v>
-      </c>
-      <c r="L48" t="s">
-        <v>300</v>
-      </c>
-      <c r="M48" t="s">
-        <v>256</v>
-      </c>
-      <c r="N48" t="s">
-        <v>289</v>
-      </c>
-      <c r="O48" t="s">
-        <v>332</v>
-      </c>
-      <c r="P48" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3217,22 +3220,46 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E49" t="s">
-        <v>178</v>
+        <v>213</v>
       </c>
       <c r="F49" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G49" t="s">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="H49" t="s">
-        <v>210</v>
+        <v>182</v>
+      </c>
+      <c r="I49" t="s">
+        <v>348</v>
+      </c>
+      <c r="J49" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" t="s">
+        <v>214</v>
+      </c>
+      <c r="L49" t="s">
+        <v>307</v>
+      </c>
+      <c r="M49" t="s">
+        <v>260</v>
+      </c>
+      <c r="N49" t="s">
+        <v>296</v>
+      </c>
+      <c r="O49" t="s">
+        <v>341</v>
+      </c>
+      <c r="P49" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3243,40 +3270,22 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D50" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E50" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F50" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G50" t="s">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="H50" t="s">
-        <v>181</v>
-      </c>
-      <c r="I50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J50" t="s">
-        <v>238</v>
-      </c>
-      <c r="K50" t="s">
-        <v>301</v>
-      </c>
-      <c r="L50" t="s">
-        <v>290</v>
-      </c>
-      <c r="M50" t="s">
-        <v>239</v>
-      </c>
-      <c r="N50" t="s">
-        <v>358</v>
+        <v>214</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3287,37 +3296,40 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D51" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E51" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F51" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="G51" t="s">
-        <v>179</v>
+        <v>279</v>
+      </c>
+      <c r="H51" t="s">
+        <v>185</v>
       </c>
       <c r="I51" t="s">
-        <v>237</v>
+        <v>214</v>
+      </c>
+      <c r="J51" t="s">
+        <v>242</v>
       </c>
       <c r="K51" t="s">
-        <v>256</v>
+        <v>308</v>
       </c>
       <c r="L51" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="M51" t="s">
-        <v>302</v>
+        <v>243</v>
       </c>
       <c r="N51" t="s">
-        <v>358</v>
-      </c>
-      <c r="O51" t="s">
-        <v>397</v>
+        <v>369</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3328,28 +3340,37 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D52" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E52" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F52" t="s">
-        <v>210</v>
+        <v>278</v>
       </c>
       <c r="G52" t="s">
-        <v>300</v>
-      </c>
-      <c r="H52" t="s">
-        <v>256</v>
+        <v>183</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
-      </c>
-      <c r="J52" t="s">
-        <v>332</v>
+        <v>241</v>
+      </c>
+      <c r="K52" t="s">
+        <v>260</v>
+      </c>
+      <c r="L52" t="s">
+        <v>296</v>
+      </c>
+      <c r="M52" t="s">
+        <v>309</v>
+      </c>
+      <c r="N52" t="s">
+        <v>369</v>
+      </c>
+      <c r="O52" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3360,46 +3381,28 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D53" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E53" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="F53" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="G53" t="s">
-        <v>256</v>
+        <v>307</v>
       </c>
       <c r="H53" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="I53" t="s">
-        <v>239</v>
+        <v>296</v>
       </c>
       <c r="J53" t="s">
-        <v>214</v>
-      </c>
-      <c r="K53" t="s">
-        <v>291</v>
-      </c>
-      <c r="L53" t="s">
-        <v>382</v>
-      </c>
-      <c r="M53" t="s">
-        <v>292</v>
-      </c>
-      <c r="N53" t="s">
-        <v>333</v>
-      </c>
-      <c r="O53" t="s">
-        <v>243</v>
-      </c>
-      <c r="P53" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3410,13 +3413,46 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E54" t="s">
-        <v>211</v>
+        <v>214</v>
+      </c>
+      <c r="F54" t="s">
+        <v>242</v>
+      </c>
+      <c r="G54" t="s">
+        <v>260</v>
+      </c>
+      <c r="H54" t="s">
+        <v>297</v>
+      </c>
+      <c r="I54" t="s">
+        <v>243</v>
+      </c>
+      <c r="J54" t="s">
+        <v>218</v>
+      </c>
+      <c r="K54" t="s">
+        <v>298</v>
+      </c>
+      <c r="L54" t="s">
+        <v>394</v>
+      </c>
+      <c r="M54" t="s">
+        <v>299</v>
+      </c>
+      <c r="N54" t="s">
+        <v>342</v>
+      </c>
+      <c r="O54" t="s">
+        <v>247</v>
+      </c>
+      <c r="P54" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3427,16 +3463,13 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D55" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E55" t="s">
-        <v>212</v>
-      </c>
-      <c r="F55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3447,31 +3480,16 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D56" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E56" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F56" t="s">
-        <v>289</v>
-      </c>
-      <c r="G56" t="s">
-        <v>332</v>
-      </c>
-      <c r="H56" t="s">
-        <v>215</v>
-      </c>
-      <c r="I56" t="s">
-        <v>358</v>
-      </c>
-      <c r="J56" t="s">
-        <v>382</v>
-      </c>
-      <c r="K56" t="s">
-        <v>292</v>
+        <v>217</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3482,43 +3500,31 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E57" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F57" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="G57" t="s">
-        <v>214</v>
+        <v>341</v>
       </c>
       <c r="H57" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="I57" t="s">
-        <v>216</v>
+        <v>369</v>
       </c>
       <c r="J57" t="s">
-        <v>241</v>
+        <v>394</v>
       </c>
       <c r="K57" t="s">
-        <v>242</v>
-      </c>
-      <c r="L57" t="s">
-        <v>334</v>
-      </c>
-      <c r="M57" t="s">
-        <v>355</v>
-      </c>
-      <c r="N57" t="s">
-        <v>340</v>
-      </c>
-      <c r="O57" t="s">
-        <v>342</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3529,46 +3535,43 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D58" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E58" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F58" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="G58" t="s">
-        <v>332</v>
+        <v>218</v>
       </c>
       <c r="H58" t="s">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="I58" t="s">
-        <v>358</v>
+        <v>220</v>
       </c>
       <c r="J58" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K58" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="L58" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="M58" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="N58" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="O58" t="s">
-        <v>307</v>
-      </c>
-      <c r="P58" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3579,19 +3582,46 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E59" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="F59" t="s">
-        <v>185</v>
+        <v>297</v>
       </c>
       <c r="G59" t="s">
-        <v>241</v>
+        <v>341</v>
+      </c>
+      <c r="H59" t="s">
+        <v>309</v>
+      </c>
+      <c r="I59" t="s">
+        <v>369</v>
+      </c>
+      <c r="J59" t="s">
+        <v>244</v>
+      </c>
+      <c r="K59" t="s">
+        <v>299</v>
+      </c>
+      <c r="L59" t="s">
+        <v>342</v>
+      </c>
+      <c r="M59" t="s">
+        <v>366</v>
+      </c>
+      <c r="N59" t="s">
+        <v>224</v>
+      </c>
+      <c r="O59" t="s">
+        <v>314</v>
+      </c>
+      <c r="P59" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3605,13 +3635,16 @@
         <v>169</v>
       </c>
       <c r="D60" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E60" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F60" t="s">
-        <v>291</v>
+        <v>189</v>
+      </c>
+      <c r="G60" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3622,16 +3655,16 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E61" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="F61" t="s">
-        <v>216</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3642,46 +3675,16 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D62" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E62" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="F62" t="s">
-        <v>292</v>
-      </c>
-      <c r="G62" t="s">
-        <v>333</v>
-      </c>
-      <c r="H62" t="s">
-        <v>354</v>
-      </c>
-      <c r="I62" t="s">
-        <v>334</v>
-      </c>
-      <c r="J62" t="s">
-        <v>303</v>
-      </c>
-      <c r="K62" t="s">
-        <v>340</v>
-      </c>
-      <c r="L62" t="s">
-        <v>307</v>
-      </c>
-      <c r="M62" t="s">
-        <v>342</v>
-      </c>
-      <c r="N62" t="s">
-        <v>335</v>
-      </c>
-      <c r="O62" t="s">
-        <v>186</v>
-      </c>
-      <c r="P62" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3695,19 +3698,43 @@
         <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E63" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F63" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="G63" t="s">
-        <v>219</v>
+        <v>342</v>
       </c>
       <c r="H63" t="s">
-        <v>257</v>
+        <v>365</v>
+      </c>
+      <c r="I63" t="s">
+        <v>343</v>
+      </c>
+      <c r="J63" t="s">
+        <v>310</v>
+      </c>
+      <c r="K63" t="s">
+        <v>349</v>
+      </c>
+      <c r="L63" t="s">
+        <v>314</v>
+      </c>
+      <c r="M63" t="s">
+        <v>351</v>
+      </c>
+      <c r="N63" t="s">
+        <v>344</v>
+      </c>
+      <c r="O63" t="s">
+        <v>190</v>
+      </c>
+      <c r="P63" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3718,46 +3745,22 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E64" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="G64" t="s">
-        <v>334</v>
+        <v>223</v>
       </c>
       <c r="H64" t="s">
-        <v>355</v>
-      </c>
-      <c r="I64" t="s">
-        <v>220</v>
-      </c>
-      <c r="J64" t="s">
-        <v>307</v>
-      </c>
-      <c r="K64" t="s">
-        <v>294</v>
-      </c>
-      <c r="L64" t="s">
-        <v>257</v>
-      </c>
-      <c r="M64" t="s">
-        <v>410</v>
-      </c>
-      <c r="N64" t="s">
-        <v>187</v>
-      </c>
-      <c r="O64" t="s">
-        <v>399</v>
-      </c>
-      <c r="P64" t="s">
-        <v>311</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3768,22 +3771,46 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E65" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F65" t="s">
-        <v>245</v>
+        <v>300</v>
       </c>
       <c r="G65" t="s">
-        <v>305</v>
+        <v>343</v>
       </c>
       <c r="H65" t="s">
-        <v>294</v>
+        <v>366</v>
+      </c>
+      <c r="I65" t="s">
+        <v>224</v>
+      </c>
+      <c r="J65" t="s">
+        <v>314</v>
+      </c>
+      <c r="K65" t="s">
+        <v>301</v>
+      </c>
+      <c r="L65" t="s">
+        <v>261</v>
+      </c>
+      <c r="M65" t="s">
+        <v>423</v>
+      </c>
+      <c r="N65" t="s">
+        <v>191</v>
+      </c>
+      <c r="O65" t="s">
+        <v>413</v>
+      </c>
+      <c r="P65" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3797,22 +3824,19 @@
         <v>169</v>
       </c>
       <c r="D66" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E66" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="F66" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="G66" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="H66" t="s">
-        <v>342</v>
-      </c>
-      <c r="I66" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3823,34 +3847,25 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D67" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E67" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F67" t="s">
-        <v>294</v>
+        <v>224</v>
       </c>
       <c r="G67" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="H67" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="I67" t="s">
-        <v>378</v>
-      </c>
-      <c r="J67" t="s">
-        <v>277</v>
-      </c>
-      <c r="K67" t="s">
-        <v>322</v>
-      </c>
-      <c r="L67" t="s">
-        <v>188</v>
+        <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3861,40 +3876,34 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D68" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E68" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F68" t="s">
-        <v>224</v>
+        <v>301</v>
       </c>
       <c r="G68" t="s">
-        <v>227</v>
+        <v>344</v>
       </c>
       <c r="H68" t="s">
-        <v>336</v>
+        <v>190</v>
       </c>
       <c r="I68" t="s">
-        <v>229</v>
+        <v>390</v>
       </c>
       <c r="J68" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="K68" t="s">
-        <v>204</v>
+        <v>331</v>
       </c>
       <c r="L68" t="s">
-        <v>393</v>
-      </c>
-      <c r="M68" t="s">
-        <v>299</v>
-      </c>
-      <c r="N68" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3905,28 +3914,40 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D69" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E69" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F69" t="s">
-        <v>197</v>
+        <v>228</v>
       </c>
       <c r="G69" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="H69" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="I69" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="J69" t="s">
-        <v>295</v>
+        <v>302</v>
+      </c>
+      <c r="K69" t="s">
+        <v>208</v>
+      </c>
+      <c r="L69" t="s">
+        <v>407</v>
+      </c>
+      <c r="M69" t="s">
+        <v>306</v>
+      </c>
+      <c r="N69" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3937,46 +3958,28 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D70" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E70" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F70" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="G70" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H70" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="I70" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="J70" t="s">
-        <v>230</v>
-      </c>
-      <c r="K70" t="s">
-        <v>295</v>
-      </c>
-      <c r="L70" t="s">
-        <v>204</v>
-      </c>
-      <c r="M70" t="s">
-        <v>206</v>
-      </c>
-      <c r="N70" t="s">
-        <v>231</v>
-      </c>
-      <c r="O70" t="s">
-        <v>299</v>
-      </c>
-      <c r="P70" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -3987,46 +3990,46 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E71" t="s">
-        <v>197</v>
+        <v>225</v>
       </c>
       <c r="F71" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G71" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="H71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I71" t="s">
-        <v>296</v>
+        <v>232</v>
       </c>
       <c r="J71" t="s">
-        <v>297</v>
+        <v>234</v>
       </c>
       <c r="K71" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="L71" t="s">
-        <v>288</v>
+        <v>208</v>
       </c>
       <c r="M71" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N71" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="O71" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4037,34 +4040,46 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E72" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="F72" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G72" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="H72" t="s">
-        <v>336</v>
+        <v>232</v>
       </c>
       <c r="I72" t="s">
-        <v>230</v>
+        <v>303</v>
       </c>
       <c r="J72" t="s">
-        <v>356</v>
+        <v>304</v>
       </c>
       <c r="K72" t="s">
-        <v>379</v>
+        <v>209</v>
       </c>
       <c r="L72" t="s">
-        <v>298</v>
+        <v>295</v>
+      </c>
+      <c r="M72" t="s">
+        <v>212</v>
+      </c>
+      <c r="N72" t="s">
+        <v>236</v>
+      </c>
+      <c r="O72" t="s">
+        <v>238</v>
+      </c>
+      <c r="P72" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4075,28 +4090,34 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E73" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F73" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G73" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="H73" t="s">
-        <v>229</v>
+        <v>345</v>
       </c>
       <c r="I73" t="s">
-        <v>295</v>
+        <v>234</v>
       </c>
       <c r="J73" t="s">
-        <v>204</v>
+        <v>367</v>
+      </c>
+      <c r="K73" t="s">
+        <v>391</v>
+      </c>
+      <c r="L73" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4107,22 +4128,28 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F74" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="G74" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="H74" t="s">
-        <v>230</v>
+        <v>233</v>
+      </c>
+      <c r="I74" t="s">
+        <v>302</v>
+      </c>
+      <c r="J74" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4133,13 +4160,22 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D75" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>223</v>
+        <v>226</v>
+      </c>
+      <c r="F75" t="s">
+        <v>227</v>
+      </c>
+      <c r="G75" t="s">
+        <v>232</v>
+      </c>
+      <c r="H75" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4150,46 +4186,13 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D76" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E76" t="s">
-        <v>199</v>
-      </c>
-      <c r="F76" t="s">
-        <v>226</v>
-      </c>
-      <c r="G76" t="s">
-        <v>228</v>
-      </c>
-      <c r="H76" t="s">
-        <v>230</v>
-      </c>
-      <c r="I76" t="s">
-        <v>356</v>
-      </c>
-      <c r="J76" t="s">
-        <v>203</v>
-      </c>
-      <c r="K76" t="s">
-        <v>288</v>
-      </c>
-      <c r="L76" t="s">
-        <v>208</v>
-      </c>
-      <c r="M76" t="s">
-        <v>232</v>
-      </c>
-      <c r="N76" t="s">
-        <v>234</v>
-      </c>
-      <c r="O76" t="s">
-        <v>175</v>
-      </c>
-      <c r="P76" t="s">
-        <v>380</v>
+        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4200,19 +4203,46 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D77" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E77" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="F77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G77" t="s">
-        <v>230</v>
+        <v>232</v>
+      </c>
+      <c r="H77" t="s">
+        <v>234</v>
+      </c>
+      <c r="I77" t="s">
+        <v>367</v>
+      </c>
+      <c r="J77" t="s">
+        <v>207</v>
+      </c>
+      <c r="K77" t="s">
+        <v>295</v>
+      </c>
+      <c r="L77" t="s">
+        <v>212</v>
+      </c>
+      <c r="M77" t="s">
+        <v>236</v>
+      </c>
+      <c r="N77" t="s">
+        <v>238</v>
+      </c>
+      <c r="O77" t="s">
+        <v>179</v>
+      </c>
+      <c r="P77" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4223,40 +4253,19 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E78" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F78" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="G78" t="s">
-        <v>228</v>
-      </c>
-      <c r="H78" t="s">
-        <v>296</v>
-      </c>
-      <c r="I78" t="s">
-        <v>297</v>
-      </c>
-      <c r="J78" t="s">
-        <v>204</v>
-      </c>
-      <c r="K78" t="s">
-        <v>206</v>
-      </c>
-      <c r="L78" t="s">
-        <v>393</v>
-      </c>
-      <c r="M78" t="s">
-        <v>337</v>
-      </c>
-      <c r="N78" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4267,37 +4276,40 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D79" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E79" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F79" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="G79" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H79" t="s">
-        <v>356</v>
+        <v>303</v>
       </c>
       <c r="I79" t="s">
-        <v>379</v>
+        <v>304</v>
       </c>
       <c r="J79" t="s">
-        <v>298</v>
+        <v>208</v>
       </c>
       <c r="K79" t="s">
-        <v>393</v>
+        <v>210</v>
       </c>
       <c r="L79" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="M79" t="s">
-        <v>235</v>
+        <v>346</v>
+      </c>
+      <c r="N79" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4308,19 +4320,37 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D80" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E80" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F80" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="G80" t="s">
-        <v>336</v>
+        <v>234</v>
+      </c>
+      <c r="H80" t="s">
+        <v>367</v>
+      </c>
+      <c r="I80" t="s">
+        <v>391</v>
+      </c>
+      <c r="J80" t="s">
+        <v>305</v>
+      </c>
+      <c r="K80" t="s">
+        <v>407</v>
+      </c>
+      <c r="L80" t="s">
+        <v>346</v>
+      </c>
+      <c r="M80" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4331,46 +4361,19 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E81" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="F81" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G81" t="s">
-        <v>228</v>
-      </c>
-      <c r="H81" t="s">
-        <v>296</v>
-      </c>
-      <c r="I81" t="s">
-        <v>356</v>
-      </c>
-      <c r="J81" t="s">
-        <v>205</v>
-      </c>
-      <c r="K81" t="s">
-        <v>394</v>
-      </c>
-      <c r="L81" t="s">
-        <v>395</v>
-      </c>
-      <c r="M81" t="s">
-        <v>233</v>
-      </c>
-      <c r="N81" t="s">
-        <v>174</v>
-      </c>
-      <c r="O81" t="s">
-        <v>418</v>
-      </c>
-      <c r="P81" t="s">
-        <v>268</v>
+        <v>345</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4381,46 +4384,46 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E82" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F82" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G82" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H82" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="I82" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="J82" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="K82" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="L82" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="M82" t="s">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="N82" t="s">
-        <v>338</v>
+        <v>178</v>
       </c>
       <c r="O82" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="P82" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4431,13 +4434,46 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D83" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E83" t="s">
-        <v>202</v>
+        <v>230</v>
+      </c>
+      <c r="F83" t="s">
+        <v>232</v>
+      </c>
+      <c r="G83" t="s">
+        <v>234</v>
+      </c>
+      <c r="H83" t="s">
+        <v>302</v>
+      </c>
+      <c r="I83" t="s">
+        <v>391</v>
+      </c>
+      <c r="J83" t="s">
+        <v>210</v>
+      </c>
+      <c r="K83" t="s">
+        <v>409</v>
+      </c>
+      <c r="L83" t="s">
+        <v>237</v>
+      </c>
+      <c r="M83" t="s">
+        <v>178</v>
+      </c>
+      <c r="N83" t="s">
+        <v>347</v>
+      </c>
+      <c r="O83" t="s">
+        <v>431</v>
+      </c>
+      <c r="P83" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4448,46 +4484,13 @@
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E84" t="s">
-        <v>227</v>
-      </c>
-      <c r="F84" t="s">
-        <v>228</v>
-      </c>
-      <c r="G84" t="s">
-        <v>230</v>
-      </c>
-      <c r="H84" t="s">
-        <v>297</v>
-      </c>
-      <c r="I84" t="s">
-        <v>204</v>
-      </c>
-      <c r="J84" t="s">
         <v>206</v>
-      </c>
-      <c r="K84" t="s">
-        <v>393</v>
-      </c>
-      <c r="L84" t="s">
-        <v>299</v>
-      </c>
-      <c r="M84" t="s">
-        <v>329</v>
-      </c>
-      <c r="N84" t="s">
-        <v>178</v>
-      </c>
-      <c r="O84" t="s">
-        <v>271</v>
-      </c>
-      <c r="P84" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4498,19 +4501,46 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E85" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F85" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G85" t="s">
-        <v>296</v>
+        <v>234</v>
+      </c>
+      <c r="H85" t="s">
+        <v>304</v>
+      </c>
+      <c r="I85" t="s">
+        <v>208</v>
+      </c>
+      <c r="J85" t="s">
+        <v>210</v>
+      </c>
+      <c r="K85" t="s">
+        <v>407</v>
+      </c>
+      <c r="L85" t="s">
+        <v>306</v>
+      </c>
+      <c r="M85" t="s">
+        <v>338</v>
+      </c>
+      <c r="N85" t="s">
+        <v>182</v>
+      </c>
+      <c r="O85" t="s">
+        <v>278</v>
+      </c>
+      <c r="P85" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4521,13 +4551,19 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D86" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E86" t="s">
-        <v>228</v>
+        <v>231</v>
+      </c>
+      <c r="F86" t="s">
+        <v>232</v>
+      </c>
+      <c r="G86" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4538,28 +4574,13 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D87" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E87" t="s">
-        <v>228</v>
-      </c>
-      <c r="F87" t="s">
-        <v>295</v>
-      </c>
-      <c r="G87" t="s">
-        <v>298</v>
-      </c>
-      <c r="H87" t="s">
-        <v>338</v>
-      </c>
-      <c r="I87" t="s">
-        <v>380</v>
-      </c>
-      <c r="J87" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4570,25 +4591,28 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D88" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E88" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F88" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="G88" t="s">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="H88" t="s">
-        <v>204</v>
+        <v>347</v>
       </c>
       <c r="I88" t="s">
-        <v>206</v>
+        <v>392</v>
+      </c>
+      <c r="J88" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4599,19 +4623,25 @@
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D89" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E89" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F89" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G89" t="s">
-        <v>232</v>
+        <v>304</v>
+      </c>
+      <c r="H89" t="s">
+        <v>208</v>
+      </c>
+      <c r="I89" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4622,19 +4652,19 @@
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D90" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E90" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="F90" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="G90" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4645,22 +4675,19 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D91" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E91" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
       <c r="F91" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="G91" t="s">
-        <v>208</v>
-      </c>
-      <c r="H91" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4671,22 +4698,22 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D92" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E92" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F92" t="s">
-        <v>206</v>
+        <v>295</v>
       </c>
       <c r="G92" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H92" t="s">
-        <v>299</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4700,22 +4727,19 @@
         <v>169</v>
       </c>
       <c r="D93" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E93" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F93" t="s">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="G93" t="s">
-        <v>337</v>
+        <v>212</v>
       </c>
       <c r="H93" t="s">
-        <v>235</v>
-      </c>
-      <c r="I93" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4726,16 +4750,25 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D94" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E94" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F94" t="s">
-        <v>231</v>
+        <v>305</v>
+      </c>
+      <c r="G94" t="s">
+        <v>346</v>
+      </c>
+      <c r="H94" t="s">
+        <v>239</v>
+      </c>
+      <c r="I94" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4746,43 +4779,16 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D95" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E95" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F95" t="s">
-        <v>231</v>
-      </c>
-      <c r="G95" t="s">
-        <v>337</v>
-      </c>
-      <c r="H95" t="s">
-        <v>234</v>
-      </c>
-      <c r="I95" t="s">
-        <v>338</v>
-      </c>
-      <c r="J95" t="s">
-        <v>178</v>
-      </c>
-      <c r="K95" t="s">
-        <v>271</v>
-      </c>
-      <c r="L95" t="s">
-        <v>405</v>
-      </c>
-      <c r="M95" t="s">
-        <v>181</v>
-      </c>
-      <c r="N95" t="s">
-        <v>238</v>
-      </c>
-      <c r="O95" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4793,46 +4799,43 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D96" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E96" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="F96" t="s">
-        <v>299</v>
+        <v>235</v>
       </c>
       <c r="G96" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="H96" t="s">
-        <v>175</v>
+        <v>238</v>
       </c>
       <c r="I96" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="J96" t="s">
-        <v>268</v>
+        <v>182</v>
       </c>
       <c r="K96" t="s">
-        <v>389</v>
+        <v>278</v>
       </c>
       <c r="L96" t="s">
-        <v>357</v>
+        <v>418</v>
       </c>
       <c r="M96" t="s">
-        <v>274</v>
+        <v>185</v>
       </c>
       <c r="N96" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="O96" t="s">
-        <v>213</v>
-      </c>
-      <c r="P96" t="s">
-        <v>255</v>
+        <v>217</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4843,25 +4846,46 @@
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D97" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E97" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F97" t="s">
-        <v>234</v>
+        <v>306</v>
       </c>
       <c r="G97" t="s">
         <v>338</v>
       </c>
       <c r="H97" t="s">
-        <v>330</v>
+        <v>179</v>
       </c>
       <c r="I97" t="s">
-        <v>274</v>
+        <v>339</v>
+      </c>
+      <c r="J97" t="s">
+        <v>275</v>
+      </c>
+      <c r="K97" t="s">
+        <v>403</v>
+      </c>
+      <c r="L97" t="s">
+        <v>368</v>
+      </c>
+      <c r="M97" t="s">
+        <v>281</v>
+      </c>
+      <c r="N97" t="s">
+        <v>216</v>
+      </c>
+      <c r="O97" t="s">
+        <v>217</v>
+      </c>
+      <c r="P97" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -4872,25 +4896,25 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D98" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E98" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F98" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G98" t="s">
+        <v>347</v>
+      </c>
+      <c r="H98" t="s">
         <v>339</v>
       </c>
-      <c r="H98" t="s">
-        <v>357</v>
-      </c>
       <c r="I98" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4904,16 +4928,22 @@
         <v>169</v>
       </c>
       <c r="D99" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E99" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F99" t="s">
-        <v>174</v>
+        <v>238</v>
       </c>
       <c r="G99" t="s">
-        <v>338</v>
+        <v>348</v>
+      </c>
+      <c r="H99" t="s">
+        <v>368</v>
+      </c>
+      <c r="I99" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4924,46 +4954,19 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D100" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E100" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F100" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G100" t="s">
-        <v>175</v>
-      </c>
-      <c r="H100" t="s">
-        <v>330</v>
-      </c>
-      <c r="I100" t="s">
-        <v>268</v>
-      </c>
-      <c r="J100" t="s">
-        <v>389</v>
-      </c>
-      <c r="K100" t="s">
-        <v>180</v>
-      </c>
-      <c r="L100" t="s">
-        <v>274</v>
-      </c>
-      <c r="M100" t="s">
-        <v>212</v>
-      </c>
-      <c r="N100" t="s">
-        <v>213</v>
-      </c>
-      <c r="O100" t="s">
-        <v>372</v>
-      </c>
-      <c r="P100" t="s">
-        <v>183</v>
+        <v>347</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4974,25 +4977,46 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D101" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E101" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F101" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="G101" t="s">
-        <v>268</v>
+        <v>179</v>
       </c>
       <c r="H101" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="I101" t="s">
-        <v>211</v>
+        <v>275</v>
+      </c>
+      <c r="J101" t="s">
+        <v>403</v>
+      </c>
+      <c r="K101" t="s">
+        <v>184</v>
+      </c>
+      <c r="L101" t="s">
+        <v>281</v>
+      </c>
+      <c r="M101" t="s">
+        <v>216</v>
+      </c>
+      <c r="N101" t="s">
+        <v>217</v>
+      </c>
+      <c r="O101" t="s">
+        <v>384</v>
+      </c>
+      <c r="P101" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5003,13 +5027,25 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D102" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E102" t="s">
-        <v>235</v>
+        <v>238</v>
+      </c>
+      <c r="F102" t="s">
+        <v>179</v>
+      </c>
+      <c r="G102" t="s">
+        <v>275</v>
+      </c>
+      <c r="H102" t="s">
+        <v>240</v>
+      </c>
+      <c r="I102" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5020,34 +5056,13 @@
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E103" t="s">
-        <v>236</v>
-      </c>
-      <c r="F103" t="s">
-        <v>274</v>
-      </c>
-      <c r="G103" t="s">
-        <v>212</v>
-      </c>
-      <c r="H103" t="s">
-        <v>213</v>
-      </c>
-      <c r="I103" t="s">
-        <v>381</v>
-      </c>
-      <c r="J103" t="s">
-        <v>183</v>
-      </c>
-      <c r="K103" t="s">
-        <v>302</v>
-      </c>
-      <c r="L103" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5058,34 +5073,34 @@
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D104" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E104" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="F104" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="G104" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="H104" t="s">
-        <v>289</v>
+        <v>217</v>
       </c>
       <c r="I104" t="s">
-        <v>185</v>
+        <v>393</v>
       </c>
       <c r="J104" t="s">
-        <v>382</v>
+        <v>187</v>
       </c>
       <c r="K104" t="s">
-        <v>396</v>
+        <v>309</v>
       </c>
       <c r="L104" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5096,37 +5111,34 @@
         <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D105" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E105" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F105" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G105" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="H105" t="s">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="I105" t="s">
-        <v>382</v>
+        <v>189</v>
       </c>
       <c r="J105" t="s">
-        <v>241</v>
+        <v>394</v>
       </c>
       <c r="K105" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="L105" t="s">
-        <v>351</v>
-      </c>
-      <c r="M105" t="s">
-        <v>355</v>
+        <v>246</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5137,31 +5149,37 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D106" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E106" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="F106" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="G106" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="H106" t="s">
-        <v>358</v>
+        <v>189</v>
       </c>
       <c r="I106" t="s">
-        <v>216</v>
+        <v>394</v>
       </c>
       <c r="J106" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K106" t="s">
-        <v>354</v>
+        <v>411</v>
+      </c>
+      <c r="L106" t="s">
+        <v>362</v>
+      </c>
+      <c r="M106" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5172,22 +5190,31 @@
         <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D107" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E107" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F107" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="G107" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="H107" t="s">
-        <v>359</v>
+        <v>369</v>
+      </c>
+      <c r="I107" t="s">
+        <v>220</v>
+      </c>
+      <c r="J107" t="s">
+        <v>245</v>
+      </c>
+      <c r="K107" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5198,46 +5225,22 @@
         <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D108" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E108" t="s">
-        <v>239</v>
+        <v>186</v>
       </c>
       <c r="F108" t="s">
-        <v>302</v>
+        <v>188</v>
       </c>
       <c r="G108" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="H108" t="s">
-        <v>216</v>
-      </c>
-      <c r="I108" t="s">
-        <v>241</v>
-      </c>
-      <c r="J108" t="s">
-        <v>242</v>
-      </c>
-      <c r="K108" t="s">
-        <v>243</v>
-      </c>
-      <c r="L108" t="s">
-        <v>334</v>
-      </c>
-      <c r="M108" t="s">
-        <v>355</v>
-      </c>
-      <c r="N108" t="s">
-        <v>220</v>
-      </c>
-      <c r="O108" t="s">
-        <v>305</v>
-      </c>
-      <c r="P108" t="s">
-        <v>294</v>
+        <v>370</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5248,13 +5251,46 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D109" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E109" t="s">
-        <v>184</v>
+        <v>243</v>
+      </c>
+      <c r="F109" t="s">
+        <v>309</v>
+      </c>
+      <c r="G109" t="s">
+        <v>189</v>
+      </c>
+      <c r="H109" t="s">
+        <v>220</v>
+      </c>
+      <c r="I109" t="s">
+        <v>245</v>
+      </c>
+      <c r="J109" t="s">
+        <v>246</v>
+      </c>
+      <c r="K109" t="s">
+        <v>247</v>
+      </c>
+      <c r="L109" t="s">
+        <v>343</v>
+      </c>
+      <c r="M109" t="s">
+        <v>366</v>
+      </c>
+      <c r="N109" t="s">
+        <v>224</v>
+      </c>
+      <c r="O109" t="s">
+        <v>312</v>
+      </c>
+      <c r="P109" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5265,46 +5301,13 @@
         <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D110" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E110" t="s">
-        <v>216</v>
-      </c>
-      <c r="F110" t="s">
-        <v>241</v>
-      </c>
-      <c r="G110" t="s">
-        <v>242</v>
-      </c>
-      <c r="H110" t="s">
-        <v>293</v>
-      </c>
-      <c r="I110" t="s">
-        <v>334</v>
-      </c>
-      <c r="J110" t="s">
-        <v>355</v>
-      </c>
-      <c r="K110" t="s">
-        <v>220</v>
-      </c>
-      <c r="L110" t="s">
-        <v>305</v>
-      </c>
-      <c r="M110" t="s">
-        <v>294</v>
-      </c>
-      <c r="N110" t="s">
-        <v>257</v>
-      </c>
-      <c r="O110" t="s">
-        <v>410</v>
-      </c>
-      <c r="P110" t="s">
-        <v>419</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5315,46 +5318,46 @@
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D111" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E111" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="F111" t="s">
-        <v>292</v>
+        <v>245</v>
       </c>
       <c r="G111" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H111" t="s">
-        <v>243</v>
+        <v>300</v>
       </c>
       <c r="I111" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="J111" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="K111" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="L111" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="M111" t="s">
-        <v>342</v>
+        <v>301</v>
       </c>
       <c r="N111" t="s">
-        <v>362</v>
+        <v>261</v>
       </c>
       <c r="O111" t="s">
-        <v>186</v>
+        <v>423</v>
       </c>
       <c r="P111" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5365,43 +5368,46 @@
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D112" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E112" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="F112" t="s">
-        <v>244</v>
+        <v>299</v>
       </c>
       <c r="G112" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="H112" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="I112" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J112" t="s">
-        <v>306</v>
+        <v>366</v>
       </c>
       <c r="K112" t="s">
-        <v>342</v>
+        <v>224</v>
       </c>
       <c r="L112" t="s">
-        <v>335</v>
+        <v>314</v>
       </c>
       <c r="M112" t="s">
-        <v>398</v>
+        <v>351</v>
       </c>
       <c r="N112" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="O112" t="s">
-        <v>277</v>
+        <v>190</v>
+      </c>
+      <c r="P112" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="113" spans="1:15">
@@ -5415,25 +5421,40 @@
         <v>169</v>
       </c>
       <c r="D113" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E113" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="F113" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="G113" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="H113" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="I113" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="J113" t="s">
-        <v>306</v>
+        <v>313</v>
+      </c>
+      <c r="K113" t="s">
+        <v>351</v>
+      </c>
+      <c r="L113" t="s">
+        <v>344</v>
+      </c>
+      <c r="M113" t="s">
+        <v>412</v>
+      </c>
+      <c r="N113" t="s">
+        <v>390</v>
+      </c>
+      <c r="O113" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="114" spans="1:15">
@@ -5444,31 +5465,28 @@
         <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D114" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E114" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F114" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="G114" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H114" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="I114" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="J114" t="s">
-        <v>384</v>
-      </c>
-      <c r="K114" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:15">
@@ -5479,34 +5497,31 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D115" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F115" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="G115" t="s">
-        <v>303</v>
+        <v>349</v>
       </c>
       <c r="H115" t="s">
-        <v>360</v>
+        <v>313</v>
       </c>
       <c r="I115" t="s">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="J115" t="s">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="K115" t="s">
-        <v>398</v>
-      </c>
-      <c r="L115" t="s">
-        <v>406</v>
+        <v>331</v>
       </c>
     </row>
     <row r="116" spans="1:15">
@@ -5517,19 +5532,34 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D116" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E116" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F116" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="G116" t="s">
-        <v>341</v>
+        <v>310</v>
+      </c>
+      <c r="H116" t="s">
+        <v>371</v>
+      </c>
+      <c r="I116" t="s">
+        <v>395</v>
+      </c>
+      <c r="J116" t="s">
+        <v>372</v>
+      </c>
+      <c r="K116" t="s">
+        <v>412</v>
+      </c>
+      <c r="L116" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="117" spans="1:15">
@@ -5540,43 +5570,19 @@
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D117" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E117" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="F117" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G117" t="s">
-        <v>342</v>
-      </c>
-      <c r="H117" t="s">
-        <v>361</v>
-      </c>
-      <c r="I117" t="s">
-        <v>186</v>
-      </c>
-      <c r="J117" t="s">
-        <v>378</v>
-      </c>
-      <c r="K117" t="s">
-        <v>399</v>
-      </c>
-      <c r="L117" t="s">
-        <v>322</v>
-      </c>
-      <c r="M117" t="s">
-        <v>188</v>
-      </c>
-      <c r="N117" t="s">
-        <v>259</v>
-      </c>
-      <c r="O117" t="s">
-        <v>189</v>
+        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:15">
@@ -5587,25 +5593,43 @@
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="D118" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="F118" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G118" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="H118" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="I118" t="s">
-        <v>384</v>
+        <v>190</v>
+      </c>
+      <c r="J118" t="s">
+        <v>390</v>
+      </c>
+      <c r="K118" t="s">
+        <v>413</v>
+      </c>
+      <c r="L118" t="s">
+        <v>331</v>
+      </c>
+      <c r="M118" t="s">
+        <v>192</v>
+      </c>
+      <c r="N118" t="s">
+        <v>263</v>
+      </c>
+      <c r="O118" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="119" spans="1:15">
@@ -5616,25 +5640,25 @@
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D119" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E119" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="F119" t="s">
-        <v>250</v>
+        <v>314</v>
       </c>
       <c r="G119" t="s">
-        <v>253</v>
+        <v>301</v>
       </c>
       <c r="H119" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="I119" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
     </row>
     <row r="120" spans="1:15">
@@ -5645,19 +5669,25 @@
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D120" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E120" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F120" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G120" t="s">
-        <v>253</v>
+        <v>257</v>
+      </c>
+      <c r="H120" t="s">
+        <v>374</v>
+      </c>
+      <c r="I120" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:15">
@@ -5668,25 +5698,19 @@
         <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D121" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E121" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F121" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G121" t="s">
-        <v>309</v>
-      </c>
-      <c r="H121" t="s">
-        <v>252</v>
-      </c>
-      <c r="I121" t="s">
-        <v>343</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:15">
@@ -5697,25 +5721,25 @@
         <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D122" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E122" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F122" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G122" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H122" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I122" t="s">
-        <v>310</v>
+        <v>352</v>
       </c>
     </row>
     <row r="123" spans="1:15">
@@ -5726,25 +5750,25 @@
         <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D123" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E123" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F123" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G123" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H123" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="I123" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="124" spans="1:15">
@@ -5755,25 +5779,25 @@
         <v>137</v>
       </c>
       <c r="C124" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D124" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E124" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F124" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="G124" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="H124" t="s">
-        <v>363</v>
+        <v>256</v>
       </c>
       <c r="I124" t="s">
-        <v>343</v>
+        <v>317</v>
       </c>
     </row>
     <row r="125" spans="1:15">
@@ -5784,19 +5808,25 @@
         <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D125" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E125" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F125" t="s">
-        <v>308</v>
+        <v>254</v>
       </c>
       <c r="G125" t="s">
-        <v>343</v>
+        <v>257</v>
+      </c>
+      <c r="H125" t="s">
+        <v>374</v>
+      </c>
+      <c r="I125" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="126" spans="1:15">
@@ -5807,13 +5837,19 @@
         <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D126" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>254</v>
+      </c>
+      <c r="F126" t="s">
+        <v>315</v>
+      </c>
+      <c r="G126" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="127" spans="1:15">
@@ -5824,19 +5860,13 @@
         <v>140</v>
       </c>
       <c r="C127" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D127" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>309</v>
-      </c>
-      <c r="G127" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:15">
@@ -5847,13 +5877,19 @@
         <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D128" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E128" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="F128" t="s">
+        <v>316</v>
+      </c>
+      <c r="G128" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -5864,16 +5900,13 @@
         <v>142</v>
       </c>
       <c r="C129" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D129" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>310</v>
+        <v>256</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -5884,13 +5917,16 @@
         <v>143</v>
       </c>
       <c r="C130" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D130" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E130" t="s">
-        <v>254</v>
+        <v>257</v>
+      </c>
+      <c r="F130" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -5901,13 +5937,13 @@
         <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D131" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E131" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -5918,16 +5954,13 @@
         <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D132" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E132" t="s">
-        <v>238</v>
-      </c>
-      <c r="F132" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -5938,13 +5971,16 @@
         <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D133" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E133" t="s">
-        <v>255</v>
+        <v>242</v>
+      </c>
+      <c r="F133" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -5955,19 +5991,13 @@
         <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D134" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E134" t="s">
-        <v>256</v>
-      </c>
-      <c r="F134" t="s">
-        <v>291</v>
-      </c>
-      <c r="G134" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -5978,16 +6008,19 @@
         <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D135" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E135" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="F135" t="s">
-        <v>291</v>
+        <v>298</v>
+      </c>
+      <c r="G135" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -5998,16 +6031,16 @@
         <v>149</v>
       </c>
       <c r="C136" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D136" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E136" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -6018,46 +6051,16 @@
         <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D137" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E137" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="F137" t="s">
-        <v>259</v>
-      </c>
-      <c r="G137" t="s">
-        <v>189</v>
-      </c>
-      <c r="H137" t="s">
-        <v>364</v>
-      </c>
-      <c r="I137" t="s">
-        <v>280</v>
-      </c>
-      <c r="J137" t="s">
-        <v>192</v>
-      </c>
-      <c r="K137" t="s">
-        <v>400</v>
-      </c>
-      <c r="L137" t="s">
-        <v>407</v>
-      </c>
-      <c r="M137" t="s">
-        <v>411</v>
-      </c>
-      <c r="N137" t="s">
-        <v>408</v>
-      </c>
-      <c r="O137" t="s">
-        <v>414</v>
-      </c>
-      <c r="P137" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -6068,22 +6071,46 @@
         <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D138" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>312</v>
+        <v>263</v>
       </c>
       <c r="G138" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="H138" t="s">
-        <v>365</v>
+        <v>375</v>
+      </c>
+      <c r="I138" t="s">
+        <v>287</v>
+      </c>
+      <c r="J138" t="s">
+        <v>196</v>
+      </c>
+      <c r="K138" t="s">
+        <v>414</v>
+      </c>
+      <c r="L138" t="s">
+        <v>420</v>
+      </c>
+      <c r="M138" t="s">
+        <v>424</v>
+      </c>
+      <c r="N138" t="s">
+        <v>421</v>
+      </c>
+      <c r="O138" t="s">
+        <v>426</v>
+      </c>
+      <c r="P138" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -6094,46 +6121,22 @@
         <v>152</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D139" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E139" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="F139" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="G139" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H139" t="s">
-        <v>192</v>
-      </c>
-      <c r="I139" t="s">
-        <v>323</v>
-      </c>
-      <c r="J139" t="s">
-        <v>283</v>
-      </c>
-      <c r="K139" t="s">
-        <v>263</v>
-      </c>
-      <c r="L139" t="s">
-        <v>193</v>
-      </c>
-      <c r="M139" t="s">
-        <v>317</v>
-      </c>
-      <c r="N139" t="s">
-        <v>414</v>
-      </c>
-      <c r="O139" t="s">
-        <v>347</v>
-      </c>
-      <c r="P139" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -6144,40 +6147,46 @@
         <v>153</v>
       </c>
       <c r="C140" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D140" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E140" t="s">
-        <v>189</v>
+        <v>264</v>
       </c>
       <c r="F140" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G140" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="H140" t="s">
-        <v>366</v>
+        <v>196</v>
       </c>
       <c r="I140" t="s">
-        <v>262</v>
+        <v>332</v>
       </c>
       <c r="J140" t="s">
-        <v>390</v>
+        <v>290</v>
       </c>
       <c r="K140" t="s">
-        <v>315</v>
+        <v>267</v>
       </c>
       <c r="L140" t="s">
-        <v>408</v>
+        <v>197</v>
       </c>
       <c r="M140" t="s">
-        <v>195</v>
+        <v>324</v>
       </c>
       <c r="N140" t="s">
-        <v>415</v>
+        <v>426</v>
+      </c>
+      <c r="O140" t="s">
+        <v>356</v>
+      </c>
+      <c r="P140" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -6188,16 +6197,46 @@
         <v>154</v>
       </c>
       <c r="C141" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D141" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E141" t="s">
-        <v>261</v>
+        <v>193</v>
       </c>
       <c r="F141" t="s">
-        <v>314</v>
+        <v>320</v>
+      </c>
+      <c r="G141" t="s">
+        <v>287</v>
+      </c>
+      <c r="H141" t="s">
+        <v>377</v>
+      </c>
+      <c r="I141" t="s">
+        <v>266</v>
+      </c>
+      <c r="J141" t="s">
+        <v>404</v>
+      </c>
+      <c r="K141" t="s">
+        <v>322</v>
+      </c>
+      <c r="L141" t="s">
+        <v>421</v>
+      </c>
+      <c r="M141" t="s">
+        <v>199</v>
+      </c>
+      <c r="N141" t="s">
+        <v>427</v>
+      </c>
+      <c r="O141" t="s">
+        <v>272</v>
+      </c>
+      <c r="P141" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -6208,31 +6247,16 @@
         <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D142" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E142" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F142" t="s">
-        <v>315</v>
-      </c>
-      <c r="G142" t="s">
-        <v>264</v>
-      </c>
-      <c r="H142" t="s">
-        <v>347</v>
-      </c>
-      <c r="I142" t="s">
-        <v>348</v>
-      </c>
-      <c r="J142" t="s">
-        <v>388</v>
-      </c>
-      <c r="K142" t="s">
-        <v>385</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -6243,25 +6267,31 @@
         <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D143" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E143" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F143" t="s">
-        <v>264</v>
+        <v>322</v>
       </c>
       <c r="G143" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="H143" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="I143" t="s">
-        <v>196</v>
+        <v>357</v>
+      </c>
+      <c r="J143" t="s">
+        <v>402</v>
+      </c>
+      <c r="K143" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -6272,34 +6302,46 @@
         <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D144" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E144" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="F144" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="G144" t="s">
+        <v>353</v>
+      </c>
+      <c r="H144" t="s">
+        <v>378</v>
+      </c>
+      <c r="I144" t="s">
+        <v>200</v>
+      </c>
+      <c r="J144" t="s">
+        <v>255</v>
+      </c>
+      <c r="K144" t="s">
         <v>316</v>
       </c>
-      <c r="H144" t="s">
-        <v>319</v>
-      </c>
-      <c r="I144" t="s">
-        <v>348</v>
-      </c>
-      <c r="J144" t="s">
-        <v>367</v>
-      </c>
-      <c r="K144" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144" t="s">
+        <v>256</v>
+      </c>
+      <c r="M144" t="s">
+        <v>317</v>
+      </c>
+      <c r="N144" t="s">
+        <v>428</v>
+      </c>
+      <c r="O144" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6307,25 +6349,34 @@
         <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D145" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E145" t="s">
-        <v>193</v>
+        <v>267</v>
       </c>
       <c r="F145" t="s">
-        <v>316</v>
+        <v>268</v>
       </c>
       <c r="G145" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="H145" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11">
+        <v>326</v>
+      </c>
+      <c r="I145" t="s">
+        <v>357</v>
+      </c>
+      <c r="J145" t="s">
+        <v>378</v>
+      </c>
+      <c r="K145" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6333,28 +6384,31 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="D146" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E146" t="s">
-        <v>264</v>
+        <v>197</v>
       </c>
       <c r="F146" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="G146" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="H146" t="s">
-        <v>368</v>
+        <v>200</v>
       </c>
       <c r="I146" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11">
+        <v>328</v>
+      </c>
+      <c r="J146" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6362,34 +6416,28 @@
         <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D147" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E147" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F147" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="G147" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="H147" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="I147" t="s">
-        <v>348</v>
-      </c>
-      <c r="J147" t="s">
-        <v>387</v>
-      </c>
-      <c r="K147" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6397,28 +6445,40 @@
         <v>161</v>
       </c>
       <c r="C148" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D148" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="F148" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="G148" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H148" t="s">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="I148" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11">
+        <v>357</v>
+      </c>
+      <c r="J148" t="s">
+        <v>401</v>
+      </c>
+      <c r="K148" t="s">
+        <v>397</v>
+      </c>
+      <c r="L148" t="s">
+        <v>422</v>
+      </c>
+      <c r="M148" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6426,25 +6486,37 @@
         <v>162</v>
       </c>
       <c r="C149" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E149" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="F149" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="G149" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="H149" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11">
+        <v>378</v>
+      </c>
+      <c r="I149" t="s">
+        <v>397</v>
+      </c>
+      <c r="J149" t="s">
+        <v>328</v>
+      </c>
+      <c r="K149" t="s">
+        <v>272</v>
+      </c>
+      <c r="L149" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6452,16 +6524,37 @@
         <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D150" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E150" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11">
+        <v>269</v>
+      </c>
+      <c r="F150" t="s">
+        <v>327</v>
+      </c>
+      <c r="G150" t="s">
+        <v>357</v>
+      </c>
+      <c r="H150" t="s">
+        <v>381</v>
+      </c>
+      <c r="I150" t="s">
+        <v>254</v>
+      </c>
+      <c r="J150" t="s">
+        <v>316</v>
+      </c>
+      <c r="K150" t="s">
+        <v>352</v>
+      </c>
+      <c r="L150" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6469,13 +6562,108 @@
         <v>164</v>
       </c>
       <c r="C151" t="s">
+        <v>171</v>
+      </c>
+      <c r="D151" t="s">
+        <v>177</v>
+      </c>
+      <c r="E151" t="s">
+        <v>270</v>
+      </c>
+      <c r="F151" t="s">
+        <v>253</v>
+      </c>
+      <c r="G151" t="s">
+        <v>358</v>
+      </c>
+      <c r="H151" t="s">
+        <v>258</v>
+      </c>
+      <c r="I151" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>165</v>
+      </c>
+      <c r="C152" t="s">
+        <v>171</v>
+      </c>
+      <c r="D152" t="s">
+        <v>177</v>
+      </c>
+      <c r="E152" t="s">
+        <v>271</v>
+      </c>
+      <c r="F152" t="s">
+        <v>328</v>
+      </c>
+      <c r="G152" t="s">
+        <v>359</v>
+      </c>
+      <c r="H152" t="s">
+        <v>382</v>
+      </c>
+      <c r="I152" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>166</v>
+      </c>
+      <c r="C153" t="s">
+        <v>171</v>
+      </c>
+      <c r="D153" t="s">
+        <v>177</v>
+      </c>
+      <c r="E153" t="s">
+        <v>272</v>
+      </c>
+      <c r="F153" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
         <v>167</v>
       </c>
-      <c r="D151" t="s">
-        <v>173</v>
-      </c>
-      <c r="E151" t="s">
-        <v>267</v>
+      <c r="C154" t="s">
+        <v>171</v>
+      </c>
+      <c r="D154" t="s">
+        <v>177</v>
+      </c>
+      <c r="E154" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>168</v>
+      </c>
+      <c r="C155" t="s">
+        <v>171</v>
+      </c>
+      <c r="D155" t="s">
+        <v>177</v>
+      </c>
+      <c r="E155" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Castor_training.xlsx
+++ b/Documents/Castor_training.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1406" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="449">
   <si>
     <t>SubjectID</t>
   </si>
@@ -262,6 +262,21 @@
     <t>202-039</t>
   </si>
   <si>
+    <t>202-040</t>
+  </si>
+  <si>
+    <t>202-041</t>
+  </si>
+  <si>
+    <t>202-042</t>
+  </si>
+  <si>
+    <t>202-043</t>
+  </si>
+  <si>
+    <t>202-044</t>
+  </si>
+  <si>
     <t>203-001</t>
   </si>
   <si>
@@ -454,6 +469,24 @@
     <t>203-064</t>
   </si>
   <si>
+    <t>203-065</t>
+  </si>
+  <si>
+    <t>203-066</t>
+  </si>
+  <si>
+    <t>203-067</t>
+  </si>
+  <si>
+    <t>203-068</t>
+  </si>
+  <si>
+    <t>203-069</t>
+  </si>
+  <si>
+    <t>203-070</t>
+  </si>
+  <si>
     <t>204-001</t>
   </si>
   <si>
@@ -523,6 +556,12 @@
     <t>292-018</t>
   </si>
   <si>
+    <t>292-019</t>
+  </si>
+  <si>
+    <t>292-020</t>
+  </si>
+  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -691,6 +730,9 @@
     <t>17-01-2023</t>
   </si>
   <si>
+    <t>22-08-2023</t>
+  </si>
+  <si>
     <t>23-06-2022</t>
   </si>
   <si>
@@ -793,6 +835,9 @@
     <t>16-08-2023</t>
   </si>
   <si>
+    <t>05-09-2023</t>
+  </si>
+  <si>
     <t>03-11-2022</t>
   </si>
   <si>
@@ -841,6 +886,9 @@
     <t>06-09-2023</t>
   </si>
   <si>
+    <t>07-09-2023</t>
+  </si>
+  <si>
     <t>26-09-2022</t>
   </si>
   <si>
@@ -922,6 +970,9 @@
     <t>31-01-2023</t>
   </si>
   <si>
+    <t>30-08-2023</t>
+  </si>
+  <si>
     <t>02-08-2022</t>
   </si>
   <si>
@@ -967,7 +1018,7 @@
     <t>08-08-2023</t>
   </si>
   <si>
-    <t>22-08-2023</t>
+    <t>24-08-2023</t>
   </si>
   <si>
     <t>08-03-2023</t>
@@ -1075,6 +1126,9 @@
     <t>21-08-2023</t>
   </si>
   <si>
+    <t>28-08-2023</t>
+  </si>
+  <si>
     <t>20-06-2023</t>
   </si>
   <si>
@@ -1207,12 +1261,15 @@
     <t>14-02-2023</t>
   </si>
   <si>
+    <t>29-08-2023</t>
+  </si>
+  <si>
+    <t>11-09-2023</t>
+  </si>
+  <si>
     <t>21-07-2023</t>
   </si>
   <si>
-    <t>28-08-2023</t>
-  </si>
-  <si>
     <t>04-09-2023</t>
   </si>
   <si>
@@ -1282,25 +1339,16 @@
     <t>24-05-2023</t>
   </si>
   <si>
-    <t>30-08-2023</t>
-  </si>
-  <si>
     <t>15-02-2023</t>
   </si>
   <si>
     <t>10-05-2023</t>
   </si>
   <si>
-    <t>05-09-2023</t>
-  </si>
-  <si>
     <t>07-06-2023</t>
   </si>
   <si>
     <t>05-07-2023</t>
-  </si>
-  <si>
-    <t>29-08-2023</t>
   </si>
   <si>
     <t>16-02-2023</t>
@@ -1670,7 +1718,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P155"/>
+  <dimension ref="A1:P168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1731,31 +1779,31 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D2" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E2" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G2" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="H2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="I2" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="J2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="K2" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1766,34 +1814,34 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="G3" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H3" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="I3" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="J3" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
       <c r="K3" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="L3" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1804,28 +1852,28 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E4" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F4" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="G4" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="H4" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1836,16 +1884,16 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1856,28 +1904,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E6" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="G6" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="H6" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="I6" t="s">
-        <v>383</v>
+        <v>401</v>
       </c>
       <c r="J6" t="s">
-        <v>370</v>
+        <v>388</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1888,37 +1936,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G7" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="J7" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="K7" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="L7" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="M7" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1929,31 +1977,31 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="H8" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="J8" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="K8" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1964,25 +2012,25 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E9" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="G9" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="H9" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="I9" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1993,25 +2041,25 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E10" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="G10" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="H10" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="I10" t="s">
-        <v>384</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2022,31 +2070,31 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="F11" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="H11" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="J11" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="K11" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2057,34 +2105,34 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E12" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="H12" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="I12" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="J12" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="K12" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L12" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2095,37 +2143,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E13" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="G13" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="H13" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="I13" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="J13" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="K13" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="L13" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="M13" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2136,28 +2184,28 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E14" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F14" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G14" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="H14" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="I14" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="J14" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2168,34 +2216,34 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E15" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="F15" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="G15" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H15" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="I15" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="J15" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="K15" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="L15" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2206,43 +2254,43 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E16" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F16" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="G16" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="H16" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="I16" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="J16" t="s">
-        <v>385</v>
+        <v>403</v>
       </c>
       <c r="K16" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>415</v>
+        <v>434</v>
       </c>
       <c r="M16" t="s">
-        <v>400</v>
+        <v>419</v>
       </c>
       <c r="N16" t="s">
-        <v>416</v>
+        <v>435</v>
       </c>
       <c r="O16" t="s">
-        <v>429</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -2253,28 +2301,28 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E17" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="F17" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="H17" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="I17" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="J17" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -2285,28 +2333,28 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D18" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E18" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F18" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="G18" t="s">
-        <v>262</v>
+        <v>277</v>
       </c>
       <c r="H18" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="I18" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="J18" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -2317,16 +2365,16 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D19" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E19" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -2337,28 +2385,28 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D20" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="F20" t="s">
-        <v>287</v>
+        <v>303</v>
       </c>
       <c r="G20" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="H20" t="s">
-        <v>267</v>
+        <v>282</v>
       </c>
       <c r="I20" t="s">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J20" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -2369,16 +2417,16 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E21" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F21" t="s">
-        <v>288</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -2389,31 +2437,31 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D22" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E22" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="F22" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
       <c r="G22" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="H22" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="I22" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="J22" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="K22" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -2424,31 +2472,31 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E23" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="F23" t="s">
-        <v>290</v>
+        <v>306</v>
       </c>
       <c r="G23" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="H23" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="I23" t="s">
-        <v>387</v>
+        <v>405</v>
       </c>
       <c r="J23" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="K23" t="s">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -2459,40 +2507,40 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D24" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E24" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="G24" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="I24" t="s">
-        <v>388</v>
+        <v>406</v>
       </c>
       <c r="J24" t="s">
-        <v>354</v>
+        <v>372</v>
       </c>
       <c r="K24" t="s">
-        <v>406</v>
+        <v>425</v>
       </c>
       <c r="L24" t="s">
-        <v>405</v>
+        <v>424</v>
       </c>
       <c r="M24" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -2503,43 +2551,43 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D25" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E25" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="F25" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="G25" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="H25" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="I25" t="s">
-        <v>389</v>
+        <v>407</v>
       </c>
       <c r="J25" t="s">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="K25" t="s">
-        <v>271</v>
+        <v>286</v>
       </c>
       <c r="L25" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="M25" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="N25" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="O25" t="s">
-        <v>430</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:15">
@@ -2550,40 +2598,40 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D26" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
       <c r="G26" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="H26" t="s">
-        <v>356</v>
+        <v>374</v>
       </c>
       <c r="I26" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="J26" t="s">
-        <v>402</v>
+        <v>421</v>
       </c>
       <c r="K26" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="L26" t="s">
-        <v>417</v>
+        <v>436</v>
       </c>
       <c r="M26" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="N26" t="s">
-        <v>382</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" spans="1:15">
@@ -2594,16 +2642,16 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D27" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E27" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="F27" t="s">
-        <v>292</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:15">
@@ -2614,22 +2662,22 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D28" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="F28" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G28" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="H28" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="29" spans="1:15">
@@ -2640,10 +2688,10 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D29" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:15">
@@ -2654,13 +2702,13 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D30" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E30" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:15">
@@ -2671,28 +2719,28 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E31" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="F31" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G31" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="H31" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="I31" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="J31" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
     </row>
     <row r="32" spans="1:15">
@@ -2703,31 +2751,31 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D32" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E32" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="F32" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="G32" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="I32" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="K32" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="M32" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="O32" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2738,40 +2786,40 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E33" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="F33" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="G33" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H33" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="I33" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="J33" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="K33" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="L33" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="M33" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="N33" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2782,13 +2830,13 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D34" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E34" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2799,22 +2847,22 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E35" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F35" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G35" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H35" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2825,25 +2873,25 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E36" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="G36" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="I36" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="L36" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2854,40 +2902,40 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D37" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E37" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="F37" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G37" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="H37" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="J37" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="L37" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M37" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="N37" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2898,25 +2946,25 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D38" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E38" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="F38" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H38" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="I38" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2927,22 +2975,22 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D39" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="G39" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="H39" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2953,31 +3001,31 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D40" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E40" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="F40" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G40" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="J40" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="K40" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -2988,19 +3036,19 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D41" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E41" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="F41" t="s">
-        <v>295</v>
+        <v>311</v>
       </c>
       <c r="G41" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3011,37 +3059,37 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D42" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E42" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F42" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="G42" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="H42" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="I42" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="N42" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3052,16 +3100,16 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D43" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E43" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="F43" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3072,16 +3120,16 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D44" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E44" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="G44" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3092,19 +3140,19 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D45" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E45" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F45" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="G45" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3115,40 +3163,40 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E46" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="F46" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="G46" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="H46" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="J46" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="K46" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="L46" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="M46" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="O46" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3159,34 +3207,34 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D47" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E47" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="F47" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="G47" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="H47" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I47" t="s">
-        <v>240</v>
+        <v>254</v>
       </c>
       <c r="J47" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="K47" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3197,19 +3245,19 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D48" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E48" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="H48" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3220,46 +3268,46 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E49" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="F49" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="G49" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="H49" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="I49" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="J49" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="L49" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="M49" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="N49" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="O49" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="P49" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3270,22 +3318,22 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D50" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E50" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F50" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="G50" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H50" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3296,40 +3344,40 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D51" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E51" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F51" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G51" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="H51" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="I51" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="J51" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="K51" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="L51" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="M51" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="N51" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3340,37 +3388,37 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E52" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F52" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="G52" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I52" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="K52" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="L52" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="M52" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="N52" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="O52" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3381,28 +3429,28 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E53" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="F53" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G53" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="H53" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="I53" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="J53" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3413,46 +3461,46 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E54" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="F54" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
+        <v>275</v>
       </c>
       <c r="H54" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="I54" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="J54" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="K54" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="L54" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="M54" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="N54" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="O54" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="P54" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3463,13 +3511,13 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D55" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E55" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3480,16 +3528,16 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E56" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="F56" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3500,31 +3548,31 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D57" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E57" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F57" t="s">
-        <v>296</v>
+        <v>312</v>
       </c>
       <c r="G57" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H57" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="I57" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="J57" t="s">
-        <v>394</v>
+        <v>412</v>
       </c>
       <c r="K57" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3535,43 +3583,43 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E58" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F58" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="G58" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="H58" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="I58" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="J58" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="K58" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="L58" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="M58" t="s">
+        <v>384</v>
+      </c>
+      <c r="N58" t="s">
         <v>366</v>
       </c>
-      <c r="N58" t="s">
-        <v>349</v>
-      </c>
       <c r="O58" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3582,46 +3630,46 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E59" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="F59" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="G59" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="H59" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="I59" t="s">
-        <v>369</v>
+        <v>387</v>
       </c>
       <c r="J59" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="K59" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="L59" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="M59" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="N59" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="O59" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="P59" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3632,19 +3680,19 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E60" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="G60" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3655,16 +3703,16 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E61" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="F61" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3675,16 +3723,16 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D62" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E62" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="F62" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3695,46 +3743,46 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E63" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="F63" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="G63" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="H63" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="I63" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="J63" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="K63" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="M63" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="N63" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="O63" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3745,22 +3793,22 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D64" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E64" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="F64" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="G64" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="H64" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3771,46 +3819,46 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D65" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="F65" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="G65" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="H65" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="I65" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="J65" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="K65" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="L65" t="s">
-        <v>261</v>
+        <v>276</v>
       </c>
       <c r="M65" t="s">
-        <v>423</v>
+        <v>441</v>
       </c>
       <c r="N65" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="O65" t="s">
-        <v>413</v>
+        <v>432</v>
       </c>
       <c r="P65" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3821,22 +3869,22 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D66" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E66" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F66" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="G66" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H66" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3847,25 +3895,25 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D67" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E67" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="F67" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="G67" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="H67" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="I67" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3876,34 +3924,34 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D68" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E68" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="F68" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="G68" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="H68" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="I68" t="s">
-        <v>390</v>
+        <v>408</v>
       </c>
       <c r="J68" t="s">
-        <v>284</v>
+        <v>300</v>
       </c>
       <c r="K68" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="L68" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3914,40 +3962,16 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D69" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E69" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F69" t="s">
-        <v>228</v>
-      </c>
-      <c r="G69" t="s">
-        <v>231</v>
-      </c>
-      <c r="H69" t="s">
-        <v>345</v>
-      </c>
-      <c r="I69" t="s">
-        <v>233</v>
-      </c>
-      <c r="J69" t="s">
-        <v>302</v>
-      </c>
-      <c r="K69" t="s">
-        <v>208</v>
-      </c>
-      <c r="L69" t="s">
-        <v>407</v>
-      </c>
-      <c r="M69" t="s">
-        <v>306</v>
-      </c>
-      <c r="N69" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3958,28 +3982,19 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D70" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E70" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="F70" t="s">
-        <v>201</v>
+        <v>318</v>
       </c>
       <c r="G70" t="s">
-        <v>203</v>
-      </c>
-      <c r="H70" t="s">
-        <v>230</v>
-      </c>
-      <c r="I70" t="s">
-        <v>232</v>
-      </c>
-      <c r="J70" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -3990,46 +4005,13 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E71" t="s">
-        <v>225</v>
-      </c>
-      <c r="F71" t="s">
-        <v>201</v>
-      </c>
-      <c r="G71" t="s">
-        <v>203</v>
-      </c>
-      <c r="H71" t="s">
-        <v>230</v>
-      </c>
-      <c r="I71" t="s">
-        <v>232</v>
-      </c>
-      <c r="J71" t="s">
-        <v>234</v>
-      </c>
-      <c r="K71" t="s">
-        <v>302</v>
-      </c>
-      <c r="L71" t="s">
-        <v>208</v>
-      </c>
-      <c r="M71" t="s">
-        <v>210</v>
-      </c>
-      <c r="N71" t="s">
-        <v>235</v>
-      </c>
-      <c r="O71" t="s">
-        <v>306</v>
-      </c>
-      <c r="P71" t="s">
-        <v>338</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4040,46 +4022,19 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D72" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="F72" t="s">
-        <v>228</v>
+        <v>288</v>
       </c>
       <c r="G72" t="s">
-        <v>230</v>
-      </c>
-      <c r="H72" t="s">
-        <v>232</v>
-      </c>
-      <c r="I72" t="s">
-        <v>303</v>
-      </c>
-      <c r="J72" t="s">
-        <v>304</v>
-      </c>
-      <c r="K72" t="s">
-        <v>209</v>
-      </c>
-      <c r="L72" t="s">
-        <v>295</v>
-      </c>
-      <c r="M72" t="s">
-        <v>212</v>
-      </c>
-      <c r="N72" t="s">
-        <v>236</v>
-      </c>
-      <c r="O72" t="s">
-        <v>238</v>
-      </c>
-      <c r="P72" t="s">
-        <v>179</v>
+        <v>273</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4090,34 +4045,13 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D73" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E73" t="s">
-        <v>226</v>
-      </c>
-      <c r="F73" t="s">
-        <v>228</v>
-      </c>
-      <c r="G73" t="s">
-        <v>206</v>
-      </c>
-      <c r="H73" t="s">
-        <v>345</v>
-      </c>
-      <c r="I73" t="s">
-        <v>234</v>
-      </c>
-      <c r="J73" t="s">
-        <v>367</v>
-      </c>
-      <c r="K73" t="s">
-        <v>391</v>
-      </c>
-      <c r="L73" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4128,28 +4062,40 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D74" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E74" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F74" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="G74" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="H74" t="s">
-        <v>233</v>
+        <v>362</v>
       </c>
       <c r="I74" t="s">
-        <v>302</v>
+        <v>247</v>
       </c>
       <c r="J74" t="s">
-        <v>208</v>
+        <v>319</v>
+      </c>
+      <c r="K74" t="s">
+        <v>221</v>
+      </c>
+      <c r="L74" t="s">
+        <v>426</v>
+      </c>
+      <c r="M74" t="s">
+        <v>323</v>
+      </c>
+      <c r="N74" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4160,22 +4106,28 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E75" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="F75" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="H75" t="s">
-        <v>234</v>
+        <v>244</v>
+      </c>
+      <c r="I75" t="s">
+        <v>246</v>
+      </c>
+      <c r="J75" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4186,13 +4138,46 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D76" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E76" t="s">
-        <v>227</v>
+        <v>239</v>
+      </c>
+      <c r="F76" t="s">
+        <v>214</v>
+      </c>
+      <c r="G76" t="s">
+        <v>216</v>
+      </c>
+      <c r="H76" t="s">
+        <v>244</v>
+      </c>
+      <c r="I76" t="s">
+        <v>246</v>
+      </c>
+      <c r="J76" t="s">
+        <v>248</v>
+      </c>
+      <c r="K76" t="s">
+        <v>319</v>
+      </c>
+      <c r="L76" t="s">
+        <v>221</v>
+      </c>
+      <c r="M76" t="s">
+        <v>223</v>
+      </c>
+      <c r="N76" t="s">
+        <v>249</v>
+      </c>
+      <c r="O76" t="s">
+        <v>323</v>
+      </c>
+      <c r="P76" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4203,46 +4188,46 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E77" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="G77" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="H77" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="I77" t="s">
-        <v>367</v>
+        <v>320</v>
       </c>
       <c r="J77" t="s">
-        <v>207</v>
+        <v>321</v>
       </c>
       <c r="K77" t="s">
-        <v>295</v>
+        <v>222</v>
       </c>
       <c r="L77" t="s">
-        <v>212</v>
+        <v>311</v>
       </c>
       <c r="M77" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="N77" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="O77" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="P77" t="s">
-        <v>392</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4253,19 +4238,34 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E78" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F78" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="G78" t="s">
-        <v>234</v>
+        <v>219</v>
+      </c>
+      <c r="H78" t="s">
+        <v>362</v>
+      </c>
+      <c r="I78" t="s">
+        <v>248</v>
+      </c>
+      <c r="J78" t="s">
+        <v>385</v>
+      </c>
+      <c r="K78" t="s">
+        <v>409</v>
+      </c>
+      <c r="L78" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4276,40 +4276,28 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D79" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="G79" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="H79" t="s">
-        <v>303</v>
+        <v>247</v>
       </c>
       <c r="I79" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
       <c r="J79" t="s">
-        <v>208</v>
-      </c>
-      <c r="K79" t="s">
-        <v>210</v>
-      </c>
-      <c r="L79" t="s">
-        <v>407</v>
-      </c>
-      <c r="M79" t="s">
-        <v>346</v>
-      </c>
-      <c r="N79" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4320,37 +4308,22 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F80" t="s">
-        <v>232</v>
+        <v>241</v>
       </c>
       <c r="G80" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="H80" t="s">
-        <v>367</v>
-      </c>
-      <c r="I80" t="s">
-        <v>391</v>
-      </c>
-      <c r="J80" t="s">
-        <v>305</v>
-      </c>
-      <c r="K80" t="s">
-        <v>407</v>
-      </c>
-      <c r="L80" t="s">
-        <v>346</v>
-      </c>
-      <c r="M80" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4361,19 +4334,13 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E81" t="s">
-        <v>229</v>
-      </c>
-      <c r="F81" t="s">
-        <v>231</v>
-      </c>
-      <c r="G81" t="s">
-        <v>345</v>
+        <v>241</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4384,46 +4351,46 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D82" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E82" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F82" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="G82" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="H82" t="s">
-        <v>303</v>
+        <v>248</v>
       </c>
       <c r="I82" t="s">
-        <v>367</v>
+        <v>385</v>
       </c>
       <c r="J82" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="K82" t="s">
-        <v>408</v>
+        <v>311</v>
       </c>
       <c r="L82" t="s">
-        <v>409</v>
+        <v>225</v>
       </c>
       <c r="M82" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="N82" t="s">
-        <v>178</v>
+        <v>252</v>
       </c>
       <c r="O82" t="s">
-        <v>431</v>
+        <v>192</v>
       </c>
       <c r="P82" t="s">
-        <v>275</v>
+        <v>410</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4434,46 +4401,19 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E83" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="F83" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G83" t="s">
-        <v>234</v>
-      </c>
-      <c r="H83" t="s">
-        <v>302</v>
-      </c>
-      <c r="I83" t="s">
-        <v>391</v>
-      </c>
-      <c r="J83" t="s">
-        <v>210</v>
-      </c>
-      <c r="K83" t="s">
-        <v>409</v>
-      </c>
-      <c r="L83" t="s">
-        <v>237</v>
-      </c>
-      <c r="M83" t="s">
-        <v>178</v>
-      </c>
-      <c r="N83" t="s">
-        <v>347</v>
-      </c>
-      <c r="O83" t="s">
-        <v>431</v>
-      </c>
-      <c r="P83" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4484,13 +4424,40 @@
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E84" t="s">
-        <v>206</v>
+        <v>242</v>
+      </c>
+      <c r="F84" t="s">
+        <v>219</v>
+      </c>
+      <c r="G84" t="s">
+        <v>246</v>
+      </c>
+      <c r="H84" t="s">
+        <v>320</v>
+      </c>
+      <c r="I84" t="s">
+        <v>321</v>
+      </c>
+      <c r="J84" t="s">
+        <v>221</v>
+      </c>
+      <c r="K84" t="s">
+        <v>223</v>
+      </c>
+      <c r="L84" t="s">
+        <v>426</v>
+      </c>
+      <c r="M84" t="s">
+        <v>363</v>
+      </c>
+      <c r="N84" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4501,46 +4468,37 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E85" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F85" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="G85" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="H85" t="s">
-        <v>304</v>
+        <v>385</v>
       </c>
       <c r="I85" t="s">
-        <v>208</v>
+        <v>409</v>
       </c>
       <c r="J85" t="s">
-        <v>210</v>
+        <v>322</v>
       </c>
       <c r="K85" t="s">
-        <v>407</v>
+        <v>426</v>
       </c>
       <c r="L85" t="s">
-        <v>306</v>
+        <v>363</v>
       </c>
       <c r="M85" t="s">
-        <v>338</v>
-      </c>
-      <c r="N85" t="s">
-        <v>182</v>
-      </c>
-      <c r="O85" t="s">
-        <v>278</v>
-      </c>
-      <c r="P85" t="s">
-        <v>183</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4551,19 +4509,19 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E86" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="G86" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4574,13 +4532,46 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E87" t="s">
-        <v>232</v>
+        <v>243</v>
+      </c>
+      <c r="F87" t="s">
+        <v>245</v>
+      </c>
+      <c r="G87" t="s">
+        <v>246</v>
+      </c>
+      <c r="H87" t="s">
+        <v>320</v>
+      </c>
+      <c r="I87" t="s">
+        <v>385</v>
+      </c>
+      <c r="J87" t="s">
+        <v>222</v>
+      </c>
+      <c r="K87" t="s">
+        <v>427</v>
+      </c>
+      <c r="L87" t="s">
+        <v>428</v>
+      </c>
+      <c r="M87" t="s">
+        <v>251</v>
+      </c>
+      <c r="N87" t="s">
+        <v>191</v>
+      </c>
+      <c r="O87" t="s">
+        <v>447</v>
+      </c>
+      <c r="P87" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4591,28 +4582,46 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E88" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="F88" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="G88" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="H88" t="s">
-        <v>347</v>
+        <v>319</v>
       </c>
       <c r="I88" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="J88" t="s">
-        <v>276</v>
+        <v>223</v>
+      </c>
+      <c r="K88" t="s">
+        <v>428</v>
+      </c>
+      <c r="L88" t="s">
+        <v>251</v>
+      </c>
+      <c r="M88" t="s">
+        <v>191</v>
+      </c>
+      <c r="N88" t="s">
+        <v>364</v>
+      </c>
+      <c r="O88" t="s">
+        <v>447</v>
+      </c>
+      <c r="P88" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4623,25 +4632,13 @@
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D89" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E89" t="s">
-        <v>232</v>
-      </c>
-      <c r="F89" t="s">
-        <v>303</v>
-      </c>
-      <c r="G89" t="s">
-        <v>304</v>
-      </c>
-      <c r="H89" t="s">
-        <v>208</v>
-      </c>
-      <c r="I89" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4652,19 +4649,46 @@
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E90" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="F90" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="G90" t="s">
-        <v>236</v>
+        <v>248</v>
+      </c>
+      <c r="H90" t="s">
+        <v>321</v>
+      </c>
+      <c r="I90" t="s">
+        <v>221</v>
+      </c>
+      <c r="J90" t="s">
+        <v>223</v>
+      </c>
+      <c r="K90" t="s">
+        <v>426</v>
+      </c>
+      <c r="L90" t="s">
+        <v>323</v>
+      </c>
+      <c r="M90" t="s">
+        <v>355</v>
+      </c>
+      <c r="N90" t="s">
+        <v>195</v>
+      </c>
+      <c r="O90" t="s">
+        <v>294</v>
+      </c>
+      <c r="P90" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4675,19 +4699,19 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E91" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="F91" t="s">
-        <v>302</v>
+        <v>246</v>
       </c>
       <c r="G91" t="s">
-        <v>210</v>
+        <v>320</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4698,22 +4722,13 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D92" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E92" t="s">
-        <v>208</v>
-      </c>
-      <c r="F92" t="s">
-        <v>295</v>
-      </c>
-      <c r="G92" t="s">
-        <v>212</v>
-      </c>
-      <c r="H92" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4724,22 +4739,28 @@
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E93" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F93" t="s">
-        <v>210</v>
+        <v>319</v>
       </c>
       <c r="G93" t="s">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="H93" t="s">
-        <v>306</v>
+        <v>364</v>
+      </c>
+      <c r="I93" t="s">
+        <v>410</v>
+      </c>
+      <c r="J93" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4750,25 +4771,25 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E94" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="F94" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="G94" t="s">
-        <v>346</v>
+        <v>321</v>
       </c>
       <c r="H94" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="I94" t="s">
-        <v>278</v>
+        <v>223</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4779,16 +4800,19 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D95" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E95" t="s">
-        <v>210</v>
+        <v>247</v>
       </c>
       <c r="F95" t="s">
-        <v>235</v>
+        <v>321</v>
+      </c>
+      <c r="G95" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4799,43 +4823,19 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D96" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="F96" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="G96" t="s">
-        <v>346</v>
-      </c>
-      <c r="H96" t="s">
-        <v>238</v>
-      </c>
-      <c r="I96" t="s">
-        <v>347</v>
-      </c>
-      <c r="J96" t="s">
-        <v>182</v>
-      </c>
-      <c r="K96" t="s">
-        <v>278</v>
-      </c>
-      <c r="L96" t="s">
-        <v>418</v>
-      </c>
-      <c r="M96" t="s">
-        <v>185</v>
-      </c>
-      <c r="N96" t="s">
-        <v>242</v>
-      </c>
-      <c r="O96" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4846,46 +4846,22 @@
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D97" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E97" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="F97" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="G97" t="s">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="H97" t="s">
-        <v>179</v>
-      </c>
-      <c r="I97" t="s">
-        <v>339</v>
-      </c>
-      <c r="J97" t="s">
-        <v>275</v>
-      </c>
-      <c r="K97" t="s">
-        <v>403</v>
-      </c>
-      <c r="L97" t="s">
-        <v>368</v>
-      </c>
-      <c r="M97" t="s">
-        <v>281</v>
-      </c>
-      <c r="N97" t="s">
-        <v>216</v>
-      </c>
-      <c r="O97" t="s">
-        <v>217</v>
-      </c>
-      <c r="P97" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -4896,25 +4872,22 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D98" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E98" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F98" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="G98" t="s">
-        <v>347</v>
+        <v>225</v>
       </c>
       <c r="H98" t="s">
-        <v>339</v>
-      </c>
-      <c r="I98" t="s">
-        <v>281</v>
+        <v>323</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4925,25 +4898,25 @@
         <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D99" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="F99" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="G99" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
       <c r="H99" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="I99" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4954,19 +4927,16 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D100" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E100" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F100" t="s">
-        <v>178</v>
-      </c>
-      <c r="G100" t="s">
-        <v>347</v>
+        <v>249</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4977,46 +4947,43 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D101" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E101" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="F101" t="s">
-        <v>178</v>
+        <v>249</v>
       </c>
       <c r="G101" t="s">
-        <v>179</v>
+        <v>363</v>
       </c>
       <c r="H101" t="s">
-        <v>339</v>
+        <v>252</v>
       </c>
       <c r="I101" t="s">
-        <v>275</v>
+        <v>364</v>
       </c>
       <c r="J101" t="s">
-        <v>403</v>
+        <v>195</v>
       </c>
       <c r="K101" t="s">
-        <v>184</v>
+        <v>294</v>
       </c>
       <c r="L101" t="s">
-        <v>281</v>
+        <v>437</v>
       </c>
       <c r="M101" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="N101" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="O101" t="s">
-        <v>384</v>
-      </c>
-      <c r="P101" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -5027,25 +4994,46 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D102" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E102" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F102" t="s">
-        <v>179</v>
+        <v>323</v>
       </c>
       <c r="G102" t="s">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="H102" t="s">
-        <v>240</v>
+        <v>192</v>
       </c>
       <c r="I102" t="s">
-        <v>215</v>
+        <v>356</v>
+      </c>
+      <c r="J102" t="s">
+        <v>291</v>
+      </c>
+      <c r="K102" t="s">
+        <v>422</v>
+      </c>
+      <c r="L102" t="s">
+        <v>386</v>
+      </c>
+      <c r="M102" t="s">
+        <v>297</v>
+      </c>
+      <c r="N102" t="s">
+        <v>229</v>
+      </c>
+      <c r="O102" t="s">
+        <v>230</v>
+      </c>
+      <c r="P102" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5056,13 +5044,25 @@
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="D103" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E103" t="s">
-        <v>239</v>
+        <v>250</v>
+      </c>
+      <c r="F103" t="s">
+        <v>252</v>
+      </c>
+      <c r="G103" t="s">
+        <v>364</v>
+      </c>
+      <c r="H103" t="s">
+        <v>356</v>
+      </c>
+      <c r="I103" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5073,34 +5073,25 @@
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D104" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E104" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="F104" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G104" t="s">
-        <v>216</v>
+        <v>365</v>
       </c>
       <c r="H104" t="s">
-        <v>217</v>
+        <v>386</v>
       </c>
       <c r="I104" t="s">
-        <v>393</v>
-      </c>
-      <c r="J104" t="s">
-        <v>187</v>
-      </c>
-      <c r="K104" t="s">
-        <v>309</v>
-      </c>
-      <c r="L104" t="s">
-        <v>221</v>
+        <v>324</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5111,34 +5102,19 @@
         <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="D105" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E105" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="F105" t="s">
-        <v>307</v>
+        <v>191</v>
       </c>
       <c r="G105" t="s">
-        <v>260</v>
-      </c>
-      <c r="H105" t="s">
-        <v>296</v>
-      </c>
-      <c r="I105" t="s">
-        <v>189</v>
-      </c>
-      <c r="J105" t="s">
-        <v>394</v>
-      </c>
-      <c r="K105" t="s">
-        <v>410</v>
-      </c>
-      <c r="L105" t="s">
-        <v>246</v>
+        <v>364</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5149,37 +5125,46 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D106" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E106" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="F106" t="s">
-        <v>308</v>
+        <v>191</v>
       </c>
       <c r="G106" t="s">
+        <v>192</v>
+      </c>
+      <c r="H106" t="s">
+        <v>356</v>
+      </c>
+      <c r="I106" t="s">
+        <v>291</v>
+      </c>
+      <c r="J106" t="s">
+        <v>422</v>
+      </c>
+      <c r="K106" t="s">
+        <v>197</v>
+      </c>
+      <c r="L106" t="s">
         <v>297</v>
       </c>
-      <c r="H106" t="s">
-        <v>189</v>
-      </c>
-      <c r="I106" t="s">
-        <v>394</v>
-      </c>
-      <c r="J106" t="s">
-        <v>245</v>
-      </c>
-      <c r="K106" t="s">
-        <v>411</v>
-      </c>
-      <c r="L106" t="s">
-        <v>362</v>
-      </c>
       <c r="M106" t="s">
-        <v>366</v>
+        <v>229</v>
+      </c>
+      <c r="N106" t="s">
+        <v>230</v>
+      </c>
+      <c r="O106" t="s">
+        <v>402</v>
+      </c>
+      <c r="P106" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5190,31 +5175,25 @@
         <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D107" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E107" t="s">
-        <v>186</v>
+        <v>252</v>
       </c>
       <c r="F107" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G107" t="s">
-        <v>309</v>
+        <v>291</v>
       </c>
       <c r="H107" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="I107" t="s">
-        <v>220</v>
-      </c>
-      <c r="J107" t="s">
-        <v>245</v>
-      </c>
-      <c r="K107" t="s">
-        <v>365</v>
+        <v>228</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5225,22 +5204,13 @@
         <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D108" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E108" t="s">
-        <v>186</v>
-      </c>
-      <c r="F108" t="s">
-        <v>188</v>
-      </c>
-      <c r="G108" t="s">
-        <v>309</v>
-      </c>
-      <c r="H108" t="s">
-        <v>370</v>
+        <v>253</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5251,46 +5221,34 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D109" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E109" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="F109" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="G109" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="H109" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="I109" t="s">
-        <v>245</v>
+        <v>411</v>
       </c>
       <c r="J109" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
       <c r="K109" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="L109" t="s">
-        <v>343</v>
-      </c>
-      <c r="M109" t="s">
-        <v>366</v>
-      </c>
-      <c r="N109" t="s">
-        <v>224</v>
-      </c>
-      <c r="O109" t="s">
-        <v>312</v>
-      </c>
-      <c r="P109" t="s">
-        <v>301</v>
+        <v>234</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5301,13 +5259,34 @@
         <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D110" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E110" t="s">
-        <v>188</v>
+        <v>255</v>
+      </c>
+      <c r="F110" t="s">
+        <v>324</v>
+      </c>
+      <c r="G110" t="s">
+        <v>275</v>
+      </c>
+      <c r="H110" t="s">
+        <v>312</v>
+      </c>
+      <c r="I110" t="s">
+        <v>202</v>
+      </c>
+      <c r="J110" t="s">
+        <v>412</v>
+      </c>
+      <c r="K110" t="s">
+        <v>429</v>
+      </c>
+      <c r="L110" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5318,46 +5297,37 @@
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D111" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E111" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="F111" t="s">
-        <v>245</v>
+        <v>325</v>
       </c>
       <c r="G111" t="s">
-        <v>246</v>
+        <v>313</v>
       </c>
       <c r="H111" t="s">
-        <v>300</v>
+        <v>202</v>
       </c>
       <c r="I111" t="s">
-        <v>343</v>
+        <v>412</v>
       </c>
       <c r="J111" t="s">
-        <v>366</v>
+        <v>259</v>
       </c>
       <c r="K111" t="s">
-        <v>224</v>
+        <v>430</v>
       </c>
       <c r="L111" t="s">
-        <v>312</v>
+        <v>380</v>
       </c>
       <c r="M111" t="s">
-        <v>301</v>
-      </c>
-      <c r="N111" t="s">
-        <v>261</v>
-      </c>
-      <c r="O111" t="s">
-        <v>423</v>
-      </c>
-      <c r="P111" t="s">
-        <v>432</v>
+        <v>384</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5368,49 +5338,34 @@
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D112" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E112" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="F112" t="s">
-        <v>299</v>
+        <v>201</v>
       </c>
       <c r="G112" t="s">
-        <v>246</v>
+        <v>326</v>
       </c>
       <c r="H112" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="I112" t="s">
-        <v>343</v>
+        <v>233</v>
       </c>
       <c r="J112" t="s">
-        <v>366</v>
+        <v>259</v>
       </c>
       <c r="K112" t="s">
-        <v>224</v>
-      </c>
-      <c r="L112" t="s">
-        <v>314</v>
-      </c>
-      <c r="M112" t="s">
-        <v>351</v>
-      </c>
-      <c r="N112" t="s">
-        <v>373</v>
-      </c>
-      <c r="O112" t="s">
-        <v>190</v>
-      </c>
-      <c r="P112" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -5418,46 +5373,25 @@
         <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="D113" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E113" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
       <c r="F113" t="s">
-        <v>248</v>
+        <v>201</v>
       </c>
       <c r="G113" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="H113" t="s">
-        <v>310</v>
-      </c>
-      <c r="I113" t="s">
-        <v>349</v>
-      </c>
-      <c r="J113" t="s">
-        <v>313</v>
-      </c>
-      <c r="K113" t="s">
-        <v>351</v>
-      </c>
-      <c r="L113" t="s">
-        <v>344</v>
-      </c>
-      <c r="M113" t="s">
-        <v>412</v>
-      </c>
-      <c r="N113" t="s">
-        <v>390</v>
-      </c>
-      <c r="O113" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -5465,31 +5399,49 @@
         <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D114" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E114" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F114" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="G114" t="s">
-        <v>343</v>
+        <v>202</v>
       </c>
       <c r="H114" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="I114" t="s">
-        <v>349</v>
+        <v>259</v>
       </c>
       <c r="J114" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
+        <v>260</v>
+      </c>
+      <c r="K114" t="s">
+        <v>261</v>
+      </c>
+      <c r="L114" t="s">
+        <v>360</v>
+      </c>
+      <c r="M114" t="s">
+        <v>384</v>
+      </c>
+      <c r="N114" t="s">
+        <v>237</v>
+      </c>
+      <c r="O114" t="s">
+        <v>329</v>
+      </c>
+      <c r="P114" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -5497,34 +5449,16 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D115" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E115" t="s">
-        <v>247</v>
-      </c>
-      <c r="F115" t="s">
-        <v>310</v>
-      </c>
-      <c r="G115" t="s">
-        <v>349</v>
-      </c>
-      <c r="H115" t="s">
-        <v>313</v>
-      </c>
-      <c r="I115" t="s">
-        <v>351</v>
-      </c>
-      <c r="J115" t="s">
-        <v>396</v>
-      </c>
-      <c r="K115" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -5532,37 +5466,49 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D116" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E116" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="F116" t="s">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="G116" t="s">
-        <v>310</v>
+        <v>260</v>
       </c>
       <c r="H116" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="I116" t="s">
-        <v>395</v>
+        <v>360</v>
       </c>
       <c r="J116" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="K116" t="s">
-        <v>412</v>
+        <v>237</v>
       </c>
       <c r="L116" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
+        <v>329</v>
+      </c>
+      <c r="M116" t="s">
+        <v>317</v>
+      </c>
+      <c r="N116" t="s">
+        <v>276</v>
+      </c>
+      <c r="O116" t="s">
+        <v>441</v>
+      </c>
+      <c r="P116" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -5570,22 +5516,49 @@
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D117" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E117" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="F117" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="G117" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
+        <v>260</v>
+      </c>
+      <c r="H117" t="s">
+        <v>261</v>
+      </c>
+      <c r="I117" t="s">
+        <v>360</v>
+      </c>
+      <c r="J117" t="s">
+        <v>384</v>
+      </c>
+      <c r="K117" t="s">
+        <v>237</v>
+      </c>
+      <c r="L117" t="s">
+        <v>331</v>
+      </c>
+      <c r="M117" t="s">
+        <v>368</v>
+      </c>
+      <c r="N117" t="s">
+        <v>391</v>
+      </c>
+      <c r="O117" t="s">
+        <v>203</v>
+      </c>
+      <c r="P117" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -5593,46 +5566,46 @@
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="D118" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E118" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="F118" t="s">
-        <v>313</v>
+        <v>262</v>
       </c>
       <c r="G118" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="H118" t="s">
-        <v>372</v>
+        <v>327</v>
       </c>
       <c r="I118" t="s">
-        <v>190</v>
+        <v>366</v>
       </c>
       <c r="J118" t="s">
-        <v>390</v>
+        <v>330</v>
       </c>
       <c r="K118" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="L118" t="s">
-        <v>331</v>
+        <v>361</v>
       </c>
       <c r="M118" t="s">
-        <v>192</v>
+        <v>431</v>
       </c>
       <c r="N118" t="s">
-        <v>263</v>
+        <v>408</v>
       </c>
       <c r="O118" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -5640,28 +5613,31 @@
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D119" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E119" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="F119" t="s">
-        <v>314</v>
+        <v>261</v>
       </c>
       <c r="G119" t="s">
-        <v>301</v>
+        <v>360</v>
       </c>
       <c r="H119" t="s">
-        <v>373</v>
+        <v>327</v>
       </c>
       <c r="I119" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
+        <v>366</v>
+      </c>
+      <c r="J119" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -5669,28 +5645,34 @@
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D120" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E120" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="F120" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
       <c r="G120" t="s">
-        <v>257</v>
+        <v>366</v>
       </c>
       <c r="H120" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="I120" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
+        <v>368</v>
+      </c>
+      <c r="J120" t="s">
+        <v>414</v>
+      </c>
+      <c r="K120" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -5698,22 +5680,37 @@
         <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D121" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E121" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
       <c r="F121" t="s">
-        <v>254</v>
+        <v>328</v>
       </c>
       <c r="G121" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="122" spans="1:15">
+        <v>327</v>
+      </c>
+      <c r="H121" t="s">
+        <v>389</v>
+      </c>
+      <c r="I121" t="s">
+        <v>413</v>
+      </c>
+      <c r="J121" t="s">
+        <v>390</v>
+      </c>
+      <c r="K121" t="s">
+        <v>431</v>
+      </c>
+      <c r="L121" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -5721,28 +5718,22 @@
         <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D122" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E122" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F122" t="s">
-        <v>255</v>
+        <v>329</v>
       </c>
       <c r="G122" t="s">
-        <v>316</v>
-      </c>
-      <c r="H122" t="s">
-        <v>256</v>
-      </c>
-      <c r="I122" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="123" spans="1:15">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -5750,28 +5741,46 @@
         <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D123" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E123" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="F123" t="s">
-        <v>255</v>
+        <v>330</v>
       </c>
       <c r="G123" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="H123" t="s">
-        <v>256</v>
+        <v>390</v>
       </c>
       <c r="I123" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="124" spans="1:15">
+        <v>203</v>
+      </c>
+      <c r="J123" t="s">
+        <v>408</v>
+      </c>
+      <c r="K123" t="s">
+        <v>432</v>
+      </c>
+      <c r="L123" t="s">
+        <v>348</v>
+      </c>
+      <c r="M123" t="s">
+        <v>205</v>
+      </c>
+      <c r="N123" t="s">
+        <v>278</v>
+      </c>
+      <c r="O123" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -5779,28 +5788,28 @@
         <v>137</v>
       </c>
       <c r="C124" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D124" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E124" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F124" t="s">
-        <v>255</v>
+        <v>331</v>
       </c>
       <c r="G124" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H124" t="s">
-        <v>256</v>
+        <v>391</v>
       </c>
       <c r="I124" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="125" spans="1:15">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -5808,28 +5817,28 @@
         <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D125" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E125" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="F125" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="G125" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="H125" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="I125" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="126" spans="1:15">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -5837,22 +5846,22 @@
         <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D126" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E126" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="F126" t="s">
-        <v>315</v>
+        <v>268</v>
       </c>
       <c r="G126" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="127" spans="1:15">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -5860,16 +5869,28 @@
         <v>140</v>
       </c>
       <c r="C127" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D127" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E127" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="128" spans="1:15">
+        <v>266</v>
+      </c>
+      <c r="F127" t="s">
+        <v>269</v>
+      </c>
+      <c r="G127" t="s">
+        <v>333</v>
+      </c>
+      <c r="H127" t="s">
+        <v>270</v>
+      </c>
+      <c r="I127" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -5877,22 +5898,28 @@
         <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D128" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="F128" t="s">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="G128" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16">
+        <v>333</v>
+      </c>
+      <c r="H128" t="s">
+        <v>270</v>
+      </c>
+      <c r="I128" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5900,16 +5927,28 @@
         <v>142</v>
       </c>
       <c r="C129" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D129" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E129" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16">
+        <v>266</v>
+      </c>
+      <c r="F129" t="s">
+        <v>269</v>
+      </c>
+      <c r="G129" t="s">
+        <v>333</v>
+      </c>
+      <c r="H129" t="s">
+        <v>270</v>
+      </c>
+      <c r="I129" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5917,19 +5956,37 @@
         <v>143</v>
       </c>
       <c r="C130" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D130" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="F130" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16">
+        <v>268</v>
+      </c>
+      <c r="G130" t="s">
+        <v>271</v>
+      </c>
+      <c r="H130" t="s">
+        <v>392</v>
+      </c>
+      <c r="I130" t="s">
+        <v>369</v>
+      </c>
+      <c r="J130" t="s">
+        <v>370</v>
+      </c>
+      <c r="K130" t="s">
+        <v>273</v>
+      </c>
+      <c r="L130" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5937,16 +5994,31 @@
         <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D131" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E131" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16">
+        <v>268</v>
+      </c>
+      <c r="F131" t="s">
+        <v>332</v>
+      </c>
+      <c r="G131" t="s">
+        <v>369</v>
+      </c>
+      <c r="H131" t="s">
+        <v>370</v>
+      </c>
+      <c r="I131" t="s">
+        <v>273</v>
+      </c>
+      <c r="J131" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -5954,16 +6026,16 @@
         <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="D132" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E132" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -5971,19 +6043,31 @@
         <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D133" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E133" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16">
+        <v>333</v>
+      </c>
+      <c r="G133" t="s">
+        <v>270</v>
+      </c>
+      <c r="H133" t="s">
+        <v>334</v>
+      </c>
+      <c r="I133" t="s">
+        <v>415</v>
+      </c>
+      <c r="J133" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -5991,16 +6075,25 @@
         <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="D134" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16">
+        <v>270</v>
+      </c>
+      <c r="F134" t="s">
+        <v>334</v>
+      </c>
+      <c r="G134" t="s">
+        <v>288</v>
+      </c>
+      <c r="H134" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6008,22 +6101,28 @@
         <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E135" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F135" t="s">
-        <v>298</v>
+        <v>238</v>
       </c>
       <c r="G135" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16">
+        <v>370</v>
+      </c>
+      <c r="H135" t="s">
+        <v>273</v>
+      </c>
+      <c r="I135" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6031,19 +6130,19 @@
         <v>149</v>
       </c>
       <c r="C136" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="D136" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E136" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="F136" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6051,19 +6150,16 @@
         <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="D137" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E137" t="s">
-        <v>261</v>
-      </c>
-      <c r="F137" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6071,49 +6167,13 @@
         <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D138" t="s">
-        <v>177</v>
-      </c>
-      <c r="E138" t="s">
-        <v>262</v>
-      </c>
-      <c r="F138" t="s">
-        <v>263</v>
-      </c>
-      <c r="G138" t="s">
-        <v>193</v>
-      </c>
-      <c r="H138" t="s">
-        <v>375</v>
-      </c>
-      <c r="I138" t="s">
-        <v>287</v>
-      </c>
-      <c r="J138" t="s">
-        <v>196</v>
-      </c>
-      <c r="K138" t="s">
-        <v>414</v>
-      </c>
-      <c r="L138" t="s">
-        <v>420</v>
-      </c>
-      <c r="M138" t="s">
-        <v>424</v>
-      </c>
-      <c r="N138" t="s">
-        <v>421</v>
-      </c>
-      <c r="O138" t="s">
-        <v>426</v>
-      </c>
-      <c r="P138" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6121,25 +6181,13 @@
         <v>152</v>
       </c>
       <c r="C139" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D139" t="s">
-        <v>177</v>
-      </c>
-      <c r="E139" t="s">
-        <v>263</v>
-      </c>
-      <c r="F139" t="s">
-        <v>319</v>
-      </c>
-      <c r="G139" t="s">
-        <v>287</v>
-      </c>
-      <c r="H139" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6147,49 +6195,13 @@
         <v>153</v>
       </c>
       <c r="C140" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D140" t="s">
-        <v>177</v>
-      </c>
-      <c r="E140" t="s">
-        <v>264</v>
-      </c>
-      <c r="F140" t="s">
-        <v>319</v>
-      </c>
-      <c r="G140" t="s">
-        <v>287</v>
-      </c>
-      <c r="H140" t="s">
-        <v>196</v>
-      </c>
-      <c r="I140" t="s">
-        <v>332</v>
-      </c>
-      <c r="J140" t="s">
-        <v>290</v>
-      </c>
-      <c r="K140" t="s">
-        <v>267</v>
-      </c>
-      <c r="L140" t="s">
-        <v>197</v>
-      </c>
-      <c r="M140" t="s">
-        <v>324</v>
-      </c>
-      <c r="N140" t="s">
-        <v>426</v>
-      </c>
-      <c r="O140" t="s">
-        <v>356</v>
-      </c>
-      <c r="P140" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6197,49 +6209,13 @@
         <v>154</v>
       </c>
       <c r="C141" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D141" t="s">
-        <v>177</v>
-      </c>
-      <c r="E141" t="s">
-        <v>193</v>
-      </c>
-      <c r="F141" t="s">
-        <v>320</v>
-      </c>
-      <c r="G141" t="s">
-        <v>287</v>
-      </c>
-      <c r="H141" t="s">
-        <v>377</v>
-      </c>
-      <c r="I141" t="s">
-        <v>266</v>
-      </c>
-      <c r="J141" t="s">
-        <v>404</v>
-      </c>
-      <c r="K141" t="s">
-        <v>322</v>
-      </c>
-      <c r="L141" t="s">
-        <v>421</v>
-      </c>
-      <c r="M141" t="s">
-        <v>199</v>
-      </c>
-      <c r="N141" t="s">
-        <v>427</v>
-      </c>
-      <c r="O141" t="s">
-        <v>272</v>
-      </c>
-      <c r="P141" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6247,19 +6223,16 @@
         <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D142" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
-      </c>
-      <c r="F142" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6267,34 +6240,16 @@
         <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="D143" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E143" t="s">
-        <v>266</v>
-      </c>
-      <c r="F143" t="s">
-        <v>322</v>
-      </c>
-      <c r="G143" t="s">
-        <v>268</v>
-      </c>
-      <c r="H143" t="s">
-        <v>356</v>
-      </c>
-      <c r="I143" t="s">
-        <v>357</v>
-      </c>
-      <c r="J143" t="s">
-        <v>402</v>
-      </c>
-      <c r="K143" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6302,46 +6257,19 @@
         <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D144" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
-      </c>
-      <c r="G144" t="s">
-        <v>353</v>
-      </c>
-      <c r="H144" t="s">
-        <v>378</v>
-      </c>
-      <c r="I144" t="s">
-        <v>200</v>
-      </c>
-      <c r="J144" t="s">
-        <v>255</v>
-      </c>
-      <c r="K144" t="s">
-        <v>316</v>
-      </c>
-      <c r="L144" t="s">
-        <v>256</v>
-      </c>
-      <c r="M144" t="s">
-        <v>317</v>
-      </c>
-      <c r="N144" t="s">
-        <v>428</v>
-      </c>
-      <c r="O144" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6349,34 +6277,16 @@
         <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D145" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E145" t="s">
-        <v>267</v>
-      </c>
-      <c r="F145" t="s">
-        <v>268</v>
-      </c>
-      <c r="G145" t="s">
-        <v>323</v>
-      </c>
-      <c r="H145" t="s">
-        <v>326</v>
-      </c>
-      <c r="I145" t="s">
-        <v>357</v>
-      </c>
-      <c r="J145" t="s">
-        <v>378</v>
-      </c>
-      <c r="K145" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="146" spans="1:13">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6384,31 +6294,22 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="D146" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E146" t="s">
-        <v>197</v>
+        <v>275</v>
       </c>
       <c r="F146" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G146" t="s">
-        <v>354</v>
-      </c>
-      <c r="H146" t="s">
-        <v>200</v>
-      </c>
-      <c r="I146" t="s">
-        <v>328</v>
-      </c>
-      <c r="J146" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6416,28 +6317,19 @@
         <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D147" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="E147" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="F147" t="s">
-        <v>324</v>
-      </c>
-      <c r="G147" t="s">
-        <v>355</v>
-      </c>
-      <c r="H147" t="s">
-        <v>379</v>
-      </c>
-      <c r="I147" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6445,40 +6337,19 @@
         <v>161</v>
       </c>
       <c r="C148" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D148" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E148" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="F148" t="s">
-        <v>325</v>
-      </c>
-      <c r="G148" t="s">
-        <v>356</v>
-      </c>
-      <c r="H148" t="s">
-        <v>380</v>
-      </c>
-      <c r="I148" t="s">
-        <v>357</v>
-      </c>
-      <c r="J148" t="s">
-        <v>401</v>
-      </c>
-      <c r="K148" t="s">
-        <v>397</v>
-      </c>
-      <c r="L148" t="s">
-        <v>422</v>
-      </c>
-      <c r="M148" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6486,37 +6357,49 @@
         <v>162</v>
       </c>
       <c r="C149" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D149" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="F149" t="s">
-        <v>326</v>
+        <v>278</v>
       </c>
       <c r="G149" t="s">
-        <v>357</v>
+        <v>206</v>
       </c>
       <c r="H149" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="I149" t="s">
-        <v>397</v>
+        <v>303</v>
       </c>
       <c r="J149" t="s">
-        <v>328</v>
+        <v>209</v>
       </c>
       <c r="K149" t="s">
-        <v>272</v>
+        <v>433</v>
       </c>
       <c r="L149" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13">
+        <v>439</v>
+      </c>
+      <c r="M149" t="s">
+        <v>442</v>
+      </c>
+      <c r="N149" t="s">
+        <v>440</v>
+      </c>
+      <c r="O149" t="s">
+        <v>443</v>
+      </c>
+      <c r="P149" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6524,37 +6407,25 @@
         <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D150" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="F150" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="G150" t="s">
-        <v>357</v>
+        <v>303</v>
       </c>
       <c r="H150" t="s">
-        <v>381</v>
-      </c>
-      <c r="I150" t="s">
-        <v>254</v>
-      </c>
-      <c r="J150" t="s">
-        <v>316</v>
-      </c>
-      <c r="K150" t="s">
-        <v>352</v>
-      </c>
-      <c r="L150" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6562,28 +6433,49 @@
         <v>164</v>
       </c>
       <c r="C151" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D151" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E151" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F151" t="s">
-        <v>253</v>
+        <v>336</v>
       </c>
       <c r="G151" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
       <c r="H151" t="s">
-        <v>258</v>
+        <v>209</v>
       </c>
       <c r="I151" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13">
+        <v>349</v>
+      </c>
+      <c r="J151" t="s">
+        <v>306</v>
+      </c>
+      <c r="K151" t="s">
+        <v>282</v>
+      </c>
+      <c r="L151" t="s">
+        <v>210</v>
+      </c>
+      <c r="M151" t="s">
+        <v>341</v>
+      </c>
+      <c r="N151" t="s">
+        <v>443</v>
+      </c>
+      <c r="O151" t="s">
+        <v>374</v>
+      </c>
+      <c r="P151" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6591,28 +6483,49 @@
         <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D152" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E152" t="s">
-        <v>271</v>
+        <v>206</v>
       </c>
       <c r="F152" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="G152" t="s">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="H152" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="I152" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13">
+        <v>281</v>
+      </c>
+      <c r="J152" t="s">
+        <v>423</v>
+      </c>
+      <c r="K152" t="s">
+        <v>339</v>
+      </c>
+      <c r="L152" t="s">
+        <v>440</v>
+      </c>
+      <c r="M152" t="s">
+        <v>212</v>
+      </c>
+      <c r="N152" t="s">
+        <v>444</v>
+      </c>
+      <c r="O152" t="s">
+        <v>287</v>
+      </c>
+      <c r="P152" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6620,19 +6533,19 @@
         <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D153" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E153" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="F153" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6640,16 +6553,34 @@
         <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="D154" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="E154" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13">
+        <v>281</v>
+      </c>
+      <c r="F154" t="s">
+        <v>339</v>
+      </c>
+      <c r="G154" t="s">
+        <v>283</v>
+      </c>
+      <c r="H154" t="s">
+        <v>374</v>
+      </c>
+      <c r="I154" t="s">
+        <v>375</v>
+      </c>
+      <c r="J154" t="s">
+        <v>421</v>
+      </c>
+      <c r="K154" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6657,13 +6588,402 @@
         <v>168</v>
       </c>
       <c r="C155" t="s">
+        <v>184</v>
+      </c>
+      <c r="D155" t="s">
+        <v>190</v>
+      </c>
+      <c r="E155" t="s">
+        <v>282</v>
+      </c>
+      <c r="F155" t="s">
+        <v>283</v>
+      </c>
+      <c r="G155" t="s">
+        <v>371</v>
+      </c>
+      <c r="H155" t="s">
+        <v>396</v>
+      </c>
+      <c r="I155" t="s">
+        <v>213</v>
+      </c>
+      <c r="J155" t="s">
+        <v>269</v>
+      </c>
+      <c r="K155" t="s">
+        <v>333</v>
+      </c>
+      <c r="L155" t="s">
+        <v>270</v>
+      </c>
+      <c r="M155" t="s">
+        <v>238</v>
+      </c>
+      <c r="N155" t="s">
+        <v>415</v>
+      </c>
+      <c r="O155" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>169</v>
+      </c>
+      <c r="C156" t="s">
+        <v>182</v>
+      </c>
+      <c r="D156" t="s">
+        <v>190</v>
+      </c>
+      <c r="E156" t="s">
+        <v>282</v>
+      </c>
+      <c r="F156" t="s">
+        <v>283</v>
+      </c>
+      <c r="G156" t="s">
+        <v>340</v>
+      </c>
+      <c r="H156" t="s">
+        <v>343</v>
+      </c>
+      <c r="I156" t="s">
+        <v>375</v>
+      </c>
+      <c r="J156" t="s">
+        <v>396</v>
+      </c>
+      <c r="K156" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>170</v>
+      </c>
+      <c r="C157" t="s">
+        <v>184</v>
+      </c>
+      <c r="D157" t="s">
+        <v>190</v>
+      </c>
+      <c r="E157" t="s">
+        <v>210</v>
+      </c>
+      <c r="F157" t="s">
+        <v>340</v>
+      </c>
+      <c r="G157" t="s">
+        <v>372</v>
+      </c>
+      <c r="H157" t="s">
+        <v>213</v>
+      </c>
+      <c r="I157" t="s">
+        <v>345</v>
+      </c>
+      <c r="J157" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
         <v>171</v>
       </c>
-      <c r="D155" t="s">
+      <c r="C158" t="s">
+        <v>182</v>
+      </c>
+      <c r="D158" t="s">
+        <v>190</v>
+      </c>
+      <c r="E158" t="s">
+        <v>283</v>
+      </c>
+      <c r="F158" t="s">
+        <v>341</v>
+      </c>
+      <c r="G158" t="s">
+        <v>373</v>
+      </c>
+      <c r="H158" t="s">
+        <v>397</v>
+      </c>
+      <c r="I158" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>172</v>
+      </c>
+      <c r="C159" t="s">
+        <v>184</v>
+      </c>
+      <c r="D159" t="s">
+        <v>190</v>
+      </c>
+      <c r="E159" t="s">
+        <v>283</v>
+      </c>
+      <c r="F159" t="s">
+        <v>342</v>
+      </c>
+      <c r="G159" t="s">
+        <v>374</v>
+      </c>
+      <c r="H159" t="s">
+        <v>398</v>
+      </c>
+      <c r="I159" t="s">
+        <v>375</v>
+      </c>
+      <c r="J159" t="s">
+        <v>420</v>
+      </c>
+      <c r="K159" t="s">
+        <v>417</v>
+      </c>
+      <c r="L159" t="s">
+        <v>318</v>
+      </c>
+      <c r="M159" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160" t="s">
+        <v>173</v>
+      </c>
+      <c r="C160" t="s">
+        <v>184</v>
+      </c>
+      <c r="D160" t="s">
+        <v>190</v>
+      </c>
+      <c r="E160" t="s">
+        <v>284</v>
+      </c>
+      <c r="F160" t="s">
+        <v>343</v>
+      </c>
+      <c r="G160" t="s">
+        <v>375</v>
+      </c>
+      <c r="H160" t="s">
+        <v>396</v>
+      </c>
+      <c r="I160" t="s">
+        <v>417</v>
+      </c>
+      <c r="J160" t="s">
+        <v>345</v>
+      </c>
+      <c r="K160" t="s">
+        <v>287</v>
+      </c>
+      <c r="L160" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161" t="s">
+        <v>174</v>
+      </c>
+      <c r="C161" t="s">
+        <v>184</v>
+      </c>
+      <c r="D161" t="s">
+        <v>190</v>
+      </c>
+      <c r="E161" t="s">
+        <v>284</v>
+      </c>
+      <c r="F161" t="s">
+        <v>344</v>
+      </c>
+      <c r="G161" t="s">
+        <v>375</v>
+      </c>
+      <c r="H161" t="s">
+        <v>399</v>
+      </c>
+      <c r="I161" t="s">
+        <v>268</v>
+      </c>
+      <c r="J161" t="s">
+        <v>333</v>
+      </c>
+      <c r="K161" t="s">
+        <v>369</v>
+      </c>
+      <c r="L161" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162" t="s">
+        <v>175</v>
+      </c>
+      <c r="C162" t="s">
+        <v>184</v>
+      </c>
+      <c r="D162" t="s">
+        <v>190</v>
+      </c>
+      <c r="E162" t="s">
+        <v>285</v>
+      </c>
+      <c r="F162" t="s">
+        <v>267</v>
+      </c>
+      <c r="G162" t="s">
+        <v>376</v>
+      </c>
+      <c r="H162" t="s">
+        <v>272</v>
+      </c>
+      <c r="I162" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163" t="s">
+        <v>176</v>
+      </c>
+      <c r="C163" t="s">
+        <v>184</v>
+      </c>
+      <c r="D163" t="s">
+        <v>190</v>
+      </c>
+      <c r="E163" t="s">
+        <v>286</v>
+      </c>
+      <c r="F163" t="s">
+        <v>345</v>
+      </c>
+      <c r="G163" t="s">
+        <v>377</v>
+      </c>
+      <c r="H163" t="s">
+        <v>400</v>
+      </c>
+      <c r="I163" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164" t="s">
         <v>177</v>
       </c>
-      <c r="E155" t="s">
-        <v>274</v>
+      <c r="C164" t="s">
+        <v>184</v>
+      </c>
+      <c r="D164" t="s">
+        <v>190</v>
+      </c>
+      <c r="E164" t="s">
+        <v>287</v>
+      </c>
+      <c r="F164" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165" t="s">
+        <v>178</v>
+      </c>
+      <c r="C165" t="s">
+        <v>184</v>
+      </c>
+      <c r="D165" t="s">
+        <v>190</v>
+      </c>
+      <c r="E165" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166" t="s">
+        <v>179</v>
+      </c>
+      <c r="C166" t="s">
+        <v>184</v>
+      </c>
+      <c r="D166" t="s">
+        <v>190</v>
+      </c>
+      <c r="E166" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167" t="s">
+        <v>180</v>
+      </c>
+      <c r="C167" t="s">
+        <v>184</v>
+      </c>
+      <c r="D167" t="s">
+        <v>190</v>
+      </c>
+      <c r="E167" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168" t="s">
+        <v>181</v>
+      </c>
+      <c r="C168" t="s">
+        <v>184</v>
+      </c>
+      <c r="D168" t="s">
+        <v>190</v>
+      </c>
+      <c r="E168" t="s">
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Castor_training.xlsx
+++ b/Documents/Castor_training.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="478">
   <si>
     <t>SubjectID</t>
   </si>
@@ -145,6 +145,12 @@
     <t>201-028</t>
   </si>
   <si>
+    <t>201-029</t>
+  </si>
+  <si>
+    <t>201-030</t>
+  </si>
+  <si>
     <t>202-001</t>
   </si>
   <si>
@@ -277,6 +283,60 @@
     <t>202-044</t>
   </si>
   <si>
+    <t>202-045</t>
+  </si>
+  <si>
+    <t>202-046</t>
+  </si>
+  <si>
+    <t>202-047</t>
+  </si>
+  <si>
+    <t>202-048</t>
+  </si>
+  <si>
+    <t>202-049</t>
+  </si>
+  <si>
+    <t>202-050</t>
+  </si>
+  <si>
+    <t>202-051</t>
+  </si>
+  <si>
+    <t>202-052</t>
+  </si>
+  <si>
+    <t>202-053</t>
+  </si>
+  <si>
+    <t>202-054</t>
+  </si>
+  <si>
+    <t>202-055</t>
+  </si>
+  <si>
+    <t>202-056</t>
+  </si>
+  <si>
+    <t>202-057</t>
+  </si>
+  <si>
+    <t>202-058</t>
+  </si>
+  <si>
+    <t>202-059</t>
+  </si>
+  <si>
+    <t>202-060</t>
+  </si>
+  <si>
+    <t>202-061</t>
+  </si>
+  <si>
+    <t>202-062</t>
+  </si>
+  <si>
     <t>203-001</t>
   </si>
   <si>
@@ -487,6 +547,9 @@
     <t>203-070</t>
   </si>
   <si>
+    <t>203-071</t>
+  </si>
+  <si>
     <t>204-001</t>
   </si>
   <si>
@@ -583,6 +646,9 @@
     <t>withdrawn (LTF)</t>
   </si>
   <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
     <t>Training</t>
   </si>
   <si>
@@ -658,6 +724,15 @@
     <t>17-07-2023</t>
   </si>
   <si>
+    <t>05-09-2023</t>
+  </si>
+  <si>
+    <t>11-09-2023</t>
+  </si>
+  <si>
+    <t>19-09-2023</t>
+  </si>
+  <si>
     <t>28-06-2022</t>
   </si>
   <si>
@@ -733,6 +808,18 @@
     <t>22-08-2023</t>
   </si>
   <si>
+    <t>23-08-2023</t>
+  </si>
+  <si>
+    <t>28-08-2023</t>
+  </si>
+  <si>
+    <t>29-08-2023</t>
+  </si>
+  <si>
+    <t>30-08-2023</t>
+  </si>
+  <si>
     <t>23-06-2022</t>
   </si>
   <si>
@@ -835,7 +922,10 @@
     <t>16-08-2023</t>
   </si>
   <si>
-    <t>05-09-2023</t>
+    <t>25-08-2023</t>
+  </si>
+  <si>
+    <t>01-09-2023</t>
   </si>
   <si>
     <t>03-11-2022</t>
@@ -880,99 +970,99 @@
     <t>03-08-2023</t>
   </si>
   <si>
+    <t>04-09-2023</t>
+  </si>
+  <si>
+    <t>06-09-2023</t>
+  </si>
+  <si>
+    <t>07-09-2023</t>
+  </si>
+  <si>
+    <t>26-09-2022</t>
+  </si>
+  <si>
+    <t>29-09-2022</t>
+  </si>
+  <si>
+    <t>30-09-2022</t>
+  </si>
+  <si>
+    <t>27-09-2022</t>
+  </si>
+  <si>
+    <t>04-10-2022</t>
+  </si>
+  <si>
+    <t>27-10-2022</t>
+  </si>
+  <si>
+    <t>17-10-2022</t>
+  </si>
+  <si>
+    <t>08-12-2022</t>
+  </si>
+  <si>
+    <t>01-12-2022</t>
+  </si>
+  <si>
+    <t>27-02-2023</t>
+  </si>
+  <si>
+    <t>28-02-2023</t>
+  </si>
+  <si>
+    <t>27-03-2023</t>
+  </si>
+  <si>
+    <t>11-04-2023</t>
+  </si>
+  <si>
+    <t>13-04-2023</t>
+  </si>
+  <si>
+    <t>24-04-2023</t>
+  </si>
+  <si>
+    <t>02-05-2023</t>
+  </si>
+  <si>
+    <t>31-05-2023</t>
+  </si>
+  <si>
+    <t>09-06-2023</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>20-07-2022</t>
+  </si>
+  <si>
+    <t>15-08-2022</t>
+  </si>
+  <si>
+    <t>09-11-2022</t>
+  </si>
+  <si>
+    <t>08-11-2022</t>
+  </si>
+  <si>
+    <t>30-11-2022</t>
+  </si>
+  <si>
+    <t>13-12-2022</t>
+  </si>
+  <si>
+    <t>29-12-2022</t>
+  </si>
+  <si>
+    <t>31-01-2023</t>
+  </si>
+  <si>
     <t>31-08-2023</t>
   </si>
   <si>
-    <t>06-09-2023</t>
-  </si>
-  <si>
-    <t>07-09-2023</t>
-  </si>
-  <si>
-    <t>26-09-2022</t>
-  </si>
-  <si>
-    <t>29-09-2022</t>
-  </si>
-  <si>
-    <t>30-09-2022</t>
-  </si>
-  <si>
-    <t>27-09-2022</t>
-  </si>
-  <si>
-    <t>04-10-2022</t>
-  </si>
-  <si>
-    <t>27-10-2022</t>
-  </si>
-  <si>
-    <t>17-10-2022</t>
-  </si>
-  <si>
-    <t>08-12-2022</t>
-  </si>
-  <si>
-    <t>01-12-2022</t>
-  </si>
-  <si>
-    <t>27-02-2023</t>
-  </si>
-  <si>
-    <t>28-02-2023</t>
-  </si>
-  <si>
-    <t>27-03-2023</t>
-  </si>
-  <si>
-    <t>11-04-2023</t>
-  </si>
-  <si>
-    <t>13-04-2023</t>
-  </si>
-  <si>
-    <t>24-04-2023</t>
-  </si>
-  <si>
-    <t>02-05-2023</t>
-  </si>
-  <si>
-    <t>31-05-2023</t>
-  </si>
-  <si>
-    <t>09-06-2023</t>
-  </si>
-  <si>
-    <t>11-07-2022</t>
-  </si>
-  <si>
-    <t>20-07-2022</t>
-  </si>
-  <si>
-    <t>15-08-2022</t>
-  </si>
-  <si>
-    <t>09-11-2022</t>
-  </si>
-  <si>
-    <t>08-11-2022</t>
-  </si>
-  <si>
-    <t>30-11-2022</t>
-  </si>
-  <si>
-    <t>13-12-2022</t>
-  </si>
-  <si>
-    <t>29-12-2022</t>
-  </si>
-  <si>
-    <t>31-01-2023</t>
-  </si>
-  <si>
-    <t>30-08-2023</t>
-  </si>
-  <si>
     <t>02-08-2022</t>
   </si>
   <si>
@@ -1102,6 +1192,12 @@
     <t>06-02-2023</t>
   </si>
   <si>
+    <t>09-09-2023</t>
+  </si>
+  <si>
+    <t>14-09-2023</t>
+  </si>
+  <si>
     <t>21-07-2022</t>
   </si>
   <si>
@@ -1126,9 +1222,6 @@
     <t>21-08-2023</t>
   </si>
   <si>
-    <t>28-08-2023</t>
-  </si>
-  <si>
     <t>20-06-2023</t>
   </si>
   <si>
@@ -1261,18 +1354,9 @@
     <t>14-02-2023</t>
   </si>
   <si>
-    <t>29-08-2023</t>
-  </si>
-  <si>
-    <t>11-09-2023</t>
-  </si>
-  <si>
     <t>21-07-2023</t>
   </si>
   <si>
-    <t>04-09-2023</t>
-  </si>
-  <si>
     <t>02-02-2023</t>
   </si>
   <si>
@@ -1361,6 +1445,9 @@
   </si>
   <si>
     <t>23-02-2023</t>
+  </si>
+  <si>
+    <t>12-09-2023</t>
   </si>
 </sst>
 </file>
@@ -1718,7 +1805,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P168"/>
+  <dimension ref="A1:P189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1779,31 +1866,31 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E2" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G2" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="H2" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="I2" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="J2" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="K2" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1814,34 +1901,34 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="F3" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="G3" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="H3" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="I3" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="J3" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
       <c r="K3" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="L3" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1852,28 +1939,28 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E4" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F4" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="I4" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="J4" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1884,16 +1971,16 @@
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>292</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1904,28 +1991,28 @@
         <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E6" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="G6" t="s">
-        <v>347</v>
+        <v>377</v>
       </c>
       <c r="H6" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="I6" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="J6" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1936,37 +2023,37 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="G7" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="H7" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="I7" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="J7" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="K7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="L7" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="M7" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1977,31 +2064,31 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F8" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="H8" t="s">
-        <v>325</v>
+        <v>355</v>
       </c>
       <c r="I8" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="J8" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="K8" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2012,25 +2099,25 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E9" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="G9" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="H9" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="I9" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2041,25 +2128,25 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E10" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="F10" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="G10" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="H10" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="I10" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2070,31 +2157,31 @@
         <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E11" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="F11" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="G11" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="H11" t="s">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="J11" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="K11" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2105,34 +2192,34 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G12" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="H12" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="I12" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="J12" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="K12" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L12" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2143,37 +2230,37 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="F13" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="G13" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="H13" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="I13" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="J13" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="K13" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="L13" t="s">
-        <v>330</v>
+        <v>360</v>
       </c>
       <c r="M13" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2184,28 +2271,28 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F14" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="G14" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="H14" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="I14" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="J14" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2216,34 +2303,34 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="F15" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="G15" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H15" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="I15" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="J15" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="K15" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="L15" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2254,46 +2341,46 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="F16" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="G16" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="H16" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="I16" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
       <c r="J16" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="K16" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L16" t="s">
-        <v>434</v>
+        <v>462</v>
       </c>
       <c r="M16" t="s">
-        <v>419</v>
+        <v>447</v>
       </c>
       <c r="N16" t="s">
-        <v>435</v>
+        <v>463</v>
       </c>
       <c r="O16" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2301,31 +2388,31 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E17" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="G17" t="s">
-        <v>348</v>
+        <v>378</v>
       </c>
       <c r="H17" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="I17" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
       <c r="J17" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2333,31 +2420,31 @@
         <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E18" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="F18" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="G18" t="s">
-        <v>277</v>
+        <v>307</v>
       </c>
       <c r="H18" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="I18" t="s">
-        <v>337</v>
+        <v>367</v>
       </c>
       <c r="J18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2365,19 +2452,19 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E19" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="F19" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2385,31 +2472,31 @@
         <v>33</v>
       </c>
       <c r="C20" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E20" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="F20" t="s">
-        <v>303</v>
+        <v>333</v>
       </c>
       <c r="G20" t="s">
-        <v>349</v>
+        <v>379</v>
       </c>
       <c r="H20" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="I20" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="J20" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2417,19 +2504,19 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D21" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E21" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="F21" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2437,34 +2524,34 @@
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E22" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="F22" t="s">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="G22" t="s">
-        <v>350</v>
+        <v>380</v>
       </c>
       <c r="H22" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="I22" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="J22" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="K22" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2472,34 +2559,34 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="F23" t="s">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="G23" t="s">
-        <v>351</v>
+        <v>381</v>
       </c>
       <c r="H23" t="s">
-        <v>342</v>
+        <v>372</v>
       </c>
       <c r="I23" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="J23" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="K23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2507,43 +2594,49 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E24" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="F24" t="s">
-        <v>307</v>
+        <v>337</v>
       </c>
       <c r="G24" t="s">
-        <v>352</v>
+        <v>382</v>
       </c>
       <c r="H24" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="I24" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
       <c r="J24" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
       <c r="K24" t="s">
-        <v>425</v>
+        <v>453</v>
       </c>
       <c r="L24" t="s">
-        <v>424</v>
+        <v>452</v>
       </c>
       <c r="M24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>294</v>
+      </c>
+      <c r="O24" t="s">
+        <v>297</v>
+      </c>
+      <c r="P24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2551,46 +2644,46 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E25" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="F25" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="G25" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="H25" t="s">
-        <v>344</v>
+        <v>374</v>
       </c>
       <c r="I25" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="J25" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="K25" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="L25" t="s">
-        <v>345</v>
+        <v>375</v>
       </c>
       <c r="M25" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="N25" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="O25" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2598,43 +2691,43 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F26" t="s">
-        <v>308</v>
+        <v>338</v>
       </c>
       <c r="G26" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="H26" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
       <c r="I26" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="J26" t="s">
-        <v>421</v>
+        <v>449</v>
       </c>
       <c r="K26" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="L26" t="s">
-        <v>436</v>
+        <v>464</v>
       </c>
       <c r="M26" t="s">
-        <v>332</v>
+        <v>362</v>
       </c>
       <c r="N26" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2642,19 +2735,19 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D27" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="F27" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2662,25 +2755,25 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D28" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="F28" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
       <c r="G28" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="H28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2688,13 +2781,16 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15">
+        <v>212</v>
+      </c>
+      <c r="E29" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2702,16 +2798,16 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2719,31 +2815,16 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="E31" t="s">
-        <v>214</v>
-      </c>
-      <c r="F31" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" t="s">
-        <v>244</v>
-      </c>
-      <c r="H31" t="s">
-        <v>310</v>
-      </c>
-      <c r="I31" t="s">
-        <v>248</v>
-      </c>
-      <c r="J31" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2751,31 +2832,13 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E32" t="s">
-        <v>215</v>
-      </c>
-      <c r="F32" t="s">
-        <v>216</v>
-      </c>
-      <c r="G32" t="s">
-        <v>244</v>
-      </c>
-      <c r="I32" t="s">
-        <v>248</v>
-      </c>
-      <c r="K32" t="s">
-        <v>221</v>
-      </c>
-      <c r="M32" t="s">
-        <v>249</v>
-      </c>
-      <c r="O32" t="s">
-        <v>355</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2786,40 +2849,28 @@
         <v>46</v>
       </c>
       <c r="C33" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E33" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="F33" t="s">
-        <v>309</v>
+        <v>241</v>
       </c>
       <c r="G33" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>340</v>
       </c>
       <c r="I33" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="J33" t="s">
-        <v>249</v>
-      </c>
-      <c r="K33" t="s">
-        <v>323</v>
-      </c>
-      <c r="L33" t="s">
-        <v>355</v>
-      </c>
-      <c r="M33" t="s">
-        <v>364</v>
-      </c>
-      <c r="N33" t="s">
-        <v>356</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2830,13 +2881,31 @@
         <v>47</v>
       </c>
       <c r="C34" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E34" t="s">
-        <v>216</v>
+        <v>240</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>273</v>
+      </c>
+      <c r="I34" t="s">
+        <v>277</v>
+      </c>
+      <c r="K34" t="s">
+        <v>246</v>
+      </c>
+      <c r="M34" t="s">
+        <v>278</v>
+      </c>
+      <c r="O34" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2847,22 +2916,40 @@
         <v>48</v>
       </c>
       <c r="C35" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E35" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="F35" t="s">
-        <v>218</v>
+        <v>339</v>
       </c>
       <c r="G35" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="H35" t="s">
-        <v>320</v>
+        <v>277</v>
+      </c>
+      <c r="I35" t="s">
+        <v>248</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>353</v>
+      </c>
+      <c r="L35" t="s">
+        <v>385</v>
+      </c>
+      <c r="M35" t="s">
+        <v>396</v>
+      </c>
+      <c r="N35" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2873,25 +2960,13 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E36" t="s">
-        <v>217</v>
-      </c>
-      <c r="F36" t="s">
-        <v>219</v>
-      </c>
-      <c r="G36" t="s">
-        <v>246</v>
-      </c>
-      <c r="I36" t="s">
-        <v>385</v>
-      </c>
-      <c r="L36" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2902,40 +2977,22 @@
         <v>50</v>
       </c>
       <c r="C37" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E37" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="F37" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="G37" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="H37" t="s">
-        <v>248</v>
-      </c>
-      <c r="I37" t="s">
-        <v>319</v>
-      </c>
-      <c r="J37" t="s">
-        <v>221</v>
-      </c>
-      <c r="K37" t="s">
-        <v>223</v>
-      </c>
-      <c r="L37" t="s">
-        <v>249</v>
-      </c>
-      <c r="M37" t="s">
-        <v>323</v>
-      </c>
-      <c r="N37" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -2946,25 +3003,25 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E38" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F38" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
-      </c>
-      <c r="H38" t="s">
-        <v>321</v>
+        <v>275</v>
       </c>
       <c r="I38" t="s">
-        <v>222</v>
+        <v>416</v>
+      </c>
+      <c r="L38" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -2975,22 +3032,40 @@
         <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E39" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>247</v>
+        <v>340</v>
       </c>
       <c r="H39" t="s">
-        <v>321</v>
+        <v>277</v>
+      </c>
+      <c r="I39" t="s">
+        <v>349</v>
+      </c>
+      <c r="J39" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" t="s">
+        <v>248</v>
+      </c>
+      <c r="L39" t="s">
+        <v>278</v>
+      </c>
+      <c r="M39" t="s">
+        <v>353</v>
+      </c>
+      <c r="N39" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3001,31 +3076,25 @@
         <v>53</v>
       </c>
       <c r="C40" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E40" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="F40" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="H40" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="I40" t="s">
-        <v>220</v>
-      </c>
-      <c r="J40" t="s">
-        <v>311</v>
-      </c>
-      <c r="K40" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3036,19 +3105,22 @@
         <v>54</v>
       </c>
       <c r="C41" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E41" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="F41" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>276</v>
+      </c>
+      <c r="H41" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3059,37 +3131,31 @@
         <v>55</v>
       </c>
       <c r="C42" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E42" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>275</v>
       </c>
       <c r="G42" t="s">
-        <v>249</v>
+        <v>277</v>
       </c>
       <c r="H42" t="s">
-        <v>323</v>
+        <v>413</v>
       </c>
       <c r="I42" t="s">
-        <v>355</v>
+        <v>245</v>
       </c>
       <c r="J42" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="K42" t="s">
-        <v>195</v>
-      </c>
-      <c r="M42" t="s">
-        <v>196</v>
-      </c>
-      <c r="N42" t="s">
-        <v>198</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3100,16 +3166,19 @@
         <v>56</v>
       </c>
       <c r="C43" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E43" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="F43" t="s">
-        <v>223</v>
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3120,16 +3189,37 @@
         <v>57</v>
       </c>
       <c r="C44" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E44" t="s">
-        <v>222</v>
+        <v>246</v>
+      </c>
+      <c r="F44" t="s">
+        <v>248</v>
       </c>
       <c r="G44" t="s">
-        <v>249</v>
+        <v>278</v>
+      </c>
+      <c r="H44" t="s">
+        <v>353</v>
+      </c>
+      <c r="I44" t="s">
+        <v>385</v>
+      </c>
+      <c r="J44" t="s">
+        <v>396</v>
+      </c>
+      <c r="K44" t="s">
+        <v>217</v>
+      </c>
+      <c r="M44" t="s">
+        <v>218</v>
+      </c>
+      <c r="N44" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3140,19 +3230,16 @@
         <v>58</v>
       </c>
       <c r="C45" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E45" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
-      </c>
-      <c r="G45" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3163,40 +3250,16 @@
         <v>59</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E46" t="s">
-        <v>223</v>
-      </c>
-      <c r="F46" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G46" t="s">
-        <v>355</v>
-      </c>
-      <c r="H46" t="s">
-        <v>364</v>
-      </c>
-      <c r="I46" t="s">
-        <v>195</v>
-      </c>
-      <c r="J46" t="s">
-        <v>294</v>
-      </c>
-      <c r="K46" t="s">
-        <v>295</v>
-      </c>
-      <c r="L46" t="s">
-        <v>198</v>
-      </c>
-      <c r="M46" t="s">
-        <v>227</v>
-      </c>
-      <c r="O46" t="s">
-        <v>325</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3207,34 +3270,19 @@
         <v>60</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E47" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>278</v>
       </c>
       <c r="G47" t="s">
-        <v>356</v>
-      </c>
-      <c r="H47" t="s">
-        <v>196</v>
-      </c>
-      <c r="I47" t="s">
-        <v>254</v>
-      </c>
-      <c r="J47" t="s">
-        <v>324</v>
-      </c>
-      <c r="K47" t="s">
-        <v>312</v>
-      </c>
-      <c r="L47" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3245,19 +3293,40 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="F48" t="s">
-        <v>250</v>
+        <v>279</v>
+      </c>
+      <c r="G48" t="s">
+        <v>385</v>
       </c>
       <c r="H48" t="s">
-        <v>357</v>
+        <v>396</v>
+      </c>
+      <c r="I48" t="s">
+        <v>217</v>
+      </c>
+      <c r="J48" t="s">
+        <v>324</v>
+      </c>
+      <c r="K48" t="s">
+        <v>325</v>
+      </c>
+      <c r="L48" t="s">
+        <v>220</v>
+      </c>
+      <c r="M48" t="s">
+        <v>252</v>
+      </c>
+      <c r="O48" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3268,46 +3337,34 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E49" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="F49" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G49" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H49" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="I49" t="s">
-        <v>365</v>
+        <v>283</v>
       </c>
       <c r="J49" t="s">
-        <v>197</v>
+        <v>354</v>
       </c>
       <c r="K49" t="s">
-        <v>227</v>
+        <v>342</v>
       </c>
       <c r="L49" t="s">
-        <v>324</v>
-      </c>
-      <c r="M49" t="s">
-        <v>275</v>
-      </c>
-      <c r="N49" t="s">
-        <v>312</v>
-      </c>
-      <c r="O49" t="s">
-        <v>358</v>
-      </c>
-      <c r="P49" t="s">
-        <v>326</v>
+        <v>256</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3318,22 +3375,19 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E50" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>291</v>
-      </c>
-      <c r="G50" t="s">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="H50" t="s">
-        <v>227</v>
+        <v>387</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3344,40 +3398,46 @@
         <v>64</v>
       </c>
       <c r="C51" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E51" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="F51" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
       <c r="G51" t="s">
-        <v>295</v>
+        <v>387</v>
       </c>
       <c r="H51" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="I51" t="s">
-        <v>227</v>
+        <v>397</v>
       </c>
       <c r="J51" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="K51" t="s">
-        <v>325</v>
+        <v>252</v>
       </c>
       <c r="L51" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="M51" t="s">
-        <v>257</v>
+        <v>305</v>
       </c>
       <c r="N51" t="s">
-        <v>387</v>
+        <v>342</v>
+      </c>
+      <c r="O51" t="s">
+        <v>388</v>
+      </c>
+      <c r="P51" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3388,37 +3448,22 @@
         <v>65</v>
       </c>
       <c r="C52" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E52" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="F52" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="G52" t="s">
-        <v>196</v>
-      </c>
-      <c r="I52" t="s">
-        <v>255</v>
-      </c>
-      <c r="K52" t="s">
-        <v>275</v>
-      </c>
-      <c r="L52" t="s">
-        <v>312</v>
-      </c>
-      <c r="M52" t="s">
-        <v>326</v>
-      </c>
-      <c r="N52" t="s">
-        <v>387</v>
-      </c>
-      <c r="O52" t="s">
-        <v>430</v>
+        <v>219</v>
+      </c>
+      <c r="H52" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3429,28 +3474,40 @@
         <v>66</v>
       </c>
       <c r="C53" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E53" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="F53" t="s">
-        <v>227</v>
+        <v>324</v>
       </c>
       <c r="G53" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H53" t="s">
-        <v>275</v>
+        <v>220</v>
       </c>
       <c r="I53" t="s">
-        <v>312</v>
+        <v>252</v>
       </c>
       <c r="J53" t="s">
-        <v>358</v>
+        <v>285</v>
+      </c>
+      <c r="K53" t="s">
+        <v>355</v>
+      </c>
+      <c r="L53" t="s">
+        <v>343</v>
+      </c>
+      <c r="M53" t="s">
+        <v>286</v>
+      </c>
+      <c r="N53" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3461,46 +3518,37 @@
         <v>67</v>
       </c>
       <c r="C54" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E54" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F54" t="s">
-        <v>256</v>
+        <v>324</v>
       </c>
       <c r="G54" t="s">
-        <v>275</v>
-      </c>
-      <c r="H54" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="I54" t="s">
-        <v>257</v>
-      </c>
-      <c r="J54" t="s">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="K54" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="L54" t="s">
-        <v>412</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="N54" t="s">
-        <v>359</v>
+        <v>418</v>
       </c>
       <c r="O54" t="s">
-        <v>261</v>
-      </c>
-      <c r="P54" t="s">
-        <v>360</v>
+        <v>458</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3511,13 +3559,28 @@
         <v>68</v>
       </c>
       <c r="C55" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E55" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="F55" t="s">
+        <v>252</v>
+      </c>
+      <c r="G55" t="s">
+        <v>354</v>
+      </c>
+      <c r="H55" t="s">
+        <v>305</v>
+      </c>
+      <c r="I55" t="s">
+        <v>342</v>
+      </c>
+      <c r="J55" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3528,16 +3591,46 @@
         <v>69</v>
       </c>
       <c r="C56" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E56" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="F56" t="s">
-        <v>230</v>
+        <v>285</v>
+      </c>
+      <c r="G56" t="s">
+        <v>305</v>
+      </c>
+      <c r="H56" t="s">
+        <v>343</v>
+      </c>
+      <c r="I56" t="s">
+        <v>286</v>
+      </c>
+      <c r="J56" t="s">
+        <v>256</v>
+      </c>
+      <c r="K56" t="s">
+        <v>344</v>
+      </c>
+      <c r="L56" t="s">
+        <v>443</v>
+      </c>
+      <c r="M56" t="s">
+        <v>345</v>
+      </c>
+      <c r="N56" t="s">
+        <v>389</v>
+      </c>
+      <c r="O56" t="s">
+        <v>290</v>
+      </c>
+      <c r="P56" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3548,31 +3641,13 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
-      </c>
-      <c r="F57" t="s">
-        <v>312</v>
-      </c>
-      <c r="G57" t="s">
-        <v>358</v>
-      </c>
-      <c r="H57" t="s">
-        <v>232</v>
-      </c>
-      <c r="I57" t="s">
-        <v>387</v>
-      </c>
-      <c r="J57" t="s">
-        <v>412</v>
-      </c>
-      <c r="K57" t="s">
-        <v>315</v>
+        <v>253</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3583,43 +3658,16 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E58" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F58" t="s">
-        <v>313</v>
-      </c>
-      <c r="G58" t="s">
-        <v>231</v>
-      </c>
-      <c r="H58" t="s">
-        <v>202</v>
-      </c>
-      <c r="I58" t="s">
-        <v>233</v>
-      </c>
-      <c r="J58" t="s">
-        <v>259</v>
-      </c>
-      <c r="K58" t="s">
-        <v>260</v>
-      </c>
-      <c r="L58" t="s">
-        <v>360</v>
-      </c>
-      <c r="M58" t="s">
-        <v>384</v>
-      </c>
-      <c r="N58" t="s">
-        <v>366</v>
-      </c>
-      <c r="O58" t="s">
-        <v>368</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3630,46 +3678,31 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E59" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="F59" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="G59" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="H59" t="s">
-        <v>326</v>
+        <v>257</v>
       </c>
       <c r="I59" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="J59" t="s">
-        <v>258</v>
+        <v>443</v>
       </c>
       <c r="K59" t="s">
-        <v>315</v>
-      </c>
-      <c r="L59" t="s">
-        <v>359</v>
-      </c>
-      <c r="M59" t="s">
-        <v>384</v>
-      </c>
-      <c r="N59" t="s">
-        <v>237</v>
-      </c>
-      <c r="O59" t="s">
-        <v>331</v>
-      </c>
-      <c r="P59" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3680,19 +3713,43 @@
         <v>73</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E60" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F60" t="s">
-        <v>202</v>
+        <v>343</v>
       </c>
       <c r="G60" t="s">
-        <v>259</v>
+        <v>256</v>
+      </c>
+      <c r="H60" t="s">
+        <v>224</v>
+      </c>
+      <c r="I60" t="s">
+        <v>258</v>
+      </c>
+      <c r="J60" t="s">
+        <v>288</v>
+      </c>
+      <c r="K60" t="s">
+        <v>289</v>
+      </c>
+      <c r="L60" t="s">
+        <v>390</v>
+      </c>
+      <c r="M60" t="s">
+        <v>415</v>
+      </c>
+      <c r="N60" t="s">
+        <v>398</v>
+      </c>
+      <c r="O60" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3703,16 +3760,46 @@
         <v>74</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E61" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F61" t="s">
-        <v>314</v>
+        <v>343</v>
+      </c>
+      <c r="G61" t="s">
+        <v>388</v>
+      </c>
+      <c r="H61" t="s">
+        <v>356</v>
+      </c>
+      <c r="I61" t="s">
+        <v>418</v>
+      </c>
+      <c r="J61" t="s">
+        <v>287</v>
+      </c>
+      <c r="K61" t="s">
+        <v>345</v>
+      </c>
+      <c r="L61" t="s">
+        <v>389</v>
+      </c>
+      <c r="M61" t="s">
+        <v>415</v>
+      </c>
+      <c r="N61" t="s">
+        <v>262</v>
+      </c>
+      <c r="O61" t="s">
+        <v>361</v>
+      </c>
+      <c r="P61" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3723,16 +3810,19 @@
         <v>75</v>
       </c>
       <c r="C62" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E62" t="s">
-        <v>202</v>
+        <v>256</v>
       </c>
       <c r="F62" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="G62" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3743,46 +3833,16 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E63" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="F63" t="s">
-        <v>315</v>
-      </c>
-      <c r="G63" t="s">
-        <v>359</v>
-      </c>
-      <c r="H63" t="s">
-        <v>383</v>
-      </c>
-      <c r="I63" t="s">
-        <v>360</v>
-      </c>
-      <c r="J63" t="s">
-        <v>327</v>
-      </c>
-      <c r="K63" t="s">
-        <v>366</v>
-      </c>
-      <c r="L63" t="s">
-        <v>331</v>
-      </c>
-      <c r="M63" t="s">
-        <v>368</v>
-      </c>
-      <c r="N63" t="s">
-        <v>361</v>
-      </c>
-      <c r="O63" t="s">
-        <v>203</v>
-      </c>
-      <c r="P63" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3793,22 +3853,16 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E64" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F64" t="s">
-        <v>235</v>
-      </c>
-      <c r="G64" t="s">
-        <v>236</v>
-      </c>
-      <c r="H64" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3819,46 +3873,46 @@
         <v>78</v>
       </c>
       <c r="C65" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E65" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="F65" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="G65" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="H65" t="s">
-        <v>384</v>
+        <v>414</v>
       </c>
       <c r="I65" t="s">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="J65" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="K65" t="s">
-        <v>317</v>
+        <v>398</v>
       </c>
       <c r="L65" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="M65" t="s">
-        <v>441</v>
+        <v>400</v>
       </c>
       <c r="N65" t="s">
-        <v>204</v>
+        <v>391</v>
       </c>
       <c r="O65" t="s">
-        <v>432</v>
+        <v>225</v>
       </c>
       <c r="P65" t="s">
-        <v>335</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3869,22 +3923,22 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E66" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="F66" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G66" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
       <c r="H66" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3895,25 +3949,46 @@
         <v>80</v>
       </c>
       <c r="C67" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E67" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="F67" t="s">
-        <v>237</v>
+        <v>346</v>
       </c>
       <c r="G67" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="H67" t="s">
-        <v>368</v>
+        <v>415</v>
       </c>
       <c r="I67" t="s">
+        <v>262</v>
+      </c>
+      <c r="J67" t="s">
         <v>361</v>
+      </c>
+      <c r="K67" t="s">
+        <v>347</v>
+      </c>
+      <c r="L67" t="s">
+        <v>306</v>
+      </c>
+      <c r="M67" t="s">
+        <v>469</v>
+      </c>
+      <c r="N67" t="s">
+        <v>226</v>
+      </c>
+      <c r="O67" t="s">
+        <v>460</v>
+      </c>
+      <c r="P67" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -3924,34 +3999,22 @@
         <v>81</v>
       </c>
       <c r="C68" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E68" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
+        <v>292</v>
       </c>
       <c r="G68" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H68" t="s">
-        <v>203</v>
-      </c>
-      <c r="I68" t="s">
-        <v>408</v>
-      </c>
-      <c r="J68" t="s">
-        <v>300</v>
-      </c>
-      <c r="K68" t="s">
-        <v>348</v>
-      </c>
-      <c r="L68" t="s">
-        <v>205</v>
+        <v>347</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -3962,16 +4025,25 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E69" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="F69" t="s">
-        <v>273</v>
+        <v>262</v>
+      </c>
+      <c r="G69" t="s">
+        <v>359</v>
+      </c>
+      <c r="H69" t="s">
+        <v>400</v>
+      </c>
+      <c r="I69" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -3982,19 +4054,34 @@
         <v>83</v>
       </c>
       <c r="C70" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E70" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="F70" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="G70" t="s">
-        <v>289</v>
+        <v>391</v>
+      </c>
+      <c r="H70" t="s">
+        <v>225</v>
+      </c>
+      <c r="I70" t="s">
+        <v>439</v>
+      </c>
+      <c r="J70" t="s">
+        <v>330</v>
+      </c>
+      <c r="K70" t="s">
+        <v>378</v>
+      </c>
+      <c r="L70" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4005,13 +4092,16 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E71" t="s">
-        <v>238</v>
+        <v>263</v>
+      </c>
+      <c r="F71" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4022,19 +4112,19 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E72" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="F72" t="s">
-        <v>288</v>
+        <v>267</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4045,13 +4135,13 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E73" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4062,40 +4152,19 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E74" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F74" t="s">
-        <v>242</v>
+        <v>348</v>
       </c>
       <c r="G74" t="s">
-        <v>245</v>
-      </c>
-      <c r="H74" t="s">
-        <v>362</v>
-      </c>
-      <c r="I74" t="s">
-        <v>247</v>
-      </c>
-      <c r="J74" t="s">
-        <v>319</v>
-      </c>
-      <c r="K74" t="s">
-        <v>221</v>
-      </c>
-      <c r="L74" t="s">
-        <v>426</v>
-      </c>
-      <c r="M74" t="s">
-        <v>323</v>
-      </c>
-      <c r="N74" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4106,28 +4175,13 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E75" t="s">
-        <v>239</v>
-      </c>
-      <c r="F75" t="s">
-        <v>214</v>
-      </c>
-      <c r="G75" t="s">
-        <v>216</v>
-      </c>
-      <c r="H75" t="s">
-        <v>244</v>
-      </c>
-      <c r="I75" t="s">
-        <v>246</v>
-      </c>
-      <c r="J75" t="s">
-        <v>319</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4138,46 +4192,16 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D76" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E76" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="F76" t="s">
-        <v>214</v>
-      </c>
-      <c r="G76" t="s">
-        <v>216</v>
-      </c>
-      <c r="H76" t="s">
-        <v>244</v>
-      </c>
-      <c r="I76" t="s">
-        <v>246</v>
-      </c>
-      <c r="J76" t="s">
-        <v>248</v>
-      </c>
-      <c r="K76" t="s">
-        <v>319</v>
-      </c>
-      <c r="L76" t="s">
-        <v>221</v>
-      </c>
-      <c r="M76" t="s">
-        <v>223</v>
-      </c>
-      <c r="N76" t="s">
-        <v>249</v>
-      </c>
-      <c r="O76" t="s">
-        <v>323</v>
-      </c>
-      <c r="P76" t="s">
-        <v>355</v>
+        <v>320</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4188,46 +4212,19 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E77" t="s">
-        <v>214</v>
+        <v>264</v>
       </c>
       <c r="F77" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G77" t="s">
-        <v>244</v>
-      </c>
-      <c r="H77" t="s">
-        <v>246</v>
-      </c>
-      <c r="I77" t="s">
-        <v>320</v>
-      </c>
-      <c r="J77" t="s">
-        <v>321</v>
-      </c>
-      <c r="K77" t="s">
-        <v>222</v>
-      </c>
-      <c r="L77" t="s">
-        <v>311</v>
-      </c>
-      <c r="M77" t="s">
-        <v>225</v>
-      </c>
-      <c r="N77" t="s">
-        <v>250</v>
-      </c>
-      <c r="O77" t="s">
-        <v>252</v>
-      </c>
-      <c r="P77" t="s">
-        <v>192</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4238,34 +4235,16 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E78" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="F78" t="s">
-        <v>242</v>
-      </c>
-      <c r="G78" t="s">
-        <v>219</v>
-      </c>
-      <c r="H78" t="s">
-        <v>362</v>
-      </c>
-      <c r="I78" t="s">
-        <v>248</v>
-      </c>
-      <c r="J78" t="s">
-        <v>385</v>
-      </c>
-      <c r="K78" t="s">
-        <v>409</v>
-      </c>
-      <c r="L78" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4276,28 +4255,16 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E79" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="F79" t="s">
-        <v>243</v>
-      </c>
-      <c r="G79" t="s">
-        <v>245</v>
-      </c>
-      <c r="H79" t="s">
-        <v>247</v>
-      </c>
-      <c r="I79" t="s">
-        <v>319</v>
-      </c>
-      <c r="J79" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4308,22 +4275,16 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E80" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="F80" t="s">
-        <v>241</v>
-      </c>
-      <c r="G80" t="s">
-        <v>246</v>
-      </c>
-      <c r="H80" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4334,13 +4295,16 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E81" t="s">
-        <v>241</v>
+        <v>265</v>
+      </c>
+      <c r="F81" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4351,46 +4315,16 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E82" t="s">
-        <v>216</v>
+        <v>265</v>
       </c>
       <c r="F82" t="s">
-        <v>244</v>
-      </c>
-      <c r="G82" t="s">
-        <v>246</v>
-      </c>
-      <c r="H82" t="s">
-        <v>248</v>
-      </c>
-      <c r="I82" t="s">
-        <v>385</v>
-      </c>
-      <c r="J82" t="s">
-        <v>220</v>
-      </c>
-      <c r="K82" t="s">
-        <v>311</v>
-      </c>
-      <c r="L82" t="s">
-        <v>225</v>
-      </c>
-      <c r="M82" t="s">
-        <v>250</v>
-      </c>
-      <c r="N82" t="s">
-        <v>252</v>
-      </c>
-      <c r="O82" t="s">
-        <v>192</v>
-      </c>
-      <c r="P82" t="s">
-        <v>410</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4401,19 +4335,16 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E83" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="F83" t="s">
-        <v>246</v>
-      </c>
-      <c r="G83" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4424,40 +4355,16 @@
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E84" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="F84" t="s">
-        <v>219</v>
-      </c>
-      <c r="G84" t="s">
-        <v>246</v>
-      </c>
-      <c r="H84" t="s">
-        <v>320</v>
-      </c>
-      <c r="I84" t="s">
-        <v>321</v>
-      </c>
-      <c r="J84" t="s">
-        <v>221</v>
-      </c>
-      <c r="K84" t="s">
-        <v>223</v>
-      </c>
-      <c r="L84" t="s">
-        <v>426</v>
-      </c>
-      <c r="M84" t="s">
-        <v>363</v>
-      </c>
-      <c r="N84" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4468,37 +4375,16 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>266</v>
       </c>
       <c r="F85" t="s">
-        <v>246</v>
-      </c>
-      <c r="G85" t="s">
-        <v>248</v>
-      </c>
-      <c r="H85" t="s">
-        <v>385</v>
-      </c>
-      <c r="I85" t="s">
-        <v>409</v>
-      </c>
-      <c r="J85" t="s">
-        <v>322</v>
-      </c>
-      <c r="K85" t="s">
-        <v>426</v>
-      </c>
-      <c r="L85" t="s">
-        <v>363</v>
-      </c>
-      <c r="M85" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4509,19 +4395,13 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E86" t="s">
-        <v>243</v>
-      </c>
-      <c r="F86" t="s">
-        <v>245</v>
-      </c>
-      <c r="G86" t="s">
-        <v>362</v>
+        <v>266</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4532,46 +4412,13 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E87" t="s">
-        <v>243</v>
-      </c>
-      <c r="F87" t="s">
-        <v>245</v>
-      </c>
-      <c r="G87" t="s">
-        <v>246</v>
-      </c>
-      <c r="H87" t="s">
-        <v>320</v>
-      </c>
-      <c r="I87" t="s">
-        <v>385</v>
-      </c>
-      <c r="J87" t="s">
-        <v>222</v>
-      </c>
-      <c r="K87" t="s">
-        <v>427</v>
-      </c>
-      <c r="L87" t="s">
-        <v>428</v>
-      </c>
-      <c r="M87" t="s">
-        <v>251</v>
-      </c>
-      <c r="N87" t="s">
-        <v>191</v>
-      </c>
-      <c r="O87" t="s">
-        <v>447</v>
-      </c>
-      <c r="P87" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4582,46 +4429,16 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E88" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="F88" t="s">
-        <v>246</v>
-      </c>
-      <c r="G88" t="s">
-        <v>248</v>
-      </c>
-      <c r="H88" t="s">
-        <v>319</v>
-      </c>
-      <c r="I88" t="s">
-        <v>409</v>
-      </c>
-      <c r="J88" t="s">
-        <v>223</v>
-      </c>
-      <c r="K88" t="s">
-        <v>428</v>
-      </c>
-      <c r="L88" t="s">
-        <v>251</v>
-      </c>
-      <c r="M88" t="s">
-        <v>191</v>
-      </c>
-      <c r="N88" t="s">
-        <v>364</v>
-      </c>
-      <c r="O88" t="s">
-        <v>447</v>
-      </c>
-      <c r="P88" t="s">
-        <v>293</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4632,13 +4449,16 @@
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E89" t="s">
-        <v>219</v>
+        <v>267</v>
+      </c>
+      <c r="F89" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4649,46 +4469,19 @@
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E90" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="F90" t="s">
-        <v>246</v>
+        <v>319</v>
       </c>
       <c r="G90" t="s">
-        <v>248</v>
-      </c>
-      <c r="H90" t="s">
-        <v>321</v>
-      </c>
-      <c r="I90" t="s">
-        <v>221</v>
-      </c>
-      <c r="J90" t="s">
-        <v>223</v>
-      </c>
-      <c r="K90" t="s">
-        <v>426</v>
-      </c>
-      <c r="L90" t="s">
-        <v>323</v>
-      </c>
-      <c r="M90" t="s">
-        <v>355</v>
-      </c>
-      <c r="N90" t="s">
-        <v>195</v>
-      </c>
-      <c r="O90" t="s">
-        <v>294</v>
-      </c>
-      <c r="P90" t="s">
-        <v>196</v>
+        <v>393</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4699,19 +4492,13 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E91" t="s">
-        <v>245</v>
-      </c>
-      <c r="F91" t="s">
-        <v>246</v>
-      </c>
-      <c r="G91" t="s">
-        <v>320</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4722,13 +4509,13 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E92" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4739,28 +4526,13 @@
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s">
-        <v>246</v>
-      </c>
-      <c r="F93" t="s">
-        <v>319</v>
-      </c>
-      <c r="G93" t="s">
-        <v>322</v>
-      </c>
-      <c r="H93" t="s">
-        <v>364</v>
-      </c>
-      <c r="I93" t="s">
-        <v>410</v>
-      </c>
-      <c r="J93" t="s">
-        <v>292</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4771,25 +4543,40 @@
         <v>107</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E94" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" t="s">
+        <v>271</v>
+      </c>
+      <c r="G94" t="s">
+        <v>274</v>
+      </c>
+      <c r="H94" t="s">
+        <v>394</v>
+      </c>
+      <c r="I94" t="s">
+        <v>276</v>
+      </c>
+      <c r="J94" t="s">
+        <v>349</v>
+      </c>
+      <c r="K94" t="s">
         <v>246</v>
       </c>
-      <c r="F94" t="s">
-        <v>320</v>
-      </c>
-      <c r="G94" t="s">
-        <v>321</v>
-      </c>
-      <c r="H94" t="s">
-        <v>221</v>
-      </c>
-      <c r="I94" t="s">
-        <v>223</v>
+      <c r="L94" t="s">
+        <v>454</v>
+      </c>
+      <c r="M94" t="s">
+        <v>353</v>
+      </c>
+      <c r="N94" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4800,19 +4587,28 @@
         <v>108</v>
       </c>
       <c r="C95" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E95" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="F95" t="s">
-        <v>321</v>
+        <v>239</v>
       </c>
       <c r="G95" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+      <c r="H95" t="s">
+        <v>273</v>
+      </c>
+      <c r="I95" t="s">
+        <v>275</v>
+      </c>
+      <c r="J95" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4823,19 +4619,46 @@
         <v>109</v>
       </c>
       <c r="C96" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E96" t="s">
+        <v>268</v>
+      </c>
+      <c r="F96" t="s">
+        <v>239</v>
+      </c>
+      <c r="G96" t="s">
+        <v>241</v>
+      </c>
+      <c r="H96" t="s">
+        <v>273</v>
+      </c>
+      <c r="I96" t="s">
+        <v>275</v>
+      </c>
+      <c r="J96" t="s">
+        <v>277</v>
+      </c>
+      <c r="K96" t="s">
+        <v>349</v>
+      </c>
+      <c r="L96" t="s">
+        <v>246</v>
+      </c>
+      <c r="M96" t="s">
         <v>248</v>
       </c>
-      <c r="F96" t="s">
-        <v>319</v>
-      </c>
-      <c r="G96" t="s">
-        <v>223</v>
+      <c r="N96" t="s">
+        <v>278</v>
+      </c>
+      <c r="O96" t="s">
+        <v>353</v>
+      </c>
+      <c r="P96" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4846,22 +4669,46 @@
         <v>110</v>
       </c>
       <c r="C97" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E97" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F97" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="G97" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="H97" t="s">
-        <v>251</v>
+        <v>275</v>
+      </c>
+      <c r="I97" t="s">
+        <v>350</v>
+      </c>
+      <c r="J97" t="s">
+        <v>351</v>
+      </c>
+      <c r="K97" t="s">
+        <v>247</v>
+      </c>
+      <c r="L97" t="s">
+        <v>341</v>
+      </c>
+      <c r="M97" t="s">
+        <v>250</v>
+      </c>
+      <c r="N97" t="s">
+        <v>279</v>
+      </c>
+      <c r="O97" t="s">
+        <v>281</v>
+      </c>
+      <c r="P97" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -4872,22 +4719,34 @@
         <v>111</v>
       </c>
       <c r="C98" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E98" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="F98" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="G98" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="H98" t="s">
-        <v>323</v>
+        <v>394</v>
+      </c>
+      <c r="I98" t="s">
+        <v>277</v>
+      </c>
+      <c r="J98" t="s">
+        <v>416</v>
+      </c>
+      <c r="K98" t="s">
+        <v>440</v>
+      </c>
+      <c r="L98" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4898,25 +4757,28 @@
         <v>112</v>
       </c>
       <c r="C99" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E99" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="F99" t="s">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="G99" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
       <c r="H99" t="s">
-        <v>253</v>
+        <v>276</v>
       </c>
       <c r="I99" t="s">
-        <v>294</v>
+        <v>349</v>
+      </c>
+      <c r="J99" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4927,16 +4789,22 @@
         <v>113</v>
       </c>
       <c r="C100" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="F100" t="s">
-        <v>249</v>
+        <v>270</v>
+      </c>
+      <c r="G100" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4947,43 +4815,13 @@
         <v>114</v>
       </c>
       <c r="C101" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E101" t="s">
-        <v>223</v>
-      </c>
-      <c r="F101" t="s">
-        <v>249</v>
-      </c>
-      <c r="G101" t="s">
-        <v>363</v>
-      </c>
-      <c r="H101" t="s">
-        <v>252</v>
-      </c>
-      <c r="I101" t="s">
-        <v>364</v>
-      </c>
-      <c r="J101" t="s">
-        <v>195</v>
-      </c>
-      <c r="K101" t="s">
-        <v>294</v>
-      </c>
-      <c r="L101" t="s">
-        <v>437</v>
-      </c>
-      <c r="M101" t="s">
-        <v>198</v>
-      </c>
-      <c r="N101" t="s">
-        <v>256</v>
-      </c>
-      <c r="O101" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -4994,46 +4832,46 @@
         <v>115</v>
       </c>
       <c r="C102" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E102" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F102" t="s">
-        <v>323</v>
+        <v>273</v>
       </c>
       <c r="G102" t="s">
-        <v>355</v>
+        <v>275</v>
       </c>
       <c r="H102" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="I102" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="J102" t="s">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="K102" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="L102" t="s">
-        <v>386</v>
+        <v>250</v>
       </c>
       <c r="M102" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="N102" t="s">
-        <v>229</v>
+        <v>281</v>
       </c>
       <c r="O102" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="P102" t="s">
-        <v>274</v>
+        <v>441</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -5044,25 +4882,19 @@
         <v>116</v>
       </c>
       <c r="C103" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E103" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="F103" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="G103" t="s">
-        <v>364</v>
-      </c>
-      <c r="H103" t="s">
-        <v>356</v>
-      </c>
-      <c r="I103" t="s">
-        <v>297</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -5073,25 +4905,40 @@
         <v>117</v>
       </c>
       <c r="C104" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D104" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E104" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="F104" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="G104" t="s">
-        <v>365</v>
+        <v>275</v>
       </c>
       <c r="H104" t="s">
-        <v>386</v>
+        <v>350</v>
       </c>
       <c r="I104" t="s">
-        <v>324</v>
+        <v>351</v>
+      </c>
+      <c r="J104" t="s">
+        <v>246</v>
+      </c>
+      <c r="K104" t="s">
+        <v>248</v>
+      </c>
+      <c r="L104" t="s">
+        <v>454</v>
+      </c>
+      <c r="M104" t="s">
+        <v>395</v>
+      </c>
+      <c r="N104" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -5102,19 +4949,37 @@
         <v>118</v>
       </c>
       <c r="C105" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E105" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F105" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="G105" t="s">
-        <v>364</v>
+        <v>277</v>
+      </c>
+      <c r="H105" t="s">
+        <v>416</v>
+      </c>
+      <c r="I105" t="s">
+        <v>440</v>
+      </c>
+      <c r="J105" t="s">
+        <v>352</v>
+      </c>
+      <c r="K105" t="s">
+        <v>454</v>
+      </c>
+      <c r="L105" t="s">
+        <v>395</v>
+      </c>
+      <c r="M105" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -5125,46 +4990,19 @@
         <v>119</v>
       </c>
       <c r="C106" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E106" t="s">
-        <v>251</v>
+        <v>272</v>
       </c>
       <c r="F106" t="s">
-        <v>191</v>
+        <v>274</v>
       </c>
       <c r="G106" t="s">
-        <v>192</v>
-      </c>
-      <c r="H106" t="s">
-        <v>356</v>
-      </c>
-      <c r="I106" t="s">
-        <v>291</v>
-      </c>
-      <c r="J106" t="s">
-        <v>422</v>
-      </c>
-      <c r="K106" t="s">
-        <v>197</v>
-      </c>
-      <c r="L106" t="s">
-        <v>297</v>
-      </c>
-      <c r="M106" t="s">
-        <v>229</v>
-      </c>
-      <c r="N106" t="s">
-        <v>230</v>
-      </c>
-      <c r="O106" t="s">
-        <v>402</v>
-      </c>
-      <c r="P106" t="s">
-        <v>200</v>
+        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5175,25 +5013,46 @@
         <v>120</v>
       </c>
       <c r="C107" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E107" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="F107" t="s">
-        <v>192</v>
+        <v>274</v>
       </c>
       <c r="G107" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="H107" t="s">
-        <v>254</v>
+        <v>350</v>
       </c>
       <c r="I107" t="s">
-        <v>228</v>
+        <v>416</v>
+      </c>
+      <c r="J107" t="s">
+        <v>247</v>
+      </c>
+      <c r="K107" t="s">
+        <v>455</v>
+      </c>
+      <c r="L107" t="s">
+        <v>456</v>
+      </c>
+      <c r="M107" t="s">
+        <v>280</v>
+      </c>
+      <c r="N107" t="s">
+        <v>213</v>
+      </c>
+      <c r="O107" t="s">
+        <v>475</v>
+      </c>
+      <c r="P107" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5204,13 +5063,46 @@
         <v>121</v>
       </c>
       <c r="C108" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E108" t="s">
-        <v>253</v>
+        <v>273</v>
+      </c>
+      <c r="F108" t="s">
+        <v>275</v>
+      </c>
+      <c r="G108" t="s">
+        <v>277</v>
+      </c>
+      <c r="H108" t="s">
+        <v>349</v>
+      </c>
+      <c r="I108" t="s">
+        <v>440</v>
+      </c>
+      <c r="J108" t="s">
+        <v>248</v>
+      </c>
+      <c r="K108" t="s">
+        <v>456</v>
+      </c>
+      <c r="L108" t="s">
+        <v>280</v>
+      </c>
+      <c r="M108" t="s">
+        <v>213</v>
+      </c>
+      <c r="N108" t="s">
+        <v>396</v>
+      </c>
+      <c r="O108" t="s">
+        <v>475</v>
+      </c>
+      <c r="P108" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5221,34 +5113,13 @@
         <v>122</v>
       </c>
       <c r="C109" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E109" t="s">
-        <v>254</v>
-      </c>
-      <c r="F109" t="s">
-        <v>297</v>
-      </c>
-      <c r="G109" t="s">
-        <v>229</v>
-      </c>
-      <c r="H109" t="s">
-        <v>230</v>
-      </c>
-      <c r="I109" t="s">
-        <v>411</v>
-      </c>
-      <c r="J109" t="s">
-        <v>200</v>
-      </c>
-      <c r="K109" t="s">
-        <v>326</v>
-      </c>
-      <c r="L109" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5259,34 +5130,46 @@
         <v>123</v>
       </c>
       <c r="C110" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E110" t="s">
-        <v>255</v>
+        <v>274</v>
       </c>
       <c r="F110" t="s">
+        <v>275</v>
+      </c>
+      <c r="G110" t="s">
+        <v>277</v>
+      </c>
+      <c r="H110" t="s">
+        <v>351</v>
+      </c>
+      <c r="I110" t="s">
+        <v>246</v>
+      </c>
+      <c r="J110" t="s">
+        <v>248</v>
+      </c>
+      <c r="K110" t="s">
+        <v>454</v>
+      </c>
+      <c r="L110" t="s">
+        <v>353</v>
+      </c>
+      <c r="M110" t="s">
+        <v>385</v>
+      </c>
+      <c r="N110" t="s">
+        <v>217</v>
+      </c>
+      <c r="O110" t="s">
         <v>324</v>
       </c>
-      <c r="G110" t="s">
-        <v>275</v>
-      </c>
-      <c r="H110" t="s">
-        <v>312</v>
-      </c>
-      <c r="I110" t="s">
-        <v>202</v>
-      </c>
-      <c r="J110" t="s">
-        <v>412</v>
-      </c>
-      <c r="K110" t="s">
-        <v>429</v>
-      </c>
-      <c r="L110" t="s">
-        <v>260</v>
+      <c r="P110" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5297,37 +5180,19 @@
         <v>124</v>
       </c>
       <c r="C111" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E111" t="s">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="F111" t="s">
-        <v>325</v>
+        <v>275</v>
       </c>
       <c r="G111" t="s">
-        <v>313</v>
-      </c>
-      <c r="H111" t="s">
-        <v>202</v>
-      </c>
-      <c r="I111" t="s">
-        <v>412</v>
-      </c>
-      <c r="J111" t="s">
-        <v>259</v>
-      </c>
-      <c r="K111" t="s">
-        <v>430</v>
-      </c>
-      <c r="L111" t="s">
-        <v>380</v>
-      </c>
-      <c r="M111" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5338,31 +5203,13 @@
         <v>125</v>
       </c>
       <c r="C112" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E112" t="s">
-        <v>199</v>
-      </c>
-      <c r="F112" t="s">
-        <v>201</v>
-      </c>
-      <c r="G112" t="s">
-        <v>326</v>
-      </c>
-      <c r="H112" t="s">
-        <v>387</v>
-      </c>
-      <c r="I112" t="s">
-        <v>233</v>
-      </c>
-      <c r="J112" t="s">
-        <v>259</v>
-      </c>
-      <c r="K112" t="s">
-        <v>383</v>
+        <v>275</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -5373,22 +5220,28 @@
         <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="D113" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E113" t="s">
-        <v>199</v>
+        <v>275</v>
       </c>
       <c r="F113" t="s">
-        <v>201</v>
+        <v>349</v>
       </c>
       <c r="G113" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="H113" t="s">
-        <v>388</v>
+        <v>396</v>
+      </c>
+      <c r="I113" t="s">
+        <v>441</v>
+      </c>
+      <c r="J113" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -5399,46 +5252,25 @@
         <v>127</v>
       </c>
       <c r="C114" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E114" t="s">
-        <v>257</v>
+        <v>275</v>
       </c>
       <c r="F114" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="G114" t="s">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="H114" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="I114" t="s">
-        <v>259</v>
-      </c>
-      <c r="J114" t="s">
-        <v>260</v>
-      </c>
-      <c r="K114" t="s">
-        <v>261</v>
-      </c>
-      <c r="L114" t="s">
-        <v>360</v>
-      </c>
-      <c r="M114" t="s">
-        <v>384</v>
-      </c>
-      <c r="N114" t="s">
-        <v>237</v>
-      </c>
-      <c r="O114" t="s">
-        <v>329</v>
-      </c>
-      <c r="P114" t="s">
-        <v>317</v>
+        <v>248</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5449,13 +5281,19 @@
         <v>128</v>
       </c>
       <c r="C115" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D115" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
+        <v>276</v>
+      </c>
+      <c r="F115" t="s">
+        <v>351</v>
+      </c>
+      <c r="G115" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5466,46 +5304,19 @@
         <v>129</v>
       </c>
       <c r="C116" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D116" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E116" t="s">
-        <v>233</v>
+        <v>277</v>
       </c>
       <c r="F116" t="s">
-        <v>259</v>
+        <v>349</v>
       </c>
       <c r="G116" t="s">
-        <v>260</v>
-      </c>
-      <c r="H116" t="s">
-        <v>316</v>
-      </c>
-      <c r="I116" t="s">
-        <v>360</v>
-      </c>
-      <c r="J116" t="s">
-        <v>384</v>
-      </c>
-      <c r="K116" t="s">
-        <v>237</v>
-      </c>
-      <c r="L116" t="s">
-        <v>329</v>
-      </c>
-      <c r="M116" t="s">
-        <v>317</v>
-      </c>
-      <c r="N116" t="s">
-        <v>276</v>
-      </c>
-      <c r="O116" t="s">
-        <v>441</v>
-      </c>
-      <c r="P116" t="s">
-        <v>448</v>
+        <v>248</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5516,46 +5327,22 @@
         <v>130</v>
       </c>
       <c r="C117" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D117" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E117" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="F117" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="G117" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H117" t="s">
-        <v>261</v>
-      </c>
-      <c r="I117" t="s">
-        <v>360</v>
-      </c>
-      <c r="J117" t="s">
-        <v>384</v>
-      </c>
-      <c r="K117" t="s">
-        <v>237</v>
-      </c>
-      <c r="L117" t="s">
-        <v>331</v>
-      </c>
-      <c r="M117" t="s">
-        <v>368</v>
-      </c>
-      <c r="N117" t="s">
-        <v>391</v>
-      </c>
-      <c r="O117" t="s">
-        <v>203</v>
-      </c>
-      <c r="P117" t="s">
-        <v>408</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5566,43 +5353,22 @@
         <v>131</v>
       </c>
       <c r="C118" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E118" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="F118" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G118" t="s">
-        <v>328</v>
+        <v>250</v>
       </c>
       <c r="H118" t="s">
-        <v>327</v>
-      </c>
-      <c r="I118" t="s">
-        <v>366</v>
-      </c>
-      <c r="J118" t="s">
-        <v>330</v>
-      </c>
-      <c r="K118" t="s">
-        <v>368</v>
-      </c>
-      <c r="L118" t="s">
-        <v>361</v>
-      </c>
-      <c r="M118" t="s">
-        <v>431</v>
-      </c>
-      <c r="N118" t="s">
-        <v>408</v>
-      </c>
-      <c r="O118" t="s">
-        <v>300</v>
+        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -5613,28 +5379,25 @@
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D119" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E119" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="F119" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="G119" t="s">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="H119" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="I119" t="s">
-        <v>366</v>
-      </c>
-      <c r="J119" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -5645,31 +5408,16 @@
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="D120" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E120" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="F120" t="s">
-        <v>327</v>
-      </c>
-      <c r="G120" t="s">
-        <v>366</v>
-      </c>
-      <c r="H120" t="s">
-        <v>330</v>
-      </c>
-      <c r="I120" t="s">
-        <v>368</v>
-      </c>
-      <c r="J120" t="s">
-        <v>414</v>
-      </c>
-      <c r="K120" t="s">
-        <v>348</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5680,34 +5428,43 @@
         <v>134</v>
       </c>
       <c r="C121" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E121" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F121" t="s">
-        <v>328</v>
+        <v>278</v>
       </c>
       <c r="G121" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="H121" t="s">
-        <v>389</v>
+        <v>281</v>
       </c>
       <c r="I121" t="s">
-        <v>413</v>
+        <v>396</v>
       </c>
       <c r="J121" t="s">
-        <v>390</v>
+        <v>217</v>
       </c>
       <c r="K121" t="s">
-        <v>431</v>
+        <v>324</v>
       </c>
       <c r="L121" t="s">
-        <v>438</v>
+        <v>465</v>
+      </c>
+      <c r="M121" t="s">
+        <v>220</v>
+      </c>
+      <c r="N121" t="s">
+        <v>285</v>
+      </c>
+      <c r="O121" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -5718,19 +5475,46 @@
         <v>135</v>
       </c>
       <c r="C122" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D122" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E122" t="s">
-        <v>263</v>
+        <v>278</v>
       </c>
       <c r="F122" t="s">
-        <v>329</v>
+        <v>353</v>
       </c>
       <c r="G122" t="s">
-        <v>367</v>
+        <v>385</v>
+      </c>
+      <c r="H122" t="s">
+        <v>214</v>
+      </c>
+      <c r="I122" t="s">
+        <v>386</v>
+      </c>
+      <c r="J122" t="s">
+        <v>321</v>
+      </c>
+      <c r="K122" t="s">
+        <v>450</v>
+      </c>
+      <c r="L122" t="s">
+        <v>417</v>
+      </c>
+      <c r="M122" t="s">
+        <v>327</v>
+      </c>
+      <c r="N122" t="s">
+        <v>254</v>
+      </c>
+      <c r="O122" t="s">
+        <v>255</v>
+      </c>
+      <c r="P122" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5741,43 +5525,25 @@
         <v>136</v>
       </c>
       <c r="C123" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="D123" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E123" t="s">
-        <v>263</v>
+        <v>279</v>
       </c>
       <c r="F123" t="s">
-        <v>330</v>
+        <v>281</v>
       </c>
       <c r="G123" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="H123" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="I123" t="s">
-        <v>203</v>
-      </c>
-      <c r="J123" t="s">
-        <v>408</v>
-      </c>
-      <c r="K123" t="s">
-        <v>432</v>
-      </c>
-      <c r="L123" t="s">
-        <v>348</v>
-      </c>
-      <c r="M123" t="s">
-        <v>205</v>
-      </c>
-      <c r="N123" t="s">
-        <v>278</v>
-      </c>
-      <c r="O123" t="s">
-        <v>206</v>
+        <v>327</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -5788,25 +5554,25 @@
         <v>137</v>
       </c>
       <c r="C124" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="D124" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E124" t="s">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F124" t="s">
-        <v>331</v>
+        <v>281</v>
       </c>
       <c r="G124" t="s">
-        <v>317</v>
+        <v>397</v>
       </c>
       <c r="H124" t="s">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="I124" t="s">
-        <v>414</v>
+        <v>354</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -5817,25 +5583,19 @@
         <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E125" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F125" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="G125" t="s">
-        <v>271</v>
-      </c>
-      <c r="H125" t="s">
-        <v>392</v>
-      </c>
-      <c r="I125" t="s">
-        <v>369</v>
+        <v>396</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5846,19 +5606,46 @@
         <v>139</v>
       </c>
       <c r="C126" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D126" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E126" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="F126" t="s">
-        <v>268</v>
+        <v>213</v>
       </c>
       <c r="G126" t="s">
-        <v>271</v>
+        <v>214</v>
+      </c>
+      <c r="H126" t="s">
+        <v>386</v>
+      </c>
+      <c r="I126" t="s">
+        <v>321</v>
+      </c>
+      <c r="J126" t="s">
+        <v>450</v>
+      </c>
+      <c r="K126" t="s">
+        <v>219</v>
+      </c>
+      <c r="L126" t="s">
+        <v>327</v>
+      </c>
+      <c r="M126" t="s">
+        <v>254</v>
+      </c>
+      <c r="N126" t="s">
+        <v>255</v>
+      </c>
+      <c r="O126" t="s">
+        <v>433</v>
+      </c>
+      <c r="P126" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -5869,25 +5656,25 @@
         <v>140</v>
       </c>
       <c r="C127" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E127" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="F127" t="s">
-        <v>269</v>
+        <v>214</v>
       </c>
       <c r="G127" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="H127" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
       <c r="I127" t="s">
-        <v>369</v>
+        <v>253</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -5898,28 +5685,16 @@
         <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D128" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E128" t="s">
-        <v>266</v>
-      </c>
-      <c r="F128" t="s">
-        <v>269</v>
-      </c>
-      <c r="G128" t="s">
-        <v>333</v>
-      </c>
-      <c r="H128" t="s">
-        <v>270</v>
-      </c>
-      <c r="I128" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="129" spans="1:12">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -5927,28 +5702,37 @@
         <v>142</v>
       </c>
       <c r="C129" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="D129" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E129" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="F129" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="G129" t="s">
-        <v>333</v>
+        <v>254</v>
       </c>
       <c r="H129" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="I129" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="130" spans="1:12">
+        <v>442</v>
+      </c>
+      <c r="J129" t="s">
+        <v>222</v>
+      </c>
+      <c r="K129" t="s">
+        <v>356</v>
+      </c>
+      <c r="L129" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -5956,37 +5740,37 @@
         <v>143</v>
       </c>
       <c r="C130" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="D130" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E130" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="F130" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="G130" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="H130" t="s">
-        <v>392</v>
+        <v>342</v>
       </c>
       <c r="I130" t="s">
-        <v>369</v>
+        <v>224</v>
       </c>
       <c r="J130" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
       <c r="K130" t="s">
-        <v>273</v>
+        <v>457</v>
       </c>
       <c r="L130" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -5994,31 +5778,40 @@
         <v>144</v>
       </c>
       <c r="C131" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D131" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E131" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="F131" t="s">
-        <v>332</v>
+        <v>355</v>
       </c>
       <c r="G131" t="s">
-        <v>369</v>
+        <v>343</v>
       </c>
       <c r="H131" t="s">
-        <v>370</v>
+        <v>224</v>
       </c>
       <c r="I131" t="s">
-        <v>273</v>
+        <v>443</v>
       </c>
       <c r="J131" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12">
+        <v>288</v>
+      </c>
+      <c r="K131" t="s">
+        <v>458</v>
+      </c>
+      <c r="L131" t="s">
+        <v>411</v>
+      </c>
+      <c r="M131" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6026,16 +5819,34 @@
         <v>145</v>
       </c>
       <c r="C132" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D132" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E132" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12">
+        <v>221</v>
+      </c>
+      <c r="F132" t="s">
+        <v>223</v>
+      </c>
+      <c r="G132" t="s">
+        <v>356</v>
+      </c>
+      <c r="H132" t="s">
+        <v>418</v>
+      </c>
+      <c r="I132" t="s">
+        <v>258</v>
+      </c>
+      <c r="J132" t="s">
+        <v>288</v>
+      </c>
+      <c r="K132" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -6043,31 +5854,25 @@
         <v>146</v>
       </c>
       <c r="C133" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D133" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E133" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="F133" t="s">
-        <v>333</v>
+        <v>223</v>
       </c>
       <c r="G133" t="s">
-        <v>270</v>
+        <v>356</v>
       </c>
       <c r="H133" t="s">
-        <v>334</v>
-      </c>
-      <c r="I133" t="s">
-        <v>415</v>
-      </c>
-      <c r="J133" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6075,25 +5880,49 @@
         <v>147</v>
       </c>
       <c r="C134" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D134" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E134" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="F134" t="s">
-        <v>334</v>
+        <v>356</v>
       </c>
       <c r="G134" t="s">
+        <v>224</v>
+      </c>
+      <c r="H134" t="s">
+        <v>258</v>
+      </c>
+      <c r="I134" t="s">
         <v>288</v>
       </c>
-      <c r="H134" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="J134" t="s">
+        <v>289</v>
+      </c>
+      <c r="K134" t="s">
+        <v>290</v>
+      </c>
+      <c r="L134" t="s">
+        <v>390</v>
+      </c>
+      <c r="M134" t="s">
+        <v>415</v>
+      </c>
+      <c r="N134" t="s">
+        <v>262</v>
+      </c>
+      <c r="O134" t="s">
+        <v>359</v>
+      </c>
+      <c r="P134" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6101,28 +5930,16 @@
         <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D135" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E135" t="s">
-        <v>271</v>
-      </c>
-      <c r="F135" t="s">
-        <v>238</v>
-      </c>
-      <c r="G135" t="s">
-        <v>370</v>
-      </c>
-      <c r="H135" t="s">
-        <v>273</v>
-      </c>
-      <c r="I135" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="136" spans="1:12">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6130,19 +5947,49 @@
         <v>149</v>
       </c>
       <c r="C136" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D136" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E136" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="F136" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12">
+        <v>288</v>
+      </c>
+      <c r="G136" t="s">
+        <v>289</v>
+      </c>
+      <c r="H136" t="s">
+        <v>346</v>
+      </c>
+      <c r="I136" t="s">
+        <v>390</v>
+      </c>
+      <c r="J136" t="s">
+        <v>415</v>
+      </c>
+      <c r="K136" t="s">
+        <v>262</v>
+      </c>
+      <c r="L136" t="s">
+        <v>359</v>
+      </c>
+      <c r="M136" t="s">
+        <v>347</v>
+      </c>
+      <c r="N136" t="s">
+        <v>306</v>
+      </c>
+      <c r="O136" t="s">
+        <v>469</v>
+      </c>
+      <c r="P136" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6150,16 +5997,49 @@
         <v>150</v>
       </c>
       <c r="C137" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E137" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="138" spans="1:12">
+        <v>287</v>
+      </c>
+      <c r="F137" t="s">
+        <v>345</v>
+      </c>
+      <c r="G137" t="s">
+        <v>289</v>
+      </c>
+      <c r="H137" t="s">
+        <v>290</v>
+      </c>
+      <c r="I137" t="s">
+        <v>390</v>
+      </c>
+      <c r="J137" t="s">
+        <v>415</v>
+      </c>
+      <c r="K137" t="s">
+        <v>262</v>
+      </c>
+      <c r="L137" t="s">
+        <v>361</v>
+      </c>
+      <c r="M137" t="s">
+        <v>400</v>
+      </c>
+      <c r="N137" t="s">
+        <v>422</v>
+      </c>
+      <c r="O137" t="s">
+        <v>225</v>
+      </c>
+      <c r="P137" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6167,13 +6047,46 @@
         <v>151</v>
       </c>
       <c r="C138" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12">
+        <v>211</v>
+      </c>
+      <c r="E138" t="s">
+        <v>288</v>
+      </c>
+      <c r="F138" t="s">
+        <v>291</v>
+      </c>
+      <c r="G138" t="s">
+        <v>358</v>
+      </c>
+      <c r="H138" t="s">
+        <v>357</v>
+      </c>
+      <c r="I138" t="s">
+        <v>398</v>
+      </c>
+      <c r="J138" t="s">
+        <v>360</v>
+      </c>
+      <c r="K138" t="s">
+        <v>400</v>
+      </c>
+      <c r="L138" t="s">
+        <v>391</v>
+      </c>
+      <c r="M138" t="s">
+        <v>459</v>
+      </c>
+      <c r="N138" t="s">
+        <v>439</v>
+      </c>
+      <c r="O138" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6181,13 +6094,31 @@
         <v>152</v>
       </c>
       <c r="C139" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D139" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="140" spans="1:12">
+        <v>211</v>
+      </c>
+      <c r="E139" t="s">
+        <v>289</v>
+      </c>
+      <c r="F139" t="s">
+        <v>290</v>
+      </c>
+      <c r="G139" t="s">
+        <v>390</v>
+      </c>
+      <c r="H139" t="s">
+        <v>357</v>
+      </c>
+      <c r="I139" t="s">
+        <v>398</v>
+      </c>
+      <c r="J139" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -6195,13 +6126,34 @@
         <v>153</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D140" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="141" spans="1:12">
+        <v>211</v>
+      </c>
+      <c r="E140" t="s">
+        <v>290</v>
+      </c>
+      <c r="F140" t="s">
+        <v>357</v>
+      </c>
+      <c r="G140" t="s">
+        <v>398</v>
+      </c>
+      <c r="H140" t="s">
+        <v>360</v>
+      </c>
+      <c r="I140" t="s">
+        <v>400</v>
+      </c>
+      <c r="J140" t="s">
+        <v>445</v>
+      </c>
+      <c r="K140" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6209,13 +6161,37 @@
         <v>154</v>
       </c>
       <c r="C141" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12">
+        <v>211</v>
+      </c>
+      <c r="E141" t="s">
+        <v>291</v>
+      </c>
+      <c r="F141" t="s">
+        <v>358</v>
+      </c>
+      <c r="G141" t="s">
+        <v>357</v>
+      </c>
+      <c r="H141" t="s">
+        <v>420</v>
+      </c>
+      <c r="I141" t="s">
+        <v>444</v>
+      </c>
+      <c r="J141" t="s">
+        <v>421</v>
+      </c>
+      <c r="K141" t="s">
+        <v>459</v>
+      </c>
+      <c r="L141" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6223,16 +6199,22 @@
         <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D142" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="143" spans="1:12">
+        <v>292</v>
+      </c>
+      <c r="F142" t="s">
+        <v>359</v>
+      </c>
+      <c r="G142" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6240,16 +6222,46 @@
         <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D143" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E143" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12">
+        <v>292</v>
+      </c>
+      <c r="F143" t="s">
+        <v>360</v>
+      </c>
+      <c r="G143" t="s">
+        <v>400</v>
+      </c>
+      <c r="H143" t="s">
+        <v>421</v>
+      </c>
+      <c r="I143" t="s">
+        <v>225</v>
+      </c>
+      <c r="J143" t="s">
+        <v>439</v>
+      </c>
+      <c r="K143" t="s">
+        <v>460</v>
+      </c>
+      <c r="L143" t="s">
+        <v>378</v>
+      </c>
+      <c r="M143" t="s">
+        <v>227</v>
+      </c>
+      <c r="N143" t="s">
+        <v>308</v>
+      </c>
+      <c r="O143" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -6257,19 +6269,28 @@
         <v>157</v>
       </c>
       <c r="C144" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="D144" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E144" t="s">
-        <v>256</v>
+        <v>293</v>
       </c>
       <c r="F144" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16">
+        <v>361</v>
+      </c>
+      <c r="G144" t="s">
+        <v>347</v>
+      </c>
+      <c r="H144" t="s">
+        <v>422</v>
+      </c>
+      <c r="I144" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6277,16 +6298,37 @@
         <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="D145" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E145" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16">
+        <v>294</v>
+      </c>
+      <c r="F145" t="s">
+        <v>297</v>
+      </c>
+      <c r="G145" t="s">
+        <v>300</v>
+      </c>
+      <c r="H145" t="s">
+        <v>423</v>
+      </c>
+      <c r="I145" t="s">
+        <v>401</v>
+      </c>
+      <c r="J145" t="s">
+        <v>265</v>
+      </c>
+      <c r="K145" t="s">
+        <v>236</v>
+      </c>
+      <c r="L145" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6294,22 +6336,31 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D146" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E146" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="F146" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="G146" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16">
+        <v>300</v>
+      </c>
+      <c r="H146" t="s">
+        <v>302</v>
+      </c>
+      <c r="I146" t="s">
+        <v>265</v>
+      </c>
+      <c r="J146" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6317,19 +6368,37 @@
         <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="D147" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="E147" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="F147" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16">
+        <v>298</v>
+      </c>
+      <c r="G147" t="s">
+        <v>363</v>
+      </c>
+      <c r="H147" t="s">
+        <v>299</v>
+      </c>
+      <c r="I147" t="s">
+        <v>401</v>
+      </c>
+      <c r="J147" t="s">
+        <v>265</v>
+      </c>
+      <c r="K147" t="s">
+        <v>236</v>
+      </c>
+      <c r="L147" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6337,19 +6406,34 @@
         <v>161</v>
       </c>
       <c r="C148" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="D148" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E148" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="F148" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16">
+        <v>298</v>
+      </c>
+      <c r="G148" t="s">
+        <v>363</v>
+      </c>
+      <c r="H148" t="s">
+        <v>299</v>
+      </c>
+      <c r="I148" t="s">
+        <v>263</v>
+      </c>
+      <c r="J148" t="s">
+        <v>266</v>
+      </c>
+      <c r="K148" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6357,49 +6441,34 @@
         <v>162</v>
       </c>
       <c r="C149" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D149" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G149" t="s">
-        <v>206</v>
+        <v>363</v>
       </c>
       <c r="H149" t="s">
-        <v>393</v>
+        <v>299</v>
       </c>
       <c r="I149" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="J149" t="s">
-        <v>209</v>
+        <v>266</v>
       </c>
       <c r="K149" t="s">
-        <v>433</v>
-      </c>
-      <c r="L149" t="s">
-        <v>439</v>
-      </c>
-      <c r="M149" t="s">
-        <v>442</v>
-      </c>
-      <c r="N149" t="s">
-        <v>440</v>
-      </c>
-      <c r="O149" t="s">
-        <v>443</v>
-      </c>
-      <c r="P149" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6407,25 +6476,37 @@
         <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D150" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E150" t="s">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="F150" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="G150" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H150" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16">
+        <v>423</v>
+      </c>
+      <c r="I150" t="s">
+        <v>401</v>
+      </c>
+      <c r="J150" t="s">
+        <v>265</v>
+      </c>
+      <c r="K150" t="s">
+        <v>236</v>
+      </c>
+      <c r="L150" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6433,49 +6514,31 @@
         <v>164</v>
       </c>
       <c r="C151" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D151" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="G151" t="s">
-        <v>303</v>
+        <v>401</v>
       </c>
       <c r="H151" t="s">
-        <v>209</v>
+        <v>265</v>
       </c>
       <c r="I151" t="s">
-        <v>349</v>
+        <v>236</v>
       </c>
       <c r="J151" t="s">
-        <v>306</v>
-      </c>
-      <c r="K151" t="s">
-        <v>282</v>
-      </c>
-      <c r="L151" t="s">
-        <v>210</v>
-      </c>
-      <c r="M151" t="s">
-        <v>341</v>
-      </c>
-      <c r="N151" t="s">
-        <v>443</v>
-      </c>
-      <c r="O151" t="s">
-        <v>374</v>
-      </c>
-      <c r="P151" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6483,49 +6546,16 @@
         <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D152" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E152" t="s">
-        <v>206</v>
-      </c>
-      <c r="F152" t="s">
-        <v>337</v>
-      </c>
-      <c r="G152" t="s">
-        <v>303</v>
-      </c>
-      <c r="H152" t="s">
-        <v>395</v>
-      </c>
-      <c r="I152" t="s">
-        <v>281</v>
-      </c>
-      <c r="J152" t="s">
-        <v>423</v>
-      </c>
-      <c r="K152" t="s">
-        <v>339</v>
-      </c>
-      <c r="L152" t="s">
-        <v>440</v>
-      </c>
-      <c r="M152" t="s">
-        <v>212</v>
-      </c>
-      <c r="N152" t="s">
-        <v>444</v>
-      </c>
-      <c r="O152" t="s">
-        <v>287</v>
-      </c>
-      <c r="P152" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6533,19 +6563,31 @@
         <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D153" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E153" t="s">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="F153" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16">
+        <v>363</v>
+      </c>
+      <c r="G153" t="s">
+        <v>299</v>
+      </c>
+      <c r="H153" t="s">
+        <v>364</v>
+      </c>
+      <c r="I153" t="s">
+        <v>266</v>
+      </c>
+      <c r="J153" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6553,34 +6595,25 @@
         <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D154" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="G154" t="s">
-        <v>283</v>
+        <v>348</v>
       </c>
       <c r="H154" t="s">
-        <v>374</v>
-      </c>
-      <c r="I154" t="s">
-        <v>375</v>
-      </c>
-      <c r="J154" t="s">
-        <v>421</v>
-      </c>
-      <c r="K154" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6588,46 +6621,28 @@
         <v>168</v>
       </c>
       <c r="C155" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D155" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E155" t="s">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="F155" t="s">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="G155" t="s">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="H155" t="s">
-        <v>396</v>
+        <v>236</v>
       </c>
       <c r="I155" t="s">
-        <v>213</v>
-      </c>
-      <c r="J155" t="s">
-        <v>269</v>
-      </c>
-      <c r="K155" t="s">
-        <v>333</v>
-      </c>
-      <c r="L155" t="s">
-        <v>270</v>
-      </c>
-      <c r="M155" t="s">
-        <v>238</v>
-      </c>
-      <c r="N155" t="s">
-        <v>415</v>
-      </c>
-      <c r="O155" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6635,34 +6650,19 @@
         <v>169</v>
       </c>
       <c r="C156" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D156" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E156" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="F156" t="s">
-        <v>283</v>
-      </c>
-      <c r="G156" t="s">
-        <v>340</v>
-      </c>
-      <c r="H156" t="s">
-        <v>343</v>
-      </c>
-      <c r="I156" t="s">
-        <v>375</v>
-      </c>
-      <c r="J156" t="s">
-        <v>396</v>
-      </c>
-      <c r="K156" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6670,31 +6670,16 @@
         <v>170</v>
       </c>
       <c r="C157" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D157" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E157" t="s">
-        <v>210</v>
-      </c>
-      <c r="F157" t="s">
-        <v>340</v>
-      </c>
-      <c r="G157" t="s">
-        <v>372</v>
-      </c>
-      <c r="H157" t="s">
-        <v>213</v>
-      </c>
-      <c r="I157" t="s">
-        <v>345</v>
-      </c>
-      <c r="J157" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6702,28 +6687,13 @@
         <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="D158" t="s">
-        <v>190</v>
-      </c>
-      <c r="E158" t="s">
-        <v>283</v>
-      </c>
-      <c r="F158" t="s">
-        <v>341</v>
-      </c>
-      <c r="G158" t="s">
-        <v>373</v>
-      </c>
-      <c r="H158" t="s">
-        <v>397</v>
-      </c>
-      <c r="I158" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6731,40 +6701,13 @@
         <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D159" t="s">
-        <v>190</v>
-      </c>
-      <c r="E159" t="s">
-        <v>283</v>
-      </c>
-      <c r="F159" t="s">
-        <v>342</v>
-      </c>
-      <c r="G159" t="s">
-        <v>374</v>
-      </c>
-      <c r="H159" t="s">
-        <v>398</v>
-      </c>
-      <c r="I159" t="s">
-        <v>375</v>
-      </c>
-      <c r="J159" t="s">
-        <v>420</v>
-      </c>
-      <c r="K159" t="s">
-        <v>417</v>
-      </c>
-      <c r="L159" t="s">
-        <v>318</v>
-      </c>
-      <c r="M159" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6772,37 +6715,22 @@
         <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D160" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E160" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="F160" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="G160" t="s">
-        <v>375</v>
-      </c>
-      <c r="H160" t="s">
-        <v>396</v>
-      </c>
-      <c r="I160" t="s">
-        <v>417</v>
-      </c>
-      <c r="J160" t="s">
-        <v>345</v>
-      </c>
-      <c r="K160" t="s">
-        <v>287</v>
-      </c>
-      <c r="L160" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="161" spans="1:12">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -6810,37 +6738,16 @@
         <v>174</v>
       </c>
       <c r="C161" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D161" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E161" t="s">
-        <v>284</v>
-      </c>
-      <c r="F161" t="s">
-        <v>344</v>
-      </c>
-      <c r="G161" t="s">
-        <v>375</v>
-      </c>
-      <c r="H161" t="s">
-        <v>399</v>
-      </c>
-      <c r="I161" t="s">
-        <v>268</v>
-      </c>
-      <c r="J161" t="s">
-        <v>333</v>
-      </c>
-      <c r="K161" t="s">
-        <v>369</v>
-      </c>
-      <c r="L161" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6848,28 +6755,16 @@
         <v>175</v>
       </c>
       <c r="C162" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D162" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E162" t="s">
-        <v>285</v>
-      </c>
-      <c r="F162" t="s">
-        <v>267</v>
-      </c>
-      <c r="G162" t="s">
-        <v>376</v>
-      </c>
-      <c r="H162" t="s">
-        <v>272</v>
-      </c>
-      <c r="I162" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="163" spans="1:12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6877,28 +6772,16 @@
         <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D163" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E163" t="s">
-        <v>286</v>
-      </c>
-      <c r="F163" t="s">
-        <v>345</v>
-      </c>
-      <c r="G163" t="s">
-        <v>377</v>
-      </c>
-      <c r="H163" t="s">
-        <v>400</v>
-      </c>
-      <c r="I163" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="164" spans="1:12">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6906,19 +6789,16 @@
         <v>177</v>
       </c>
       <c r="C164" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="D164" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E164" t="s">
-        <v>287</v>
-      </c>
-      <c r="F164" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="165" spans="1:12">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -6926,16 +6806,19 @@
         <v>178</v>
       </c>
       <c r="C165" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="D165" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E165" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="166" spans="1:12">
+        <v>285</v>
+      </c>
+      <c r="F165" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6943,16 +6826,16 @@
         <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="D166" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E166" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="167" spans="1:12">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -6960,16 +6843,22 @@
         <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="D167" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="E167" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="168" spans="1:12">
+        <v>305</v>
+      </c>
+      <c r="F167" t="s">
+        <v>344</v>
+      </c>
+      <c r="G167" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6977,13 +6866,676 @@
         <v>181</v>
       </c>
       <c r="C168" t="s">
+        <v>207</v>
+      </c>
+      <c r="D168" t="s">
+        <v>211</v>
+      </c>
+      <c r="E168" t="s">
+        <v>305</v>
+      </c>
+      <c r="F168" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169" t="s">
+        <v>182</v>
+      </c>
+      <c r="C169" t="s">
+        <v>209</v>
+      </c>
+      <c r="D169" t="s">
+        <v>212</v>
+      </c>
+      <c r="E169" t="s">
+        <v>306</v>
+      </c>
+      <c r="F169" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170" t="s">
+        <v>183</v>
+      </c>
+      <c r="C170" t="s">
+        <v>203</v>
+      </c>
+      <c r="D170" t="s">
+        <v>212</v>
+      </c>
+      <c r="E170" t="s">
+        <v>307</v>
+      </c>
+      <c r="F170" t="s">
+        <v>308</v>
+      </c>
+      <c r="G170" t="s">
+        <v>228</v>
+      </c>
+      <c r="H170" t="s">
+        <v>424</v>
+      </c>
+      <c r="I170" t="s">
+        <v>333</v>
+      </c>
+      <c r="J170" t="s">
+        <v>231</v>
+      </c>
+      <c r="K170" t="s">
+        <v>461</v>
+      </c>
+      <c r="L170" t="s">
+        <v>467</v>
+      </c>
+      <c r="M170" t="s">
+        <v>470</v>
+      </c>
+      <c r="N170" t="s">
+        <v>468</v>
+      </c>
+      <c r="O170" t="s">
+        <v>471</v>
+      </c>
+      <c r="P170" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171" t="s">
         <v>184</v>
       </c>
-      <c r="D168" t="s">
+      <c r="C171" t="s">
+        <v>203</v>
+      </c>
+      <c r="D171" t="s">
+        <v>212</v>
+      </c>
+      <c r="E171" t="s">
+        <v>308</v>
+      </c>
+      <c r="F171" t="s">
+        <v>366</v>
+      </c>
+      <c r="G171" t="s">
+        <v>333</v>
+      </c>
+      <c r="H171" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="172" spans="1:16">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172" t="s">
+        <v>185</v>
+      </c>
+      <c r="C172" t="s">
+        <v>203</v>
+      </c>
+      <c r="D172" t="s">
+        <v>212</v>
+      </c>
+      <c r="E172" t="s">
+        <v>309</v>
+      </c>
+      <c r="F172" t="s">
+        <v>366</v>
+      </c>
+      <c r="G172" t="s">
+        <v>333</v>
+      </c>
+      <c r="H172" t="s">
+        <v>231</v>
+      </c>
+      <c r="I172" t="s">
+        <v>379</v>
+      </c>
+      <c r="J172" t="s">
+        <v>336</v>
+      </c>
+      <c r="K172" t="s">
+        <v>312</v>
+      </c>
+      <c r="L172" t="s">
+        <v>232</v>
+      </c>
+      <c r="M172" t="s">
+        <v>371</v>
+      </c>
+      <c r="N172" t="s">
+        <v>471</v>
+      </c>
+      <c r="O172" t="s">
+        <v>405</v>
+      </c>
+      <c r="P172" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173" t="s">
+        <v>186</v>
+      </c>
+      <c r="C173" t="s">
+        <v>203</v>
+      </c>
+      <c r="D173" t="s">
+        <v>212</v>
+      </c>
+      <c r="E173" t="s">
+        <v>228</v>
+      </c>
+      <c r="F173" t="s">
+        <v>367</v>
+      </c>
+      <c r="G173" t="s">
+        <v>333</v>
+      </c>
+      <c r="H173" t="s">
+        <v>426</v>
+      </c>
+      <c r="I173" t="s">
+        <v>311</v>
+      </c>
+      <c r="J173" t="s">
+        <v>451</v>
+      </c>
+      <c r="K173" t="s">
+        <v>369</v>
+      </c>
+      <c r="L173" t="s">
+        <v>468</v>
+      </c>
+      <c r="M173" t="s">
+        <v>234</v>
+      </c>
+      <c r="N173" t="s">
+        <v>472</v>
+      </c>
+      <c r="O173" t="s">
+        <v>317</v>
+      </c>
+      <c r="P173" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174" t="s">
+        <v>187</v>
+      </c>
+      <c r="C174" t="s">
+        <v>203</v>
+      </c>
+      <c r="D174" t="s">
+        <v>212</v>
+      </c>
+      <c r="E174" t="s">
+        <v>310</v>
+      </c>
+      <c r="F174" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175" t="s">
+        <v>188</v>
+      </c>
+      <c r="C175" t="s">
+        <v>203</v>
+      </c>
+      <c r="D175" t="s">
+        <v>212</v>
+      </c>
+      <c r="E175" t="s">
+        <v>311</v>
+      </c>
+      <c r="F175" t="s">
+        <v>369</v>
+      </c>
+      <c r="G175" t="s">
+        <v>313</v>
+      </c>
+      <c r="H175" t="s">
+        <v>405</v>
+      </c>
+      <c r="I175" t="s">
+        <v>406</v>
+      </c>
+      <c r="J175" t="s">
+        <v>449</v>
+      </c>
+      <c r="K175" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="176" spans="1:16">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176" t="s">
+        <v>189</v>
+      </c>
+      <c r="C176" t="s">
+        <v>210</v>
+      </c>
+      <c r="D176" t="s">
+        <v>212</v>
+      </c>
+      <c r="E176" t="s">
+        <v>312</v>
+      </c>
+      <c r="F176" t="s">
+        <v>313</v>
+      </c>
+      <c r="G176" t="s">
+        <v>402</v>
+      </c>
+      <c r="H176" t="s">
+        <v>427</v>
+      </c>
+      <c r="I176" t="s">
+        <v>235</v>
+      </c>
+      <c r="J176" t="s">
+        <v>298</v>
+      </c>
+      <c r="K176" t="s">
+        <v>363</v>
+      </c>
+      <c r="L176" t="s">
+        <v>299</v>
+      </c>
+      <c r="M176" t="s">
+        <v>263</v>
+      </c>
+      <c r="N176" t="s">
+        <v>266</v>
+      </c>
+      <c r="O176" t="s">
+        <v>236</v>
+      </c>
+      <c r="P176" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177" t="s">
         <v>190</v>
       </c>
-      <c r="E168" t="s">
-        <v>290</v>
+      <c r="C177" t="s">
+        <v>203</v>
+      </c>
+      <c r="D177" t="s">
+        <v>212</v>
+      </c>
+      <c r="E177" t="s">
+        <v>312</v>
+      </c>
+      <c r="F177" t="s">
+        <v>313</v>
+      </c>
+      <c r="G177" t="s">
+        <v>370</v>
+      </c>
+      <c r="H177" t="s">
+        <v>373</v>
+      </c>
+      <c r="I177" t="s">
+        <v>406</v>
+      </c>
+      <c r="J177" t="s">
+        <v>427</v>
+      </c>
+      <c r="K177" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178" t="s">
+        <v>191</v>
+      </c>
+      <c r="C178" t="s">
+        <v>205</v>
+      </c>
+      <c r="D178" t="s">
+        <v>212</v>
+      </c>
+      <c r="E178" t="s">
+        <v>232</v>
+      </c>
+      <c r="F178" t="s">
+        <v>370</v>
+      </c>
+      <c r="G178" t="s">
+        <v>403</v>
+      </c>
+      <c r="H178" t="s">
+        <v>235</v>
+      </c>
+      <c r="I178" t="s">
+        <v>375</v>
+      </c>
+      <c r="J178" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" t="s">
+        <v>203</v>
+      </c>
+      <c r="D179" t="s">
+        <v>212</v>
+      </c>
+      <c r="E179" t="s">
+        <v>313</v>
+      </c>
+      <c r="F179" t="s">
+        <v>371</v>
+      </c>
+      <c r="G179" t="s">
+        <v>404</v>
+      </c>
+      <c r="H179" t="s">
+        <v>428</v>
+      </c>
+      <c r="I179" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="1">
+        <v>178</v>
+      </c>
+      <c r="B180" t="s">
+        <v>193</v>
+      </c>
+      <c r="C180" t="s">
+        <v>205</v>
+      </c>
+      <c r="D180" t="s">
+        <v>212</v>
+      </c>
+      <c r="E180" t="s">
+        <v>313</v>
+      </c>
+      <c r="F180" t="s">
+        <v>372</v>
+      </c>
+      <c r="G180" t="s">
+        <v>405</v>
+      </c>
+      <c r="H180" t="s">
+        <v>429</v>
+      </c>
+      <c r="I180" t="s">
+        <v>406</v>
+      </c>
+      <c r="J180" t="s">
+        <v>448</v>
+      </c>
+      <c r="K180" t="s">
+        <v>446</v>
+      </c>
+      <c r="L180" t="s">
+        <v>267</v>
+      </c>
+      <c r="M180" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="1">
+        <v>179</v>
+      </c>
+      <c r="B181" t="s">
+        <v>194</v>
+      </c>
+      <c r="C181" t="s">
+        <v>205</v>
+      </c>
+      <c r="D181" t="s">
+        <v>212</v>
+      </c>
+      <c r="E181" t="s">
+        <v>314</v>
+      </c>
+      <c r="F181" t="s">
+        <v>373</v>
+      </c>
+      <c r="G181" t="s">
+        <v>406</v>
+      </c>
+      <c r="H181" t="s">
+        <v>427</v>
+      </c>
+      <c r="I181" t="s">
+        <v>446</v>
+      </c>
+      <c r="J181" t="s">
+        <v>375</v>
+      </c>
+      <c r="K181" t="s">
+        <v>317</v>
+      </c>
+      <c r="L181" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="1">
+        <v>180</v>
+      </c>
+      <c r="B182" t="s">
+        <v>195</v>
+      </c>
+      <c r="C182" t="s">
+        <v>205</v>
+      </c>
+      <c r="D182" t="s">
+        <v>212</v>
+      </c>
+      <c r="E182" t="s">
+        <v>314</v>
+      </c>
+      <c r="F182" t="s">
+        <v>374</v>
+      </c>
+      <c r="G182" t="s">
+        <v>406</v>
+      </c>
+      <c r="H182" t="s">
+        <v>430</v>
+      </c>
+      <c r="I182" t="s">
+        <v>297</v>
+      </c>
+      <c r="J182" t="s">
+        <v>363</v>
+      </c>
+      <c r="K182" t="s">
+        <v>401</v>
+      </c>
+      <c r="L182" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="183" spans="1:13">
+      <c r="A183" s="1">
+        <v>181</v>
+      </c>
+      <c r="B183" t="s">
+        <v>196</v>
+      </c>
+      <c r="C183" t="s">
+        <v>210</v>
+      </c>
+      <c r="D183" t="s">
+        <v>212</v>
+      </c>
+      <c r="E183" t="s">
+        <v>315</v>
+      </c>
+      <c r="F183" t="s">
+        <v>296</v>
+      </c>
+      <c r="G183" t="s">
+        <v>407</v>
+      </c>
+      <c r="H183" t="s">
+        <v>301</v>
+      </c>
+      <c r="I183" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="1">
+        <v>182</v>
+      </c>
+      <c r="B184" t="s">
+        <v>197</v>
+      </c>
+      <c r="C184" t="s">
+        <v>205</v>
+      </c>
+      <c r="D184" t="s">
+        <v>212</v>
+      </c>
+      <c r="E184" t="s">
+        <v>316</v>
+      </c>
+      <c r="F184" t="s">
+        <v>375</v>
+      </c>
+      <c r="G184" t="s">
+        <v>408</v>
+      </c>
+      <c r="H184" t="s">
+        <v>431</v>
+      </c>
+      <c r="I184" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13">
+      <c r="A185" s="1">
+        <v>183</v>
+      </c>
+      <c r="B185" t="s">
+        <v>198</v>
+      </c>
+      <c r="C185" t="s">
+        <v>205</v>
+      </c>
+      <c r="D185" t="s">
+        <v>212</v>
+      </c>
+      <c r="E185" t="s">
+        <v>317</v>
+      </c>
+      <c r="F185" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="186" spans="1:13">
+      <c r="A186" s="1">
+        <v>184</v>
+      </c>
+      <c r="B186" t="s">
+        <v>199</v>
+      </c>
+      <c r="C186" t="s">
+        <v>205</v>
+      </c>
+      <c r="D186" t="s">
+        <v>212</v>
+      </c>
+      <c r="E186" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="187" spans="1:13">
+      <c r="A187" s="1">
+        <v>185</v>
+      </c>
+      <c r="B187" t="s">
+        <v>200</v>
+      </c>
+      <c r="C187" t="s">
+        <v>205</v>
+      </c>
+      <c r="D187" t="s">
+        <v>212</v>
+      </c>
+      <c r="E187" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="188" spans="1:13">
+      <c r="A188" s="1">
+        <v>186</v>
+      </c>
+      <c r="B188" t="s">
+        <v>201</v>
+      </c>
+      <c r="C188" t="s">
+        <v>205</v>
+      </c>
+      <c r="D188" t="s">
+        <v>212</v>
+      </c>
+      <c r="E188" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="189" spans="1:13">
+      <c r="A189" s="1">
+        <v>187</v>
+      </c>
+      <c r="B189" t="s">
+        <v>202</v>
+      </c>
+      <c r="C189" t="s">
+        <v>205</v>
+      </c>
+      <c r="D189" t="s">
+        <v>212</v>
+      </c>
+      <c r="E189" t="s">
+        <v>320</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Castor_training.xlsx
+++ b/Documents/Castor_training.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="479">
   <si>
     <t>SubjectID</t>
   </si>
@@ -629,6 +629,9 @@
   </si>
   <si>
     <t>Withdrawn (SAE)</t>
+  </si>
+  <si>
+    <t>Withdrawn</t>
   </si>
   <si>
     <t>In progress</t>
@@ -1869,28 +1872,28 @@
         <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="H2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="J2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="K2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1904,31 +1907,31 @@
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L3" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1942,25 +1945,25 @@
         <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="I4" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="J4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1974,13 +1977,13 @@
         <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1994,25 +1997,25 @@
         <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="J6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2026,34 +2029,34 @@
         <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2067,28 +2070,28 @@
         <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I8" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2102,22 +2105,22 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E9" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H9" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="I9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2131,22 +2134,22 @@
         <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2160,28 +2163,28 @@
         <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E11" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G11" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I11" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J11" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2195,31 +2198,31 @@
         <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E12" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H12" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I12" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="J12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K12" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L12" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2233,34 +2236,34 @@
         <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E13" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F13" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M13" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2274,25 +2277,25 @@
         <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E14" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H14" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I14" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="J14" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2306,31 +2309,31 @@
         <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E15" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H15" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I15" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="J15" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K15" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L15" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2344,40 +2347,40 @@
         <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I16" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J16" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="L16" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M16" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N16" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="O16" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2391,25 +2394,25 @@
         <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G17" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H17" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I17" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J17" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2423,25 +2426,25 @@
         <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E18" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F18" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G18" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H18" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="J18" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2452,16 +2455,16 @@
         <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2475,25 +2478,25 @@
         <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E20" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G20" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I20" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="J20" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2504,16 +2507,16 @@
         <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E21" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F21" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2527,28 +2530,28 @@
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E22" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G22" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H22" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I22" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="J22" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K22" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2562,28 +2565,28 @@
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E23" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F23" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G23" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H23" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I23" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="J23" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="K23" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2597,43 +2600,43 @@
         <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F24" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G24" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H24" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I24" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="J24" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="K24" t="s">
+        <v>454</v>
+      </c>
+      <c r="L24" t="s">
         <v>453</v>
       </c>
-      <c r="L24" t="s">
-        <v>452</v>
-      </c>
       <c r="M24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N24" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O24" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2647,40 +2650,40 @@
         <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E25" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F25" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G25" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H25" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I25" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="J25" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K25" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L25" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M25" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N25" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="O25" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2694,37 +2697,37 @@
         <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E26" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F26" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G26" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H26" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I26" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="J26" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K26" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L26" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="M26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N26" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2735,16 +2738,16 @@
         <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E27" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F27" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2755,22 +2758,22 @@
         <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E28" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F28" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H28" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2781,13 +2784,13 @@
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2798,13 +2801,13 @@
         <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2815,13 +2818,13 @@
         <v>44</v>
       </c>
       <c r="C31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2832,13 +2835,13 @@
         <v>45</v>
       </c>
       <c r="C32" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E32" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2852,25 +2855,25 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F33" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H33" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I33" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2884,28 +2887,28 @@
         <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G34" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I34" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K34" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O34" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2919,37 +2922,37 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E35" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F35" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I35" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K35" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L35" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="M35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N35" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2960,13 +2963,13 @@
         <v>49</v>
       </c>
       <c r="C36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2980,19 +2983,19 @@
         <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G37" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H37" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3003,25 +3006,25 @@
         <v>51</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E38" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F38" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G38" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I38" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L38" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3035,37 +3038,37 @@
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G39" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H39" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I39" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J39" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M39" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N39" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3079,22 +3082,22 @@
         <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G40" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H40" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I40" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3108,19 +3111,19 @@
         <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H41" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3134,28 +3137,28 @@
         <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F42" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G42" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H42" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="J42" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K42" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3169,16 +3172,16 @@
         <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E43" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G43" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3192,34 +3195,34 @@
         <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E44" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F44" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H44" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="J44" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N44" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3233,13 +3236,13 @@
         <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E45" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3253,13 +3256,13 @@
         <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E46" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G46" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3273,16 +3276,16 @@
         <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F47" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G47" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3296,37 +3299,37 @@
         <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E48" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G48" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H48" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="J48" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K48" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="L48" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M48" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="O48" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3340,31 +3343,31 @@
         <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E49" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F49" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G49" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I49" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J49" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K49" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L49" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3378,16 +3381,16 @@
         <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E50" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H50" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3401,43 +3404,43 @@
         <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E51" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G51" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H51" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I51" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="J51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L51" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M51" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N51" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O51" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3451,19 +3454,19 @@
         <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F52" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3477,37 +3480,37 @@
         <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E53" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F53" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G53" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="I53" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="J53" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K53" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L53" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N53" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3521,34 +3524,34 @@
         <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E54" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F54" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I54" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K54" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L54" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="N54" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O54" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3562,25 +3565,25 @@
         <v>203</v>
       </c>
       <c r="D55" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E55" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F55" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G55" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H55" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I55" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="J55" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3594,43 +3597,43 @@
         <v>203</v>
       </c>
       <c r="D56" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E56" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G56" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H56" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="J56" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L56" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M56" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="N56" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="O56" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P56" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3641,13 +3644,13 @@
         <v>70</v>
       </c>
       <c r="C57" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E57" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3658,16 +3661,16 @@
         <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E58" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3678,31 +3681,31 @@
         <v>72</v>
       </c>
       <c r="C59" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E59" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F59" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G59" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H59" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J59" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3716,40 +3719,40 @@
         <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E60" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F60" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H60" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I60" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J60" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="L60" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M60" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N60" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O60" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3763,43 +3766,43 @@
         <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E61" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F61" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G61" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I61" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="J61" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K61" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N61" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O61" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P61" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3813,16 +3816,16 @@
         <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E62" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G62" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3833,16 +3836,16 @@
         <v>76</v>
       </c>
       <c r="C63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E63" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3853,16 +3856,16 @@
         <v>77</v>
       </c>
       <c r="C64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E64" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F64" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3876,43 +3879,43 @@
         <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E65" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="H65" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I65" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J65" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K65" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L65" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M65" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N65" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3923,22 +3926,22 @@
         <v>79</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E66" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H66" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -3952,43 +3955,43 @@
         <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F67" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G67" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I67" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J67" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K67" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L67" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M67" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="N67" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O67" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P67" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4002,19 +4005,19 @@
         <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E68" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F68" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G68" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H68" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4025,25 +4028,25 @@
         <v>82</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E69" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G69" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H69" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I69" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4057,31 +4060,31 @@
         <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E70" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F70" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G70" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I70" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="J70" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K70" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="L70" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4092,16 +4095,16 @@
         <v>84</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E71" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F71" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4112,19 +4115,19 @@
         <v>85</v>
       </c>
       <c r="C72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E72" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G72" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4135,13 +4138,13 @@
         <v>86</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E73" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4152,19 +4155,19 @@
         <v>87</v>
       </c>
       <c r="C74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F74" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4175,13 +4178,13 @@
         <v>88</v>
       </c>
       <c r="C75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E75" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4192,16 +4195,16 @@
         <v>89</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D76" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E76" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F76" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4212,19 +4215,19 @@
         <v>90</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E77" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="G77" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4235,16 +4238,16 @@
         <v>91</v>
       </c>
       <c r="C78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E78" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4255,16 +4258,16 @@
         <v>92</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E79" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4275,16 +4278,16 @@
         <v>93</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F80" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4295,16 +4298,16 @@
         <v>94</v>
       </c>
       <c r="C81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4315,16 +4318,16 @@
         <v>95</v>
       </c>
       <c r="C82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E82" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F82" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -4335,16 +4338,16 @@
         <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F83" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4355,16 +4358,16 @@
         <v>97</v>
       </c>
       <c r="C84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4375,16 +4378,16 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E85" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4395,13 +4398,13 @@
         <v>99</v>
       </c>
       <c r="C86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4412,13 +4415,13 @@
         <v>100</v>
       </c>
       <c r="C87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E87" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4429,16 +4432,16 @@
         <v>101</v>
       </c>
       <c r="C88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F88" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4449,16 +4452,16 @@
         <v>102</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F89" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -4469,19 +4472,19 @@
         <v>103</v>
       </c>
       <c r="C90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F90" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G90" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4492,13 +4495,13 @@
         <v>104</v>
       </c>
       <c r="C91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4509,13 +4512,13 @@
         <v>105</v>
       </c>
       <c r="C92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4526,13 +4529,13 @@
         <v>106</v>
       </c>
       <c r="C93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4546,37 +4549,37 @@
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F94" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G94" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H94" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J94" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K94" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="L94" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M94" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N94" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4590,25 +4593,25 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H95" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I95" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J95" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4622,43 +4625,43 @@
         <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G96" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H96" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I96" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="J96" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K96" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M96" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="N96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="O96" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P96" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4672,43 +4675,43 @@
         <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F97" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H97" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I97" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J97" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L97" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M97" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N97" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O97" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -4722,31 +4725,31 @@
         <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F98" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H98" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I98" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J98" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K98" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L98" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4760,25 +4763,25 @@
         <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F99" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G99" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I99" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J99" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4792,19 +4795,19 @@
         <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E100" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G100" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H100" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4818,10 +4821,10 @@
         <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E101" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -4835,43 +4838,43 @@
         <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F102" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G102" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H102" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I102" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K102" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L102" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M102" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N102" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="O102" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P102" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -4885,16 +4888,16 @@
         <v>203</v>
       </c>
       <c r="D103" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E103" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F103" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G103" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -4908,37 +4911,37 @@
         <v>203</v>
       </c>
       <c r="D104" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E104" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F104" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G104" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H104" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J104" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K104" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L104" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="M104" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N104" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -4952,34 +4955,34 @@
         <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E105" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F105" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G105" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H105" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I105" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J105" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K105" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L105" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M105" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -4993,16 +4996,16 @@
         <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E106" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F106" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G106" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5016,43 +5019,43 @@
         <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E107" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F107" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G107" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H107" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I107" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J107" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K107" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L107" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M107" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N107" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O107" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P107" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="108" spans="1:16">
@@ -5066,43 +5069,43 @@
         <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E108" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F108" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G108" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H108" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I108" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J108" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K108" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L108" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M108" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="N108" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O108" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P108" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="109" spans="1:16">
@@ -5116,10 +5119,10 @@
         <v>204</v>
       </c>
       <c r="D109" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5133,43 +5136,43 @@
         <v>203</v>
       </c>
       <c r="D110" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E110" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G110" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H110" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K110" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="L110" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M110" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N110" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="O110" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5183,16 +5186,16 @@
         <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E111" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G111" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5206,10 +5209,10 @@
         <v>204</v>
       </c>
       <c r="D112" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E112" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -5220,28 +5223,28 @@
         <v>126</v>
       </c>
       <c r="C113" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D113" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E113" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F113" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G113" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I113" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="J113" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="114" spans="1:16">
@@ -5255,22 +5258,22 @@
         <v>203</v>
       </c>
       <c r="D114" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F114" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H114" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5284,16 +5287,16 @@
         <v>203</v>
       </c>
       <c r="D115" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F115" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5307,16 +5310,16 @@
         <v>203</v>
       </c>
       <c r="D116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F116" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5330,19 +5333,19 @@
         <v>203</v>
       </c>
       <c r="D117" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E117" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F117" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G117" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H117" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5356,19 +5359,19 @@
         <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F118" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G118" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H118" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -5379,25 +5382,25 @@
         <v>132</v>
       </c>
       <c r="C119" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D119" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E119" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F119" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G119" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H119" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I119" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="120" spans="1:16">
@@ -5408,16 +5411,16 @@
         <v>133</v>
       </c>
       <c r="C120" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D120" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E120" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F120" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5431,40 +5434,40 @@
         <v>203</v>
       </c>
       <c r="D121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E121" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G121" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H121" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="I121" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J121" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K121" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L121" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M121" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N121" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -5478,43 +5481,43 @@
         <v>203</v>
       </c>
       <c r="D122" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E122" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F122" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G122" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H122" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="I122" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="J122" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K122" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="L122" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N122" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="P122" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="123" spans="1:16">
@@ -5528,22 +5531,22 @@
         <v>203</v>
       </c>
       <c r="D123" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E123" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F123" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G123" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H123" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I123" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="124" spans="1:16">
@@ -5557,22 +5560,22 @@
         <v>203</v>
       </c>
       <c r="D124" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E124" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G124" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="H124" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I124" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -5583,19 +5586,19 @@
         <v>138</v>
       </c>
       <c r="C125" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D125" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E125" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F125" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G125" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5609,43 +5612,43 @@
         <v>203</v>
       </c>
       <c r="D126" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E126" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F126" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G126" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H126" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I126" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="J126" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="K126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L126" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M126" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="N126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O126" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P126" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -5659,22 +5662,22 @@
         <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E127" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F127" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G127" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H127" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I127" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -5685,13 +5688,13 @@
         <v>141</v>
       </c>
       <c r="C128" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D128" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -5705,31 +5708,31 @@
         <v>204</v>
       </c>
       <c r="D129" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F129" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G129" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="H129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I129" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="J129" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K129" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L129" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -5743,31 +5746,31 @@
         <v>204</v>
       </c>
       <c r="D130" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E130" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F130" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G130" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H130" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I130" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="J130" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="K130" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="L130" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -5781,34 +5784,34 @@
         <v>203</v>
       </c>
       <c r="D131" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E131" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F131" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G131" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H131" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I131" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="J131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K131" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="L131" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M131" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -5822,28 +5825,28 @@
         <v>203</v>
       </c>
       <c r="D132" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E132" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F132" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G132" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H132" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I132" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="J132" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K132" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -5857,19 +5860,19 @@
         <v>203</v>
       </c>
       <c r="D133" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E133" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F133" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="G133" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H133" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -5883,43 +5886,43 @@
         <v>203</v>
       </c>
       <c r="D134" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E134" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F134" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G134" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I134" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L134" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M134" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="N134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="O134" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P134" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -5930,13 +5933,13 @@
         <v>148</v>
       </c>
       <c r="C135" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D135" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E135" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -5950,43 +5953,43 @@
         <v>203</v>
       </c>
       <c r="D136" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E136" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F136" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H136" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I136" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K136" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L136" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M136" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N136" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="O136" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P136" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -6000,43 +6003,43 @@
         <v>203</v>
       </c>
       <c r="D137" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E137" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F137" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G137" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I137" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K137" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M137" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N137" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O137" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="P137" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -6050,40 +6053,40 @@
         <v>203</v>
       </c>
       <c r="D138" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E138" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F138" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G138" t="s">
+        <v>359</v>
+      </c>
+      <c r="H138" t="s">
         <v>358</v>
       </c>
-      <c r="H138" t="s">
-        <v>357</v>
-      </c>
       <c r="I138" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J138" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="K138" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="L138" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M138" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N138" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="O138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="139" spans="1:16">
@@ -6094,28 +6097,28 @@
         <v>152</v>
       </c>
       <c r="C139" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D139" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E139" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G139" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H139" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I139" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="J139" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -6126,31 +6129,31 @@
         <v>153</v>
       </c>
       <c r="C140" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E140" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F140" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G140" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H140" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I140" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="J140" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="K140" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -6161,34 +6164,34 @@
         <v>154</v>
       </c>
       <c r="C141" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D141" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E141" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F141" t="s">
+        <v>359</v>
+      </c>
+      <c r="G141" t="s">
         <v>358</v>
       </c>
-      <c r="G141" t="s">
-        <v>357</v>
-      </c>
       <c r="H141" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I141" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J141" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K141" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L141" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -6199,19 +6202,19 @@
         <v>155</v>
       </c>
       <c r="C142" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D142" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E142" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F142" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G142" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -6222,43 +6225,43 @@
         <v>156</v>
       </c>
       <c r="C143" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D143" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E143" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F143" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G143" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H143" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I143" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J143" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K143" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="L143" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N143" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -6272,22 +6275,22 @@
         <v>203</v>
       </c>
       <c r="D144" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E144" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F144" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G144" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H144" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I144" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -6298,34 +6301,34 @@
         <v>158</v>
       </c>
       <c r="C145" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D145" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E145" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F145" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G145" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H145" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I145" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K145" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="146" spans="1:12">
@@ -6336,28 +6339,28 @@
         <v>159</v>
       </c>
       <c r="C146" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D146" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E146" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F146" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G146" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H146" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="I146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J146" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -6368,34 +6371,34 @@
         <v>160</v>
       </c>
       <c r="C147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D147" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E147" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F147" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G147" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H147" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I147" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J147" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K147" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L147" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -6409,28 +6412,28 @@
         <v>203</v>
       </c>
       <c r="D148" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F148" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G148" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H148" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I148" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J148" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K148" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -6441,31 +6444,31 @@
         <v>162</v>
       </c>
       <c r="C149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D149" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G149" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="H149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I149" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K149" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="150" spans="1:12">
@@ -6476,34 +6479,34 @@
         <v>163</v>
       </c>
       <c r="C150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D150" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E150" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G150" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H150" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I150" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="J150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K150" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L150" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="151" spans="1:12">
@@ -6514,28 +6517,28 @@
         <v>164</v>
       </c>
       <c r="C151" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D151" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E151" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F151" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G151" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I151" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="152" spans="1:12">
@@ -6546,13 +6549,13 @@
         <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D152" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E152" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:12">
@@ -6563,28 +6566,28 @@
         <v>166</v>
       </c>
       <c r="C153" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D153" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E153" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H153" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I153" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J153" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="154" spans="1:12">
@@ -6595,22 +6598,22 @@
         <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D154" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F154" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G154" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H154" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="155" spans="1:12">
@@ -6621,25 +6624,25 @@
         <v>168</v>
       </c>
       <c r="C155" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D155" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E155" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G155" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H155" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -6650,16 +6653,16 @@
         <v>169</v>
       </c>
       <c r="C156" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D156" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157" spans="1:12">
@@ -6670,13 +6673,13 @@
         <v>170</v>
       </c>
       <c r="C157" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D157" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="158" spans="1:12">
@@ -6687,10 +6690,10 @@
         <v>171</v>
       </c>
       <c r="C158" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D158" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="159" spans="1:12">
@@ -6701,10 +6704,10 @@
         <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D159" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="160" spans="1:12">
@@ -6715,19 +6718,19 @@
         <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D160" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E160" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G160" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="161" spans="1:16">
@@ -6738,13 +6741,13 @@
         <v>174</v>
       </c>
       <c r="C161" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D161" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -6755,13 +6758,13 @@
         <v>175</v>
       </c>
       <c r="C162" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D162" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E162" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -6772,13 +6775,13 @@
         <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D163" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E163" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -6789,13 +6792,13 @@
         <v>177</v>
       </c>
       <c r="C164" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D164" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E164" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -6809,13 +6812,13 @@
         <v>204</v>
       </c>
       <c r="D165" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E165" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F165" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:16">
@@ -6826,13 +6829,13 @@
         <v>179</v>
       </c>
       <c r="C166" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D166" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E166" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:16">
@@ -6843,19 +6846,19 @@
         <v>180</v>
       </c>
       <c r="C167" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D167" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E167" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F167" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G167" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -6866,16 +6869,16 @@
         <v>181</v>
       </c>
       <c r="C168" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D168" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F168" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -6886,16 +6889,16 @@
         <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D169" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E169" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -6909,43 +6912,43 @@
         <v>203</v>
       </c>
       <c r="D170" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E170" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F170" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G170" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="H170" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I170" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="J170" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K170" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="L170" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="M170" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N170" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O170" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="P170" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -6959,19 +6962,19 @@
         <v>203</v>
       </c>
       <c r="D171" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E171" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G171" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H171" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -6985,43 +6988,43 @@
         <v>203</v>
       </c>
       <c r="D172" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E172" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F172" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G172" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H172" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I172" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="J172" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K172" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M172" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="N172" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O172" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P172" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -7035,43 +7038,43 @@
         <v>203</v>
       </c>
       <c r="D173" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E173" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F173" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G173" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H173" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I173" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="J173" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="K173" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L173" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M173" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="N173" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="O173" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P173" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -7085,13 +7088,13 @@
         <v>203</v>
       </c>
       <c r="D174" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E174" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="F174" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -7105,28 +7108,28 @@
         <v>203</v>
       </c>
       <c r="D175" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E175" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G175" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H175" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I175" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J175" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K175" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -7137,46 +7140,46 @@
         <v>189</v>
       </c>
       <c r="C176" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D176" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E176" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F176" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G176" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H176" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I176" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="J176" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K176" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L176" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M176" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="N176" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="O176" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="P176" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7190,28 +7193,28 @@
         <v>203</v>
       </c>
       <c r="D177" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E177" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F177" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G177" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="H177" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I177" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J177" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K177" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7222,28 +7225,28 @@
         <v>191</v>
       </c>
       <c r="C178" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D178" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E178" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F178" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G178" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H178" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I178" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="J178" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7257,22 +7260,22 @@
         <v>203</v>
       </c>
       <c r="D179" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E179" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F179" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G179" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="H179" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I179" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7283,37 +7286,37 @@
         <v>193</v>
       </c>
       <c r="C180" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D180" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E180" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F180" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G180" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H180" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I180" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="J180" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K180" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L180" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M180" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7324,34 +7327,34 @@
         <v>194</v>
       </c>
       <c r="C181" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D181" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E181" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F181" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G181" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H181" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I181" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="J181" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K181" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="L181" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7362,34 +7365,34 @@
         <v>195</v>
       </c>
       <c r="C182" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D182" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E182" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F182" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G182" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H182" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I182" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="J182" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K182" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L182" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -7400,25 +7403,25 @@
         <v>196</v>
       </c>
       <c r="C183" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D183" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E183" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F183" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G183" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="I183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7429,25 +7432,25 @@
         <v>197</v>
       </c>
       <c r="C184" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D184" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E184" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F184" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G184" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H184" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I184" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -7458,16 +7461,16 @@
         <v>198</v>
       </c>
       <c r="C185" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D185" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E185" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F185" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -7478,13 +7481,13 @@
         <v>199</v>
       </c>
       <c r="C186" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D186" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E186" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -7495,13 +7498,13 @@
         <v>200</v>
       </c>
       <c r="C187" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D187" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E187" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:13">
@@ -7512,13 +7515,13 @@
         <v>201</v>
       </c>
       <c r="C188" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D188" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E188" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="189" spans="1:13">
@@ -7529,13 +7532,13 @@
         <v>202</v>
       </c>
       <c r="C189" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D189" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E189" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Castor_training.xlsx
+++ b/Documents/Castor_training.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1623" uniqueCount="484">
   <si>
     <t>SubjectID</t>
   </si>
@@ -646,12 +646,15 @@
     <t xml:space="preserve"> Lost to followup</t>
   </si>
   <si>
+    <t>Completed Study (or withdrawn/LTF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed </t>
+  </si>
+  <si>
     <t>withdrawn (LTF)</t>
   </si>
   <si>
-    <t xml:space="preserve">Completed </t>
-  </si>
-  <si>
     <t>Training</t>
   </si>
   <si>
@@ -919,261 +922,267 @@
     <t>15-08-2023</t>
   </si>
   <si>
+    <t>16-08-2023</t>
+  </si>
+  <si>
+    <t>25-08-2023</t>
+  </si>
+  <si>
+    <t>01-09-2023</t>
+  </si>
+  <si>
+    <t>03-11-2022</t>
+  </si>
+  <si>
+    <t>02-11-2022</t>
+  </si>
+  <si>
+    <t>08-02-2023</t>
+  </si>
+  <si>
+    <t>14-03-2023</t>
+  </si>
+  <si>
+    <t>23-03-2023</t>
+  </si>
+  <si>
+    <t>24-03-2023</t>
+  </si>
+  <si>
+    <t>19-04-2023</t>
+  </si>
+  <si>
+    <t>28-04-2023</t>
+  </si>
+  <si>
+    <t>09-05-2023</t>
+  </si>
+  <si>
+    <t>23-05-2023</t>
+  </si>
+  <si>
+    <t>08-06-2023</t>
+  </si>
+  <si>
+    <t>19-07-2023</t>
+  </si>
+  <si>
+    <t>20-07-2023</t>
+  </si>
+  <si>
+    <t>03-08-2023</t>
+  </si>
+  <si>
+    <t>04-09-2023</t>
+  </si>
+  <si>
+    <t>06-09-2023</t>
+  </si>
+  <si>
+    <t>07-09-2023</t>
+  </si>
+  <si>
+    <t>26-09-2022</t>
+  </si>
+  <si>
+    <t>29-09-2022</t>
+  </si>
+  <si>
+    <t>30-09-2022</t>
+  </si>
+  <si>
+    <t>27-09-2022</t>
+  </si>
+  <si>
+    <t>04-10-2022</t>
+  </si>
+  <si>
+    <t>27-10-2022</t>
+  </si>
+  <si>
+    <t>17-10-2022</t>
+  </si>
+  <si>
+    <t>08-12-2022</t>
+  </si>
+  <si>
+    <t>01-12-2022</t>
+  </si>
+  <si>
+    <t>27-02-2023</t>
+  </si>
+  <si>
+    <t>28-02-2023</t>
+  </si>
+  <si>
+    <t>27-03-2023</t>
+  </si>
+  <si>
+    <t>11-04-2023</t>
+  </si>
+  <si>
+    <t>13-04-2023</t>
+  </si>
+  <si>
+    <t>24-04-2023</t>
+  </si>
+  <si>
+    <t>02-05-2023</t>
+  </si>
+  <si>
+    <t>31-05-2023</t>
+  </si>
+  <si>
+    <t>09-06-2023</t>
+  </si>
+  <si>
+    <t>25-09-2023</t>
+  </si>
+  <si>
+    <t>11-07-2022</t>
+  </si>
+  <si>
+    <t>20-07-2022</t>
+  </si>
+  <si>
+    <t>15-08-2022</t>
+  </si>
+  <si>
+    <t>09-11-2022</t>
+  </si>
+  <si>
+    <t>08-11-2022</t>
+  </si>
+  <si>
+    <t>30-11-2022</t>
+  </si>
+  <si>
+    <t>13-12-2022</t>
+  </si>
+  <si>
+    <t>29-12-2022</t>
+  </si>
+  <si>
+    <t>31-01-2023</t>
+  </si>
+  <si>
+    <t>31-08-2023</t>
+  </si>
+  <si>
+    <t>02-08-2022</t>
+  </si>
+  <si>
+    <t>27-07-2022</t>
+  </si>
+  <si>
+    <t>03-08-2022</t>
+  </si>
+  <si>
+    <t>18-08-2022</t>
+  </si>
+  <si>
+    <t>30-08-2022</t>
+  </si>
+  <si>
+    <t>26-10-2022</t>
+  </si>
+  <si>
+    <t>01-11-2022</t>
+  </si>
+  <si>
+    <t>22-11-2022</t>
+  </si>
+  <si>
+    <t>09-01-2023</t>
+  </si>
+  <si>
+    <t>06-01-2023</t>
+  </si>
+  <si>
+    <t>25-01-2023</t>
+  </si>
+  <si>
+    <t>23-01-2023</t>
+  </si>
+  <si>
+    <t>24-01-2023</t>
+  </si>
+  <si>
+    <t>11-08-2023</t>
+  </si>
+  <si>
+    <t>08-08-2023</t>
+  </si>
+  <si>
+    <t>24-08-2023</t>
+  </si>
+  <si>
+    <t>14-09-2023</t>
+  </si>
+  <si>
+    <t>08-03-2023</t>
+  </si>
+  <si>
+    <t>03-04-2023</t>
+  </si>
+  <si>
+    <t>05-04-2023</t>
+  </si>
+  <si>
+    <t>27-04-2023</t>
+  </si>
+  <si>
+    <t>12-05-2023</t>
+  </si>
+  <si>
+    <t>06-06-2023</t>
+  </si>
+  <si>
+    <t>29-05-2023</t>
+  </si>
+  <si>
+    <t>30-05-2023</t>
+  </si>
+  <si>
+    <t>27-06-2023</t>
+  </si>
+  <si>
+    <t>22-06-2023</t>
+  </si>
+  <si>
+    <t>27-07-2023</t>
+  </si>
+  <si>
+    <t>09-08-2023</t>
+  </si>
+  <si>
+    <t>14-10-2022</t>
+  </si>
+  <si>
+    <t>06-03-2023</t>
+  </si>
+  <si>
+    <t>25-04-2023</t>
+  </si>
+  <si>
+    <t>08-05-2023</t>
+  </si>
+  <si>
+    <t>16-05-2023</t>
+  </si>
+  <si>
+    <t>05-06-2023</t>
+  </si>
+  <si>
+    <t>15-06-2023</t>
+  </si>
+  <si>
+    <t>16-06-2023</t>
+  </si>
+  <si>
     <t>07-08-2023</t>
   </si>
   <si>
-    <t>16-08-2023</t>
-  </si>
-  <si>
-    <t>25-08-2023</t>
-  </si>
-  <si>
-    <t>01-09-2023</t>
-  </si>
-  <si>
-    <t>03-11-2022</t>
-  </si>
-  <si>
-    <t>02-11-2022</t>
-  </si>
-  <si>
-    <t>08-02-2023</t>
-  </si>
-  <si>
-    <t>14-03-2023</t>
-  </si>
-  <si>
-    <t>23-03-2023</t>
-  </si>
-  <si>
-    <t>24-03-2023</t>
-  </si>
-  <si>
-    <t>19-04-2023</t>
-  </si>
-  <si>
-    <t>28-04-2023</t>
-  </si>
-  <si>
-    <t>09-05-2023</t>
-  </si>
-  <si>
-    <t>23-05-2023</t>
-  </si>
-  <si>
-    <t>08-06-2023</t>
-  </si>
-  <si>
-    <t>19-07-2023</t>
-  </si>
-  <si>
-    <t>20-07-2023</t>
-  </si>
-  <si>
-    <t>03-08-2023</t>
-  </si>
-  <si>
-    <t>04-09-2023</t>
-  </si>
-  <si>
-    <t>06-09-2023</t>
-  </si>
-  <si>
-    <t>07-09-2023</t>
-  </si>
-  <si>
-    <t>26-09-2022</t>
-  </si>
-  <si>
-    <t>29-09-2022</t>
-  </si>
-  <si>
-    <t>30-09-2022</t>
-  </si>
-  <si>
-    <t>27-09-2022</t>
-  </si>
-  <si>
-    <t>04-10-2022</t>
-  </si>
-  <si>
-    <t>27-10-2022</t>
-  </si>
-  <si>
-    <t>17-10-2022</t>
-  </si>
-  <si>
-    <t>08-12-2022</t>
-  </si>
-  <si>
-    <t>01-12-2022</t>
-  </si>
-  <si>
-    <t>27-02-2023</t>
-  </si>
-  <si>
-    <t>28-02-2023</t>
-  </si>
-  <si>
-    <t>27-03-2023</t>
-  </si>
-  <si>
-    <t>11-04-2023</t>
-  </si>
-  <si>
-    <t>13-04-2023</t>
-  </si>
-  <si>
-    <t>24-04-2023</t>
-  </si>
-  <si>
-    <t>02-05-2023</t>
-  </si>
-  <si>
-    <t>31-05-2023</t>
-  </si>
-  <si>
-    <t>09-06-2023</t>
-  </si>
-  <si>
-    <t>11-07-2022</t>
-  </si>
-  <si>
-    <t>20-07-2022</t>
-  </si>
-  <si>
-    <t>15-08-2022</t>
-  </si>
-  <si>
-    <t>09-11-2022</t>
-  </si>
-  <si>
-    <t>08-11-2022</t>
-  </si>
-  <si>
-    <t>30-11-2022</t>
-  </si>
-  <si>
-    <t>13-12-2022</t>
-  </si>
-  <si>
-    <t>29-12-2022</t>
-  </si>
-  <si>
-    <t>31-01-2023</t>
-  </si>
-  <si>
-    <t>31-08-2023</t>
-  </si>
-  <si>
-    <t>02-08-2022</t>
-  </si>
-  <si>
-    <t>27-07-2022</t>
-  </si>
-  <si>
-    <t>03-08-2022</t>
-  </si>
-  <si>
-    <t>18-08-2022</t>
-  </si>
-  <si>
-    <t>30-08-2022</t>
-  </si>
-  <si>
-    <t>26-10-2022</t>
-  </si>
-  <si>
-    <t>01-11-2022</t>
-  </si>
-  <si>
-    <t>22-11-2022</t>
-  </si>
-  <si>
-    <t>09-01-2023</t>
-  </si>
-  <si>
-    <t>06-01-2023</t>
-  </si>
-  <si>
-    <t>25-01-2023</t>
-  </si>
-  <si>
-    <t>23-01-2023</t>
-  </si>
-  <si>
-    <t>24-01-2023</t>
-  </si>
-  <si>
-    <t>11-08-2023</t>
-  </si>
-  <si>
-    <t>08-08-2023</t>
-  </si>
-  <si>
-    <t>24-08-2023</t>
-  </si>
-  <si>
-    <t>08-03-2023</t>
-  </si>
-  <si>
-    <t>03-04-2023</t>
-  </si>
-  <si>
-    <t>05-04-2023</t>
-  </si>
-  <si>
-    <t>27-04-2023</t>
-  </si>
-  <si>
-    <t>12-05-2023</t>
-  </si>
-  <si>
-    <t>06-06-2023</t>
-  </si>
-  <si>
-    <t>29-05-2023</t>
-  </si>
-  <si>
-    <t>30-05-2023</t>
-  </si>
-  <si>
-    <t>27-06-2023</t>
-  </si>
-  <si>
-    <t>22-06-2023</t>
-  </si>
-  <si>
-    <t>27-07-2023</t>
-  </si>
-  <si>
-    <t>09-08-2023</t>
-  </si>
-  <si>
-    <t>14-10-2022</t>
-  </si>
-  <si>
-    <t>06-03-2023</t>
-  </si>
-  <si>
-    <t>25-04-2023</t>
-  </si>
-  <si>
-    <t>08-05-2023</t>
-  </si>
-  <si>
-    <t>16-05-2023</t>
-  </si>
-  <si>
-    <t>05-06-2023</t>
-  </si>
-  <si>
-    <t>15-06-2023</t>
-  </si>
-  <si>
-    <t>16-06-2023</t>
-  </si>
-  <si>
     <t>06-09-2022</t>
   </si>
   <si>
@@ -1198,9 +1207,6 @@
     <t>09-09-2023</t>
   </si>
   <si>
-    <t>14-09-2023</t>
-  </si>
-  <si>
     <t>21-07-2022</t>
   </si>
   <si>
@@ -1225,6 +1231,12 @@
     <t>21-08-2023</t>
   </si>
   <si>
+    <t>13-09-2023</t>
+  </si>
+  <si>
+    <t>15-09-2023</t>
+  </si>
+  <si>
     <t>20-06-2023</t>
   </si>
   <si>
@@ -1258,6 +1270,9 @@
     <t>12-06-2023</t>
   </si>
   <si>
+    <t>14-08-2023</t>
+  </si>
+  <si>
     <t>01-08-2022</t>
   </si>
   <si>
@@ -1288,7 +1303,7 @@
     <t>07-02-2023</t>
   </si>
   <si>
-    <t>14-08-2023</t>
+    <t>18-09-2023</t>
   </si>
   <si>
     <t>04-04-2023</t>
@@ -1872,28 +1887,28 @@
         <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G2" t="s">
         <v>324</v>
       </c>
       <c r="H2" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="I2" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J2" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K2" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1907,31 +1922,31 @@
         <v>203</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
         <v>322</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H3" t="s">
         <v>328</v>
       </c>
       <c r="I3" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="J3" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="K3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="L3" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1945,22 +1960,22 @@
         <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F4" t="s">
         <v>323</v>
       </c>
       <c r="G4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="H4" t="s">
         <v>327</v>
       </c>
       <c r="I4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="J4" t="s">
         <v>330</v>
@@ -1977,10 +1992,10 @@
         <v>204</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F5" t="s">
         <v>323</v>
@@ -1997,25 +2012,25 @@
         <v>203</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F6" t="s">
         <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H6" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="I6" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="J6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2029,10 +2044,10 @@
         <v>203</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F7" t="s">
         <v>325</v>
@@ -2041,22 +2056,22 @@
         <v>326</v>
       </c>
       <c r="H7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L7" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2070,28 +2085,28 @@
         <v>203</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F8" t="s">
         <v>326</v>
       </c>
       <c r="G8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J8" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2105,22 +2120,22 @@
         <v>203</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F9" t="s">
         <v>327</v>
       </c>
       <c r="G9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H9" t="s">
         <v>330</v>
       </c>
       <c r="I9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2134,22 +2149,22 @@
         <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F10" t="s">
         <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I10" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2163,28 +2178,28 @@
         <v>203</v>
       </c>
       <c r="D11" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F11" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G11" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H11" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J11" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="K11" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2198,31 +2213,31 @@
         <v>203</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G12" t="s">
         <v>330</v>
       </c>
       <c r="H12" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I12" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="J12" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K12" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L12" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -2236,34 +2251,34 @@
         <v>203</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E13" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G13" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H13" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M13" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -2277,25 +2292,25 @@
         <v>203</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F14" t="s">
         <v>329</v>
       </c>
       <c r="G14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H14" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="I14" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J14" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -2309,31 +2324,31 @@
         <v>203</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F15" t="s">
         <v>330</v>
       </c>
       <c r="G15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H15" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I15" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="J15" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K15" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L15" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -2347,40 +2362,40 @@
         <v>203</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F16" t="s">
         <v>329</v>
       </c>
       <c r="G16" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H16" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I16" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="J16" t="s">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="K16" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L16" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="M16" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="N16" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="O16" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -2394,25 +2409,25 @@
         <v>203</v>
       </c>
       <c r="D17" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E17" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F17" t="s">
         <v>331</v>
       </c>
       <c r="G17" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H17" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I17" t="s">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="J17" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -2426,10 +2441,10 @@
         <v>203</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F18" t="s">
         <v>332</v>
@@ -2438,13 +2453,13 @@
         <v>308</v>
       </c>
       <c r="H18" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I18" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="J18" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -2458,10 +2473,10 @@
         <v>205</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E19" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="F19" t="s">
         <v>333</v>
@@ -2478,16 +2493,16 @@
         <v>203</v>
       </c>
       <c r="D20" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E20" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F20" t="s">
         <v>334</v>
       </c>
       <c r="G20" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H20" t="s">
         <v>313</v>
@@ -2496,7 +2511,7 @@
         <v>314</v>
       </c>
       <c r="J20" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2510,10 +2525,10 @@
         <v>204</v>
       </c>
       <c r="D21" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E21" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F21" t="s">
         <v>335</v>
@@ -2530,28 +2545,28 @@
         <v>203</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E22" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F22" t="s">
         <v>336</v>
       </c>
       <c r="G22" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="H22" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I22" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="J22" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K22" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2565,28 +2580,28 @@
         <v>203</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F23" t="s">
         <v>337</v>
       </c>
       <c r="G23" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="H23" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="I23" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="J23" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K23" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2600,43 +2615,43 @@
         <v>203</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E24" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F24" t="s">
         <v>338</v>
       </c>
       <c r="G24" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H24" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="I24" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="J24" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="K24" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="L24" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="M24" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N24" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O24" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P24" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2650,40 +2665,40 @@
         <v>203</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F25" t="s">
         <v>315</v>
       </c>
       <c r="G25" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="H25" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="I25" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="J25" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K25" t="s">
         <v>317</v>
       </c>
       <c r="L25" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M25" t="s">
         <v>318</v>
       </c>
       <c r="N25" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="O25" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2697,37 +2712,37 @@
         <v>203</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E26" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F26" t="s">
         <v>339</v>
       </c>
       <c r="G26" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H26" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="I26" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="J26" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K26" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L26" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="M26" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="N26" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2741,10 +2756,10 @@
         <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E27" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F27" t="s">
         <v>339</v>
@@ -2761,19 +2776,31 @@
         <v>206</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F28" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G28" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="H28" t="s">
-        <v>402</v>
+        <v>418</v>
+      </c>
+      <c r="I28" t="s">
+        <v>404</v>
+      </c>
+      <c r="J28" t="s">
+        <v>267</v>
+      </c>
+      <c r="K28" t="s">
+        <v>239</v>
+      </c>
+      <c r="L28" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2787,10 +2814,10 @@
         <v>206</v>
       </c>
       <c r="D29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2804,10 +2831,13 @@
         <v>206</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E30" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="F30" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2821,10 +2851,10 @@
         <v>206</v>
       </c>
       <c r="D31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2838,10 +2868,10 @@
         <v>207</v>
       </c>
       <c r="D32" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E32" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:15">
@@ -2855,25 +2885,25 @@
         <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E33" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F33" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H33" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I33" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J33" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="34" spans="1:15">
@@ -2887,28 +2917,28 @@
         <v>203</v>
       </c>
       <c r="D34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F34" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G34" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M34" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O34" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="35" spans="1:15">
@@ -2922,37 +2952,37 @@
         <v>203</v>
       </c>
       <c r="D35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E35" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F35" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K35" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L35" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M35" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N35" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" spans="1:15">
@@ -2966,10 +2996,10 @@
         <v>207</v>
       </c>
       <c r="D36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:15">
@@ -2983,19 +3013,19 @@
         <v>203</v>
       </c>
       <c r="D37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E37" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F37" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G37" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H37" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="38" spans="1:15">
@@ -3009,22 +3039,22 @@
         <v>208</v>
       </c>
       <c r="D38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G38" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I38" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="L38" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="39" spans="1:15">
@@ -3038,37 +3068,37 @@
         <v>203</v>
       </c>
       <c r="D39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E39" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G39" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I39" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J39" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K39" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L39" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N39" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -3082,22 +3112,22 @@
         <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E40" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H40" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:15">
@@ -3111,19 +3141,19 @@
         <v>203</v>
       </c>
       <c r="D41" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E41" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F41" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G41" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H41" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:15">
@@ -3137,28 +3167,28 @@
         <v>203</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G42" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H42" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="I42" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J42" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K42" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="43" spans="1:15">
@@ -3172,16 +3202,16 @@
         <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F43" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="44" spans="1:15">
@@ -3195,34 +3225,34 @@
         <v>203</v>
       </c>
       <c r="D44" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G44" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H44" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I44" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="J44" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="K44" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M44" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N44" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" spans="1:15">
@@ -3236,13 +3266,13 @@
         <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F45" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:15">
@@ -3256,13 +3286,13 @@
         <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:15">
@@ -3276,16 +3306,16 @@
         <v>203</v>
       </c>
       <c r="D47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G47" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:15">
@@ -3299,22 +3329,22 @@
         <v>203</v>
       </c>
       <c r="D48" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E48" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G48" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H48" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="J48" t="s">
         <v>325</v>
@@ -3323,13 +3353,13 @@
         <v>326</v>
       </c>
       <c r="L48" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="O48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3343,31 +3373,31 @@
         <v>203</v>
       </c>
       <c r="D49" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E49" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G49" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I49" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J49" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K49" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="L49" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3381,16 +3411,16 @@
         <v>203</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E50" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F50" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H50" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3404,43 +3434,43 @@
         <v>203</v>
       </c>
       <c r="D51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E51" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G51" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="H51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="I51" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="J51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K51" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L51" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M51" t="s">
         <v>306</v>
       </c>
       <c r="N51" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="O51" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="P51" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3454,19 +3484,19 @@
         <v>203</v>
       </c>
       <c r="D52" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F52" t="s">
         <v>322</v>
       </c>
       <c r="G52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H52" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3480,10 +3510,10 @@
         <v>203</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E53" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F53" t="s">
         <v>325</v>
@@ -3492,25 +3522,25 @@
         <v>326</v>
       </c>
       <c r="H53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="I53" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J53" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L53" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M53" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N53" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3524,34 +3554,34 @@
         <v>203</v>
       </c>
       <c r="D54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F54" t="s">
         <v>325</v>
       </c>
       <c r="G54" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="I54" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K54" t="s">
         <v>306</v>
       </c>
       <c r="L54" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M54" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N54" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="O54" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3565,25 +3595,25 @@
         <v>203</v>
       </c>
       <c r="D55" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E55" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F55" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G55" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H55" t="s">
         <v>306</v>
       </c>
       <c r="I55" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J55" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3597,43 +3627,43 @@
         <v>203</v>
       </c>
       <c r="D56" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E56" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F56" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="G56" t="s">
         <v>306</v>
       </c>
       <c r="H56" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I56" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="J56" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K56" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L56" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="M56" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="N56" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="O56" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P56" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3647,10 +3677,10 @@
         <v>207</v>
       </c>
       <c r="D57" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E57" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3664,13 +3694,13 @@
         <v>208</v>
       </c>
       <c r="D58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E58" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F58" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3684,28 +3714,28 @@
         <v>208</v>
       </c>
       <c r="D59" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E59" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F59" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G59" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H59" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I59" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J59" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -3719,40 +3749,40 @@
         <v>203</v>
       </c>
       <c r="D60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E60" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F60" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="H60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I60" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J60" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K60" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L60" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M60" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="O60" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -3766,43 +3796,43 @@
         <v>203</v>
       </c>
       <c r="D61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E61" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F61" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G61" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H61" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I61" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="J61" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K61" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L61" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M61" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="N61" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O61" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P61" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -3816,16 +3846,16 @@
         <v>203</v>
       </c>
       <c r="D62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E62" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G62" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -3839,13 +3869,13 @@
         <v>208</v>
       </c>
       <c r="D63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E63" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F63" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -3859,13 +3889,13 @@
         <v>208</v>
       </c>
       <c r="D64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E64" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F64" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -3879,43 +3909,43 @@
         <v>203</v>
       </c>
       <c r="D65" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E65" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G65" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="H65" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="I65" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K65" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L65" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M65" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N65" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="O65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -3929,16 +3959,16 @@
         <v>208</v>
       </c>
       <c r="D66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E66" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F66" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G66" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="H66" t="s">
         <v>307</v>
@@ -3955,43 +3985,43 @@
         <v>203</v>
       </c>
       <c r="D67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F67" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G67" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H67" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J67" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K67" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L67" t="s">
         <v>307</v>
       </c>
       <c r="M67" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="N67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O67" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="P67" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4005,19 +4035,19 @@
         <v>203</v>
       </c>
       <c r="D68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E68" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F68" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G68" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H68" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4031,22 +4061,22 @@
         <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E69" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F69" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G69" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H69" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="I69" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4060,31 +4090,31 @@
         <v>203</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F70" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G70" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="H70" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="I70" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="J70" t="s">
         <v>331</v>
       </c>
       <c r="K70" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L70" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4098,13 +4128,13 @@
         <v>206</v>
       </c>
       <c r="D71" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E71" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F71" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4118,13 +4148,13 @@
         <v>206</v>
       </c>
       <c r="D72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E72" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G72" t="s">
         <v>320</v>
@@ -4141,10 +4171,10 @@
         <v>206</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E73" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4158,16 +4188,16 @@
         <v>206</v>
       </c>
       <c r="D74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E74" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F74" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G74" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4181,10 +4211,10 @@
         <v>206</v>
       </c>
       <c r="D75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4198,10 +4228,10 @@
         <v>206</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F76" t="s">
         <v>321</v>
@@ -4218,16 +4248,16 @@
         <v>206</v>
       </c>
       <c r="D77" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G77" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4241,13 +4271,13 @@
         <v>206</v>
       </c>
       <c r="D78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F78" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4261,13 +4291,13 @@
         <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -4281,13 +4311,13 @@
         <v>206</v>
       </c>
       <c r="D80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F80" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -4301,13 +4331,13 @@
         <v>206</v>
       </c>
       <c r="D81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F81" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -4321,10 +4351,10 @@
         <v>206</v>
       </c>
       <c r="D82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F82" t="s">
         <v>320</v>
@@ -4341,13 +4371,13 @@
         <v>206</v>
       </c>
       <c r="D83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F83" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -4361,13 +4391,13 @@
         <v>206</v>
       </c>
       <c r="D84" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F84" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -4381,13 +4411,13 @@
         <v>206</v>
       </c>
       <c r="D85" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -4401,10 +4431,10 @@
         <v>206</v>
       </c>
       <c r="D86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -4418,10 +4448,10 @@
         <v>206</v>
       </c>
       <c r="D87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -4435,13 +4465,13 @@
         <v>206</v>
       </c>
       <c r="D88" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -4455,10 +4485,10 @@
         <v>206</v>
       </c>
       <c r="D89" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F89" t="s">
         <v>320</v>
@@ -4475,16 +4505,16 @@
         <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F90" t="s">
         <v>320</v>
       </c>
       <c r="G90" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -4498,10 +4528,10 @@
         <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E91" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -4515,10 +4545,10 @@
         <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -4532,10 +4562,10 @@
         <v>206</v>
       </c>
       <c r="D93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -4549,37 +4579,37 @@
         <v>203</v>
       </c>
       <c r="D94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F94" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G94" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H94" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I94" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J94" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K94" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L94" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M94" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N94" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -4593,25 +4623,25 @@
         <v>203</v>
       </c>
       <c r="D95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F95" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H95" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J95" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -4625,43 +4655,43 @@
         <v>203</v>
       </c>
       <c r="D96" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F96" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H96" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I96" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J96" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K96" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L96" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="M96" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N96" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="O96" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="P96" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -4675,43 +4705,43 @@
         <v>203</v>
       </c>
       <c r="D97" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F97" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G97" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H97" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I97" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="J97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K97" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L97" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="N97" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O97" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="P97" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -4725,31 +4755,31 @@
         <v>203</v>
       </c>
       <c r="D98" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E98" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F98" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G98" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H98" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I98" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J98" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="K98" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="L98" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -4763,25 +4793,25 @@
         <v>203</v>
       </c>
       <c r="D99" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E99" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F99" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G99" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H99" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I99" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="J99" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -4795,19 +4825,19 @@
         <v>203</v>
       </c>
       <c r="D100" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E100" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F100" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="G100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -4821,10 +4851,10 @@
         <v>204</v>
       </c>
       <c r="D101" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="102" spans="1:16">
@@ -4838,43 +4868,43 @@
         <v>203</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F102" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I102" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="J102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K102" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L102" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="M102" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N102" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O102" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P102" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="103" spans="1:16">
@@ -4888,16 +4918,16 @@
         <v>203</v>
       </c>
       <c r="D103" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E103" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G103" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:16">
@@ -4911,37 +4941,37 @@
         <v>203</v>
       </c>
       <c r="D104" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E104" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F104" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G104" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H104" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I104" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J104" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K104" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L104" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="M104" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="N104" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="105" spans="1:16">
@@ -4955,34 +4985,34 @@
         <v>203</v>
       </c>
       <c r="D105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E105" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G105" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H105" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="I105" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="J105" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K105" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L105" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M105" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:16">
@@ -4996,16 +5026,16 @@
         <v>203</v>
       </c>
       <c r="D106" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E106" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F106" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G106" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="107" spans="1:16">
@@ -5019,40 +5049,40 @@
         <v>203</v>
       </c>
       <c r="D107" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E107" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F107" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G107" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H107" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I107" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="J107" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K107" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="L107" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="M107" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="O107" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="P107" t="s">
         <v>322</v>
@@ -5069,40 +5099,40 @@
         <v>203</v>
       </c>
       <c r="D108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E108" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G108" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H108" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I108" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="J108" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K108" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="L108" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M108" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N108" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O108" t="s">
-        <v>476</v>
+        <v>481</v>
       </c>
       <c r="P108" t="s">
         <v>324</v>
@@ -5119,10 +5149,10 @@
         <v>204</v>
       </c>
       <c r="D109" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E109" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="110" spans="1:16">
@@ -5136,43 +5166,43 @@
         <v>203</v>
       </c>
       <c r="D110" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E110" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G110" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H110" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I110" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="J110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K110" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="L110" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M110" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="N110" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="O110" t="s">
         <v>325</v>
       </c>
       <c r="P110" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:16">
@@ -5186,16 +5216,16 @@
         <v>203</v>
       </c>
       <c r="D111" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E111" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G111" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="112" spans="1:16">
@@ -5209,10 +5239,10 @@
         <v>204</v>
       </c>
       <c r="D112" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E112" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:16">
@@ -5226,22 +5256,22 @@
         <v>208</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F113" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G113" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H113" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="I113" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="J113" t="s">
         <v>323</v>
@@ -5258,22 +5288,22 @@
         <v>203</v>
       </c>
       <c r="D114" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F114" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G114" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H114" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="115" spans="1:16">
@@ -5287,16 +5317,16 @@
         <v>203</v>
       </c>
       <c r="D115" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F115" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G115" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:16">
@@ -5310,16 +5340,16 @@
         <v>203</v>
       </c>
       <c r="D116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E116" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F116" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G116" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="117" spans="1:16">
@@ -5333,19 +5363,19 @@
         <v>203</v>
       </c>
       <c r="D117" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E117" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F117" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G117" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H117" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="118" spans="1:16">
@@ -5359,19 +5389,19 @@
         <v>203</v>
       </c>
       <c r="D118" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E118" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F118" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G118" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H118" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="119" spans="1:16">
@@ -5385,19 +5415,19 @@
         <v>208</v>
       </c>
       <c r="D119" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E119" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F119" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G119" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H119" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I119" t="s">
         <v>325</v>
@@ -5414,13 +5444,13 @@
         <v>208</v>
       </c>
       <c r="D120" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F120" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:16">
@@ -5434,40 +5464,40 @@
         <v>203</v>
       </c>
       <c r="D121" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E121" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G121" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="H121" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I121" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="J121" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K121" t="s">
         <v>325</v>
       </c>
       <c r="L121" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="M121" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N121" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O121" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" spans="1:16">
@@ -5481,40 +5511,40 @@
         <v>203</v>
       </c>
       <c r="D122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F122" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G122" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="H122" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="I122" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="J122" t="s">
         <v>322</v>
       </c>
       <c r="K122" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="L122" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="M122" t="s">
         <v>328</v>
       </c>
       <c r="N122" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="O122" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P122" t="s">
         <v>305</v>
@@ -5531,19 +5561,19 @@
         <v>203</v>
       </c>
       <c r="D123" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E123" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F123" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G123" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="H123" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I123" t="s">
         <v>328</v>
@@ -5560,22 +5590,22 @@
         <v>203</v>
       </c>
       <c r="D124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E124" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F124" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G124" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="H124" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="I124" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="125" spans="1:16">
@@ -5589,16 +5619,16 @@
         <v>208</v>
       </c>
       <c r="D125" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F125" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G125" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="126" spans="1:16">
@@ -5612,43 +5642,43 @@
         <v>203</v>
       </c>
       <c r="D126" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E126" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F126" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G126" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H126" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="I126" t="s">
         <v>322</v>
       </c>
       <c r="J126" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="K126" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L126" t="s">
         <v>328</v>
       </c>
       <c r="M126" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N126" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O126" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P126" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="127" spans="1:16">
@@ -5662,22 +5692,22 @@
         <v>203</v>
       </c>
       <c r="D127" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E127" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F127" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G127" t="s">
         <v>322</v>
       </c>
       <c r="H127" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I127" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="128" spans="1:16">
@@ -5691,10 +5721,10 @@
         <v>209</v>
       </c>
       <c r="D128" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="129" spans="1:16">
@@ -5708,31 +5738,31 @@
         <v>204</v>
       </c>
       <c r="D129" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F129" t="s">
         <v>328</v>
       </c>
       <c r="G129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H129" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I129" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="J129" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K129" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="L129" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="130" spans="1:16">
@@ -5746,31 +5776,31 @@
         <v>204</v>
       </c>
       <c r="D130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F130" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G130" t="s">
         <v>306</v>
       </c>
       <c r="H130" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J130" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="K130" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="L130" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:16">
@@ -5784,34 +5814,34 @@
         <v>203</v>
       </c>
       <c r="D131" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E131" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F131" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G131" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="I131" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="J131" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K131" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="L131" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="M131" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
     </row>
     <row r="132" spans="1:16">
@@ -5825,28 +5855,28 @@
         <v>203</v>
       </c>
       <c r="D132" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E132" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F132" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G132" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H132" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="I132" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K132" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:16">
@@ -5860,19 +5890,19 @@
         <v>203</v>
       </c>
       <c r="D133" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E133" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F133" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G133" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H133" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="134" spans="1:16">
@@ -5886,43 +5916,43 @@
         <v>203</v>
       </c>
       <c r="D134" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E134" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F134" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G134" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H134" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I134" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="J134" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K134" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L134" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="M134" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="N134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="O134" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P134" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="135" spans="1:16">
@@ -5936,10 +5966,10 @@
         <v>207</v>
       </c>
       <c r="D135" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E135" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="136" spans="1:16">
@@ -5953,43 +5983,43 @@
         <v>203</v>
       </c>
       <c r="D136" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G136" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H136" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I136" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J136" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K136" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L136" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M136" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N136" t="s">
         <v>307</v>
       </c>
       <c r="O136" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P136" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
     </row>
     <row r="137" spans="1:16">
@@ -6003,43 +6033,43 @@
         <v>203</v>
       </c>
       <c r="D137" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E137" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F137" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G137" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H137" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I137" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="J137" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="K137" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L137" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="M137" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N137" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="O137" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="P137" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" spans="1:16">
@@ -6053,37 +6083,37 @@
         <v>203</v>
       </c>
       <c r="D138" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E138" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F138" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G138" t="s">
+        <v>360</v>
+      </c>
+      <c r="H138" t="s">
         <v>359</v>
       </c>
-      <c r="H138" t="s">
-        <v>358</v>
-      </c>
       <c r="I138" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J138" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K138" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L138" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="M138" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="N138" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="O138" t="s">
         <v>331</v>
@@ -6100,25 +6130,25 @@
         <v>208</v>
       </c>
       <c r="D139" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E139" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F139" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G139" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H139" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I139" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="J139" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:16">
@@ -6132,28 +6162,28 @@
         <v>208</v>
       </c>
       <c r="D140" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E140" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F140" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G140" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H140" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I140" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="J140" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="K140" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="141" spans="1:16">
@@ -6167,31 +6197,31 @@
         <v>208</v>
       </c>
       <c r="D141" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E141" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F141" t="s">
+        <v>360</v>
+      </c>
+      <c r="G141" t="s">
         <v>359</v>
       </c>
-      <c r="G141" t="s">
-        <v>358</v>
-      </c>
       <c r="H141" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="I141" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="J141" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="K141" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L141" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="142" spans="1:16">
@@ -6205,16 +6235,16 @@
         <v>208</v>
       </c>
       <c r="D142" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E142" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F142" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G142" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="143" spans="1:16">
@@ -6228,40 +6258,40 @@
         <v>208</v>
       </c>
       <c r="D143" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E143" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="F143" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G143" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H143" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="I143" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J143" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="K143" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="L143" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M143" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N143" t="s">
         <v>309</v>
       </c>
       <c r="O143" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="144" spans="1:16">
@@ -6275,25 +6305,25 @@
         <v>203</v>
       </c>
       <c r="D144" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E144" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F144" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G144" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H144" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="I144" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="145" spans="1:12">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6304,34 +6334,37 @@
         <v>206</v>
       </c>
       <c r="D145" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E145" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F145" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G145" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="H145" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I145" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J145" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K145" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L145" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="146" spans="1:12">
+        <v>239</v>
+      </c>
+      <c r="M145" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -6342,28 +6375,31 @@
         <v>206</v>
       </c>
       <c r="D146" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E146" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F146" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G146" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="H146" t="s">
         <v>303</v>
       </c>
       <c r="I146" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J146" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12">
+        <v>239</v>
+      </c>
+      <c r="K146" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6374,34 +6410,37 @@
         <v>206</v>
       </c>
       <c r="D147" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E147" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F147" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G147" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H147" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I147" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K147" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L147" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12">
+        <v>239</v>
+      </c>
+      <c r="M147" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6412,31 +6451,31 @@
         <v>203</v>
       </c>
       <c r="D148" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E148" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F148" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G148" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H148" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I148" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K148" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6447,31 +6486,37 @@
         <v>206</v>
       </c>
       <c r="D149" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E149" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F149" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G149" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="H149" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I149" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K149" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="150" spans="1:12">
+        <v>238</v>
+      </c>
+      <c r="L149" t="s">
+        <v>367</v>
+      </c>
+      <c r="M149" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6482,34 +6527,37 @@
         <v>206</v>
       </c>
       <c r="D150" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G150" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="H150" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="I150" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="J150" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K150" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L150" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12">
+        <v>239</v>
+      </c>
+      <c r="M150" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6520,28 +6568,31 @@
         <v>206</v>
       </c>
       <c r="D151" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E151" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F151" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G151" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I151" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J151" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12">
+        <v>239</v>
+      </c>
+      <c r="K151" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6549,16 +6600,16 @@
         <v>165</v>
       </c>
       <c r="C152" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D152" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E152" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -6569,28 +6620,31 @@
         <v>206</v>
       </c>
       <c r="D153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F153" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G153" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H153" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I153" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J153" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12">
+        <v>238</v>
+      </c>
+      <c r="K153" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6601,22 +6655,28 @@
         <v>206</v>
       </c>
       <c r="D154" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E154" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G154" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H154" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12">
+        <v>238</v>
+      </c>
+      <c r="I154" t="s">
+        <v>367</v>
+      </c>
+      <c r="J154" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6624,28 +6684,28 @@
         <v>168</v>
       </c>
       <c r="C155" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D155" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E155" t="s">
         <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H155" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I155" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -6653,19 +6713,22 @@
         <v>169</v>
       </c>
       <c r="C156" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="D156" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E156" t="s">
         <v>302</v>
       </c>
       <c r="F156" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12">
+        <v>366</v>
+      </c>
+      <c r="G156" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -6676,13 +6739,16 @@
         <v>206</v>
       </c>
       <c r="D157" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E157" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="158" spans="1:12">
+      <c r="G157" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6693,10 +6759,22 @@
         <v>206</v>
       </c>
       <c r="D158" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12">
+        <v>213</v>
+      </c>
+      <c r="E158" t="s">
+        <v>266</v>
+      </c>
+      <c r="F158" t="s">
+        <v>267</v>
+      </c>
+      <c r="G158" t="s">
+        <v>405</v>
+      </c>
+      <c r="H158" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6704,13 +6782,22 @@
         <v>172</v>
       </c>
       <c r="C159" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D159" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12">
+        <v>213</v>
+      </c>
+      <c r="E159" t="s">
+        <v>266</v>
+      </c>
+      <c r="F159" t="s">
+        <v>267</v>
+      </c>
+      <c r="G159" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6718,16 +6805,16 @@
         <v>173</v>
       </c>
       <c r="C160" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D160" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E160" t="s">
         <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G160" t="s">
         <v>320</v>
@@ -6744,10 +6831,16 @@
         <v>206</v>
       </c>
       <c r="D161" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E161" t="s">
         <v>304</v>
+      </c>
+      <c r="G161" t="s">
+        <v>367</v>
+      </c>
+      <c r="H161" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="162" spans="1:16">
@@ -6761,10 +6854,16 @@
         <v>206</v>
       </c>
       <c r="D162" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E162" t="s">
-        <v>237</v>
+        <v>238</v>
+      </c>
+      <c r="F162" t="s">
+        <v>367</v>
+      </c>
+      <c r="G162" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="163" spans="1:16">
@@ -6778,10 +6877,10 @@
         <v>206</v>
       </c>
       <c r="D163" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E163" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="164" spans="1:16">
@@ -6795,10 +6894,10 @@
         <v>206</v>
       </c>
       <c r="D164" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E164" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="165" spans="1:16">
@@ -6812,10 +6911,10 @@
         <v>204</v>
       </c>
       <c r="D165" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E165" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F165" t="s">
         <v>306</v>
@@ -6832,7 +6931,7 @@
         <v>207</v>
       </c>
       <c r="D166" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E166" t="s">
         <v>305</v>
@@ -6849,16 +6948,16 @@
         <v>208</v>
       </c>
       <c r="D167" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E167" t="s">
         <v>306</v>
       </c>
       <c r="F167" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G167" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:16">
@@ -6872,13 +6971,13 @@
         <v>208</v>
       </c>
       <c r="D168" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E168" t="s">
         <v>306</v>
       </c>
       <c r="F168" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="169" spans="1:16">
@@ -6889,16 +6988,16 @@
         <v>182</v>
       </c>
       <c r="C169" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D169" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E169" t="s">
         <v>307</v>
       </c>
       <c r="F169" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="170" spans="1:16">
@@ -6912,7 +7011,7 @@
         <v>203</v>
       </c>
       <c r="D170" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E170" t="s">
         <v>308</v>
@@ -6921,34 +7020,34 @@
         <v>309</v>
       </c>
       <c r="G170" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H170" t="s">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="I170" t="s">
         <v>334</v>
       </c>
       <c r="J170" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K170" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="L170" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="M170" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="N170" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="O170" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="P170" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="171" spans="1:16">
@@ -6962,19 +7061,19 @@
         <v>203</v>
       </c>
       <c r="D171" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E171" t="s">
         <v>309</v>
       </c>
       <c r="F171" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G171" t="s">
         <v>334</v>
       </c>
       <c r="H171" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
     </row>
     <row r="172" spans="1:16">
@@ -6988,22 +7087,22 @@
         <v>203</v>
       </c>
       <c r="D172" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E172" t="s">
         <v>310</v>
       </c>
       <c r="F172" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G172" t="s">
         <v>334</v>
       </c>
       <c r="H172" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="I172" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="J172" t="s">
         <v>337</v>
@@ -7012,19 +7111,19 @@
         <v>313</v>
       </c>
       <c r="L172" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M172" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="N172" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="O172" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="P172" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
     </row>
     <row r="173" spans="1:16">
@@ -7038,43 +7137,43 @@
         <v>203</v>
       </c>
       <c r="D173" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E173" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F173" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G173" t="s">
         <v>334</v>
       </c>
       <c r="H173" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="I173" t="s">
         <v>312</v>
       </c>
       <c r="J173" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K173" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L173" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M173" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N173" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="O173" t="s">
         <v>318</v>
       </c>
       <c r="P173" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="174" spans="1:16">
@@ -7088,13 +7187,13 @@
         <v>203</v>
       </c>
       <c r="D174" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E174" t="s">
         <v>311</v>
       </c>
       <c r="F174" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="175" spans="1:16">
@@ -7108,28 +7207,28 @@
         <v>203</v>
       </c>
       <c r="D175" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E175" t="s">
         <v>312</v>
       </c>
       <c r="F175" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G175" t="s">
         <v>314</v>
       </c>
       <c r="H175" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="I175" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J175" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="K175" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="176" spans="1:16">
@@ -7143,7 +7242,7 @@
         <v>211</v>
       </c>
       <c r="D176" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E176" t="s">
         <v>313</v>
@@ -7152,34 +7251,34 @@
         <v>314</v>
       </c>
       <c r="G176" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="H176" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I176" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J176" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K176" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L176" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M176" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O176" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P176" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7193,7 +7292,7 @@
         <v>203</v>
       </c>
       <c r="D177" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E177" t="s">
         <v>313</v>
@@ -7202,19 +7301,19 @@
         <v>314</v>
       </c>
       <c r="G177" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H177" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="I177" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J177" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="K177" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7228,25 +7327,25 @@
         <v>206</v>
       </c>
       <c r="D178" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E178" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F178" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G178" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H178" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I178" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="J178" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7260,22 +7359,22 @@
         <v>203</v>
       </c>
       <c r="D179" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E179" t="s">
         <v>314</v>
       </c>
       <c r="F179" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G179" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="H179" t="s">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="I179" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7289,34 +7388,34 @@
         <v>206</v>
       </c>
       <c r="D180" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E180" t="s">
         <v>314</v>
       </c>
       <c r="F180" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G180" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="H180" t="s">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="I180" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="J180" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K180" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="L180" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M180" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7330,31 +7429,31 @@
         <v>206</v>
       </c>
       <c r="D181" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E181" t="s">
         <v>315</v>
       </c>
       <c r="F181" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G181" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H181" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="I181" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="J181" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="K181" t="s">
         <v>318</v>
       </c>
       <c r="L181" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7368,28 +7467,28 @@
         <v>206</v>
       </c>
       <c r="D182" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E182" t="s">
         <v>315</v>
       </c>
       <c r="F182" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G182" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H182" t="s">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="I182" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J182" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K182" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L182" t="s">
         <v>319</v>
@@ -7406,22 +7505,22 @@
         <v>211</v>
       </c>
       <c r="D183" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E183" t="s">
         <v>316</v>
       </c>
       <c r="F183" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G183" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="H183" t="s">
         <v>302</v>
       </c>
       <c r="I183" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -7435,19 +7534,19 @@
         <v>206</v>
       </c>
       <c r="D184" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E184" t="s">
         <v>317</v>
       </c>
       <c r="F184" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G184" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="H184" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="I184" t="s">
         <v>319</v>
@@ -7464,13 +7563,13 @@
         <v>206</v>
       </c>
       <c r="D185" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E185" t="s">
         <v>318</v>
       </c>
       <c r="F185" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="186" spans="1:13">
@@ -7484,7 +7583,7 @@
         <v>206</v>
       </c>
       <c r="D186" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E186" t="s">
         <v>319</v>
@@ -7501,7 +7600,7 @@
         <v>206</v>
       </c>
       <c r="D187" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E187" t="s">
         <v>320</v>
@@ -7518,7 +7617,7 @@
         <v>206</v>
       </c>
       <c r="D188" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E188" t="s">
         <v>321</v>
@@ -7535,7 +7634,7 @@
         <v>206</v>
       </c>
       <c r="D189" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E189" t="s">
         <v>321</v>
